--- a/LocationsOfInterest.xlsx
+++ b/LocationsOfInterest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/211920ff5f5a166b/Documents/Locations of Interest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\LOINZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{16CAD0C9-49FF-488B-AD3E-EF0BB4B1873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9967AE1-52CC-4A3D-9713-BDDA35BA7AF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D68590-F792-4ED0-B8D4-F46A7F33C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
+    <workbookView xWindow="3810" yWindow="1455" windowWidth="38700" windowHeight="15435" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="344">
   <si>
     <t>Place</t>
   </si>
@@ -967,132 +967,115 @@
     <t>Pak'nSave Mt Albert</t>
   </si>
   <si>
-    <t>1167 New North Road, Mount Albert, Auckland 1025</t>
-  </si>
-  <si>
-    <t>Sunday 29 August</t>
-  </si>
-  <si>
-    <t>10:45 am - 1:00 pm</t>
-  </si>
-  <si>
     <t>Pak'nSave Manukau</t>
   </si>
   <si>
-    <t>6 Cavendish Drive, Manukau, Auckland 2104</t>
-  </si>
-  <si>
-    <t>Saturday 28 August</t>
-  </si>
-  <si>
-    <t>5:50 pm - 6:50 pm</t>
-  </si>
-  <si>
     <t>Pak'nSave Massey</t>
   </si>
   <si>
-    <t>17 Fred Taylor Drive, Westgate, Auckland 0814</t>
-  </si>
-  <si>
-    <t>Thursday 26 August</t>
-  </si>
-  <si>
-    <t>7:59 pm - 8:30 pm</t>
-  </si>
-  <si>
     <t>Countdown Manukau Mall</t>
   </si>
   <si>
-    <t>Shop 99 Wiri Station Road Corner, Great South Road, Manukau City Centre, Auckland 2104</t>
-  </si>
-  <si>
-    <t>Friday 27 August</t>
-  </si>
-  <si>
-    <t>11:15 am - 11:30 am</t>
-  </si>
-  <si>
-    <t>65 Saint George Street, Papatoetoe, Auckland 2025</t>
-  </si>
-  <si>
-    <t>Tuesday 24 August</t>
-  </si>
-  <si>
-    <t>4:00 pm - 4:10 pm</t>
-  </si>
-  <si>
-    <t>19 Fred Taylor Drive, Westgate, Auckland 0814</t>
-  </si>
-  <si>
-    <t>5:34 pm - 6:00 pm</t>
-  </si>
-  <si>
     <t>Countdown Auckland Airport</t>
   </si>
   <si>
-    <t>Cnr George Bolt Memorial, John Goulter Drive, Mangere, Auckland</t>
-  </si>
-  <si>
-    <t>Tuesday 31 August</t>
-  </si>
-  <si>
-    <t>1:00 pm - 2:00 pm</t>
-  </si>
-  <si>
-    <t>63 St George Street, Papatoetoe, Auckland 2025</t>
-  </si>
-  <si>
-    <t>Friday 20 August</t>
-  </si>
-  <si>
-    <t>11:30 am - 12:30 pm</t>
-  </si>
-  <si>
-    <t>Monday 30 August</t>
-  </si>
-  <si>
-    <t>10:45 am - 11:30 am</t>
-  </si>
-  <si>
-    <t>40 Coronation Road, Mangere Bridge, Auckland 2022</t>
-  </si>
-  <si>
-    <t>7:00 pm - 8:35 pm</t>
-  </si>
-  <si>
     <t>Fresh N Save Otahuhu</t>
   </si>
   <si>
-    <t>424 Great South Road, Otahuhu, Auckland 1062</t>
-  </si>
-  <si>
-    <t>9:00 am - 9:30 am</t>
-  </si>
-  <si>
     <t>Fresh Choice Mangere Bridge</t>
   </si>
   <si>
     <t>Column1</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
     <t>Column3</t>
   </si>
   <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
+    <t>Location name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Platypus Ormiston Town Centre Flat Bush</t>
+  </si>
+  <si>
+    <t>Mobil New Lynn</t>
+  </si>
+  <si>
+    <t>Mount Smart Superette Onehunga</t>
+  </si>
+  <si>
+    <t>Mount Smart Ezy Laundromat Onehunga</t>
+  </si>
+  <si>
+    <t>Kevin's Laundromat Papatoetoe</t>
+  </si>
+  <si>
+    <t>Round The Clock Superette Manurewa</t>
+  </si>
+  <si>
+    <t>Countdown Hunters Plaza Papatoetoe</t>
+  </si>
+  <si>
+    <t>Hoyts Cinema Flat Bush</t>
+  </si>
+  <si>
+    <t>Ponderosa Dairy Favona</t>
+  </si>
+  <si>
+    <t>Countdown Mt Wellington</t>
+  </si>
+  <si>
+    <t>Chemist Warehouse Ronwood Centre</t>
+  </si>
+  <si>
+    <t>Gas Mascot Ave Mangere</t>
+  </si>
+  <si>
+    <t>Mobil Walmsley Road</t>
+  </si>
+  <si>
+    <t>PAPATOETOE 2104</t>
+  </si>
+  <si>
+    <t>Manurewa 2102</t>
+  </si>
+  <si>
+    <t>Papatoetoe 2025</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column23</t>
+  </si>
+  <si>
+    <t>Column24</t>
+  </si>
+  <si>
+    <t>Column25</t>
+  </si>
+  <si>
+    <t>Column242</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ am/pm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1129,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1137,19 +1120,41 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ am/pm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1180,8 +1185,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K320" totalsRowShown="0">
-  <autoFilter ref="A1:K320" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K344" totalsRowShown="0">
+  <autoFilter ref="A1:K344" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K309">
     <sortCondition descending="1" ref="F1:F309"/>
   </sortState>
@@ -1190,30 +1195,40 @@
     <tableColumn id="4" xr3:uid="{6B241F76-498C-4C47-9C11-E3696152F1BF}" name="Chain"/>
     <tableColumn id="2" xr3:uid="{76664143-11CB-4840-97D9-061CEC7B43CD}" name="Type"/>
     <tableColumn id="9" xr3:uid="{BAC21AB9-58A8-48B0-98C9-A628489890C2}" name="City"/>
-    <tableColumn id="6" xr3:uid="{BA8F5CAA-1A88-4985-A338-BA55A072525A}" name="ZipCode" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F1A70AC2-BA3C-4A95-B27B-5CC3D2C1D891}" name="Date" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{812226E3-0E7C-4CF7-AC43-C0720C5AEF8E}" name="StartTime" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{43021BD1-80BE-4CF9-8DA1-504C28CBD830}" name="EndTime" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{A44F1E07-E42F-4E39-9036-663E59E4937D}" name="Hours" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{40E69462-6B4E-401F-B5F9-E8F9B69D3C37}" name="Minutes" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{CFEE2357-43CB-4516-B268-CBC38435968E}" name="WhenUpdated" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{BA8F5CAA-1A88-4985-A338-BA55A072525A}" name="ZipCode" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{F1A70AC2-BA3C-4A95-B27B-5CC3D2C1D891}" name="Date" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{812226E3-0E7C-4CF7-AC43-C0720C5AEF8E}" name="StartTime" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{43021BD1-80BE-4CF9-8DA1-504C28CBD830}" name="EndTime" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{A44F1E07-E42F-4E39-9036-663E59E4937D}" name="Hours" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{40E69462-6B4E-401F-B5F9-E8F9B69D3C37}" name="Minutes" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{CFEE2357-43CB-4516-B268-CBC38435968E}" name="WhenUpdated" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{842ACC10-23ED-4A29-80A2-1B80C97D40EC}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
-  <autoFilter ref="A1:E12" xr:uid="{842ACC10-23ED-4A29-80A2-1B80C97D40EC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
-    <sortCondition descending="1" ref="C1:C12"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{12C2D8E9-9D4E-400D-96D2-0D45FEDCB091}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{B8D61242-A95A-45F8-B486-DB04F781CB84}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{614BC161-0041-44D7-933E-33F7AD1A9311}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{B7395A63-B732-44CF-AE01-1C12285493FA}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{D3F45EE0-C002-4B89-AA55-BB735CDEA8C9}" name="Column5" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{842ACC10-23ED-4A29-80A2-1B80C97D40EC}" name="Table1" displayName="Table1" ref="A1:L25" totalsRowShown="0">
+  <autoFilter ref="A1:L25" xr:uid="{842ACC10-23ED-4A29-80A2-1B80C97D40EC}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{12C2D8E9-9D4E-400D-96D2-0D45FEDCB091}" name="Location name"/>
+    <tableColumn id="2" xr3:uid="{B8D61242-A95A-45F8-B486-DB04F781CB84}" name="Address"/>
+    <tableColumn id="7" xr3:uid="{527EE043-9BE0-433B-AFF5-0950B3CC2E4F}" name="Column1"/>
+    <tableColumn id="9" xr3:uid="{2D626BBA-23AF-4475-9A96-A9CAB274B728}" name="Column12"/>
+    <tableColumn id="11" xr3:uid="{C5EE256C-9690-42DB-9686-6BB62A8AF9D3}" name="Column13" dataDxfId="6">
+      <calculatedColumnFormula>DATE(2021,D2,C2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B7395A63-B732-44CF-AE01-1C12285493FA}" name="Times" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{70189D42-4CCE-43B2-AEBC-0ECA7F9D546D}" name="Column3" dataDxfId="3">
+      <calculatedColumnFormula>E2+F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{BE6D7842-FE13-4FA7-8199-93AE4DACB939}" name="Column23" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{1C742D1E-41E5-4589-9947-8C2ED1190A59}" name="Column24" dataDxfId="2">
+      <calculatedColumnFormula>E2+H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{7743FAAD-C2CE-4EB5-B6C8-9AD18196FDB4}" name="Column242" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{BAE82128-5458-4CEA-B3CD-99029DE06E1E}" name="Column25" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EDDA7045-C90B-4AF8-BA8C-60E9495DA2E7}" name="Updated" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1516,17 +1531,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF01F6F-394C-421C-8FB1-87940BDF1F8E}">
-  <dimension ref="A1:K320"/>
+  <dimension ref="A1:K344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H320"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="K321" sqref="K321:K344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20" customWidth="1"/>
@@ -11588,7 +11603,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B311" t="s">
         <v>243</v>
@@ -11623,7 +11638,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B312" t="s">
         <v>243</v>
@@ -11658,7 +11673,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B313" t="s">
         <v>82</v>
@@ -11763,7 +11778,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B316" t="s">
         <v>82</v>
@@ -11833,7 +11848,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C318" t="s">
         <v>88</v>
@@ -11865,7 +11880,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C319" t="s">
         <v>88</v>
@@ -11897,7 +11912,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C320" t="s">
         <v>88</v>
@@ -11925,6 +11940,801 @@
       </c>
       <c r="K320" s="2">
         <v>44441.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>112</v>
+      </c>
+      <c r="B321" t="s">
+        <v>98</v>
+      </c>
+      <c r="C321" t="s">
+        <v>91</v>
+      </c>
+      <c r="D321" t="s">
+        <v>92</v>
+      </c>
+      <c r="E321" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F321" s="1">
+        <v>44425</v>
+      </c>
+      <c r="G321" s="4">
+        <v>44425.458333333336</v>
+      </c>
+      <c r="H321" s="4">
+        <v>44425.590277777781</v>
+      </c>
+      <c r="I321" s="6">
+        <v>3</v>
+      </c>
+      <c r="J321" s="6">
+        <v>10</v>
+      </c>
+      <c r="K321" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>315</v>
+      </c>
+      <c r="C322" t="s">
+        <v>88</v>
+      </c>
+      <c r="D322" t="s">
+        <v>92</v>
+      </c>
+      <c r="E322" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F322" s="1">
+        <v>44436</v>
+      </c>
+      <c r="G322" s="4">
+        <v>44436.791666666664</v>
+      </c>
+      <c r="H322" s="4">
+        <v>44436.857638888891</v>
+      </c>
+      <c r="I322" s="6">
+        <v>1</v>
+      </c>
+      <c r="J322" s="6">
+        <v>35</v>
+      </c>
+      <c r="K322" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+      <c r="C323" t="s">
+        <v>128</v>
+      </c>
+      <c r="D323" t="s">
+        <v>92</v>
+      </c>
+      <c r="E323" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F323" s="1">
+        <v>44425</v>
+      </c>
+      <c r="G323" s="4">
+        <v>44425.638888888891</v>
+      </c>
+      <c r="H323" s="4">
+        <v>44425.645833333336</v>
+      </c>
+      <c r="I323" s="6">
+        <v>0</v>
+      </c>
+      <c r="J323" s="6">
+        <v>10</v>
+      </c>
+      <c r="K323" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>243</v>
+      </c>
+      <c r="C324" t="s">
+        <v>88</v>
+      </c>
+      <c r="D324" t="s">
+        <v>92</v>
+      </c>
+      <c r="E324" s="3">
+        <v>1060</v>
+      </c>
+      <c r="F324" s="1">
+        <v>44439</v>
+      </c>
+      <c r="G324" s="4">
+        <v>44439.833333333336</v>
+      </c>
+      <c r="H324" s="4">
+        <v>44439.895833333336</v>
+      </c>
+      <c r="I324" s="6">
+        <v>1</v>
+      </c>
+      <c r="J324" s="6">
+        <v>30</v>
+      </c>
+      <c r="K324" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>323</v>
+      </c>
+      <c r="C325" t="s">
+        <v>123</v>
+      </c>
+      <c r="D325" t="s">
+        <v>92</v>
+      </c>
+      <c r="E325" s="3">
+        <v>600</v>
+      </c>
+      <c r="F325" s="1">
+        <v>44433</v>
+      </c>
+      <c r="G325" s="4">
+        <v>44433.770833333336</v>
+      </c>
+      <c r="H325" s="4">
+        <v>44433.791666666664</v>
+      </c>
+      <c r="I325" s="6">
+        <v>0</v>
+      </c>
+      <c r="J325" s="6">
+        <v>30</v>
+      </c>
+      <c r="K325" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>324</v>
+      </c>
+      <c r="C326" t="s">
+        <v>88</v>
+      </c>
+      <c r="D326" t="s">
+        <v>92</v>
+      </c>
+      <c r="E326" s="3">
+        <v>1061</v>
+      </c>
+      <c r="F326" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G326" s="4">
+        <v>44440.354166666664</v>
+      </c>
+      <c r="H326" s="4">
+        <v>44440.4375</v>
+      </c>
+      <c r="I326" s="6">
+        <v>2</v>
+      </c>
+      <c r="J326" s="6">
+        <v>0</v>
+      </c>
+      <c r="K326" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>243</v>
+      </c>
+      <c r="C327" t="s">
+        <v>88</v>
+      </c>
+      <c r="D327" t="s">
+        <v>92</v>
+      </c>
+      <c r="E327" s="3">
+        <v>1060</v>
+      </c>
+      <c r="F327" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G327" s="4">
+        <v>44440.510416666664</v>
+      </c>
+      <c r="H327" s="4">
+        <v>44440.572916666664</v>
+      </c>
+      <c r="I327" s="6">
+        <v>1</v>
+      </c>
+      <c r="J327" s="6">
+        <v>30</v>
+      </c>
+      <c r="K327" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>325</v>
+      </c>
+      <c r="C328" t="s">
+        <v>29</v>
+      </c>
+      <c r="D328" t="s">
+        <v>92</v>
+      </c>
+      <c r="E328" s="3">
+        <v>1061</v>
+      </c>
+      <c r="F328" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G328" s="4">
+        <v>44438.708333333336</v>
+      </c>
+      <c r="H328" s="4">
+        <v>44438.78125</v>
+      </c>
+      <c r="I328" s="6">
+        <v>1</v>
+      </c>
+      <c r="J328" s="6">
+        <v>45</v>
+      </c>
+      <c r="K328" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>326</v>
+      </c>
+      <c r="C329" t="s">
+        <v>29</v>
+      </c>
+      <c r="D329" t="s">
+        <v>92</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F329" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G329" s="4">
+        <v>44438.736111111109</v>
+      </c>
+      <c r="H329" s="4">
+        <v>44438.756944444445</v>
+      </c>
+      <c r="I329" s="6">
+        <v>0</v>
+      </c>
+      <c r="J329" s="6">
+        <v>30</v>
+      </c>
+      <c r="K329" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>326</v>
+      </c>
+      <c r="C330" t="s">
+        <v>29</v>
+      </c>
+      <c r="D330" t="s">
+        <v>92</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F330" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G330" s="4">
+        <v>44438.770138888889</v>
+      </c>
+      <c r="H330" s="4">
+        <v>44438.794444444444</v>
+      </c>
+      <c r="I330" s="6">
+        <v>0</v>
+      </c>
+      <c r="J330" s="6">
+        <v>35</v>
+      </c>
+      <c r="K330" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>325</v>
+      </c>
+      <c r="C331" t="s">
+        <v>29</v>
+      </c>
+      <c r="D331" t="s">
+        <v>92</v>
+      </c>
+      <c r="E331" s="3">
+        <v>1061</v>
+      </c>
+      <c r="F331" s="1">
+        <v>44436</v>
+      </c>
+      <c r="G331" s="4">
+        <v>44436.5</v>
+      </c>
+      <c r="H331" s="4">
+        <v>44436.583333333336</v>
+      </c>
+      <c r="I331" s="6">
+        <v>2</v>
+      </c>
+      <c r="J331" s="6">
+        <v>0</v>
+      </c>
+      <c r="K331" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>327</v>
+      </c>
+      <c r="C332" t="s">
+        <v>88</v>
+      </c>
+      <c r="D332" t="s">
+        <v>92</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F332" s="1">
+        <v>44437</v>
+      </c>
+      <c r="G332" s="4">
+        <v>44437.5625</v>
+      </c>
+      <c r="H332" s="4">
+        <v>44437.614583333336</v>
+      </c>
+      <c r="I332" s="6">
+        <v>1</v>
+      </c>
+      <c r="J332" s="6">
+        <v>15</v>
+      </c>
+      <c r="K332" s="2">
+        <v>44442.333333333336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>328</v>
+      </c>
+      <c r="B333" t="s">
+        <v>82</v>
+      </c>
+      <c r="C333" t="s">
+        <v>88</v>
+      </c>
+      <c r="D333" t="s">
+        <v>92</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F333" s="1">
+        <v>44434</v>
+      </c>
+      <c r="G333" s="4">
+        <v>44434.5</v>
+      </c>
+      <c r="H333" s="4">
+        <v>44434.541666666664</v>
+      </c>
+      <c r="I333" s="6">
+        <v>1</v>
+      </c>
+      <c r="J333" s="6">
+        <v>0</v>
+      </c>
+      <c r="K333" s="2">
+        <v>44442.333333333336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>193</v>
+      </c>
+      <c r="C334" t="s">
+        <v>24</v>
+      </c>
+      <c r="D334" t="s">
+        <v>92</v>
+      </c>
+      <c r="E334" s="3">
+        <v>1051</v>
+      </c>
+      <c r="F334" s="1">
+        <v>44425</v>
+      </c>
+      <c r="G334" s="4">
+        <v>44425.458333333336</v>
+      </c>
+      <c r="H334" s="4">
+        <v>44425.541666666664</v>
+      </c>
+      <c r="I334" s="6">
+        <v>2</v>
+      </c>
+      <c r="J334" s="6">
+        <v>0</v>
+      </c>
+      <c r="K334" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>44</v>
+      </c>
+      <c r="B335" t="s">
+        <v>81</v>
+      </c>
+      <c r="C335" t="s">
+        <v>88</v>
+      </c>
+      <c r="D335" t="s">
+        <v>92</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F335" s="1">
+        <v>44434</v>
+      </c>
+      <c r="G335" s="4">
+        <v>44434.62777777778</v>
+      </c>
+      <c r="H335" s="4">
+        <v>44434.648611111108</v>
+      </c>
+      <c r="I335" s="6">
+        <v>0</v>
+      </c>
+      <c r="J335" s="6">
+        <v>30</v>
+      </c>
+      <c r="K335" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>329</v>
+      </c>
+      <c r="C336" t="s">
+        <v>128</v>
+      </c>
+      <c r="D336" t="s">
+        <v>92</v>
+      </c>
+      <c r="E336" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F336" s="1">
+        <v>44425</v>
+      </c>
+      <c r="G336" s="4">
+        <v>44425.645833333336</v>
+      </c>
+      <c r="H336" s="4">
+        <v>44425.791666666664</v>
+      </c>
+      <c r="I336" s="6">
+        <v>3</v>
+      </c>
+      <c r="J336" s="6">
+        <v>30</v>
+      </c>
+      <c r="K336" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>44</v>
+      </c>
+      <c r="B337" t="s">
+        <v>81</v>
+      </c>
+      <c r="C337" t="s">
+        <v>88</v>
+      </c>
+      <c r="D337" t="s">
+        <v>92</v>
+      </c>
+      <c r="E337" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F337" s="1">
+        <v>44426</v>
+      </c>
+      <c r="G337" s="4">
+        <v>44426.62777777778</v>
+      </c>
+      <c r="H337" s="4">
+        <v>44426.669444444444</v>
+      </c>
+      <c r="I337" s="6">
+        <v>1</v>
+      </c>
+      <c r="J337" s="6">
+        <v>0</v>
+      </c>
+      <c r="K337" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>45</v>
+      </c>
+      <c r="B338" t="s">
+        <v>82</v>
+      </c>
+      <c r="C338" t="s">
+        <v>88</v>
+      </c>
+      <c r="D338" t="s">
+        <v>92</v>
+      </c>
+      <c r="E338" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F338" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G338" s="4">
+        <v>44438.5</v>
+      </c>
+      <c r="H338" s="4">
+        <v>44438.527777777781</v>
+      </c>
+      <c r="I338" s="6">
+        <v>0</v>
+      </c>
+      <c r="J338" s="6">
+        <v>40</v>
+      </c>
+      <c r="K338" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>330</v>
+      </c>
+      <c r="C339" t="s">
+        <v>88</v>
+      </c>
+      <c r="D339" t="s">
+        <v>92</v>
+      </c>
+      <c r="E339" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F339" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G339" s="4">
+        <v>44440.713888888888</v>
+      </c>
+      <c r="H339" s="4">
+        <v>44440.71875</v>
+      </c>
+      <c r="I339" s="6">
+        <v>0</v>
+      </c>
+      <c r="J339" s="6">
+        <v>7</v>
+      </c>
+      <c r="K339" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>331</v>
+      </c>
+      <c r="B340" t="s">
+        <v>82</v>
+      </c>
+      <c r="C340" t="s">
+        <v>88</v>
+      </c>
+      <c r="D340" t="s">
+        <v>92</v>
+      </c>
+      <c r="E340" s="3">
+        <v>1060</v>
+      </c>
+      <c r="F340" s="1">
+        <v>44429</v>
+      </c>
+      <c r="G340" s="4">
+        <v>44429.78125</v>
+      </c>
+      <c r="H340" s="4">
+        <v>44429.8125</v>
+      </c>
+      <c r="I340" s="6">
+        <v>0</v>
+      </c>
+      <c r="J340" s="6">
+        <v>45</v>
+      </c>
+      <c r="K340" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>53</v>
+      </c>
+      <c r="B341" t="s">
+        <v>82</v>
+      </c>
+      <c r="C341" t="s">
+        <v>88</v>
+      </c>
+      <c r="D341" t="s">
+        <v>92</v>
+      </c>
+      <c r="E341" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F341" s="1">
+        <v>44433</v>
+      </c>
+      <c r="G341" s="4">
+        <v>44433.458333333336</v>
+      </c>
+      <c r="H341" s="4">
+        <v>44433.5625</v>
+      </c>
+      <c r="I341" s="6">
+        <v>2</v>
+      </c>
+      <c r="J341" s="6">
+        <v>30</v>
+      </c>
+      <c r="K341" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>332</v>
+      </c>
+      <c r="C342" t="s">
+        <v>24</v>
+      </c>
+      <c r="D342" t="s">
+        <v>92</v>
+      </c>
+      <c r="E342" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F342" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G342" s="4">
+        <v>44438.74722222222</v>
+      </c>
+      <c r="H342" s="4">
+        <v>44438.770833333336</v>
+      </c>
+      <c r="I342" s="6">
+        <v>0</v>
+      </c>
+      <c r="J342" s="6">
+        <v>34</v>
+      </c>
+      <c r="K342" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>333</v>
+      </c>
+      <c r="C343" t="s">
+        <v>123</v>
+      </c>
+      <c r="D343" t="s">
+        <v>92</v>
+      </c>
+      <c r="E343" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F343" s="1">
+        <v>44436</v>
+      </c>
+      <c r="G343" s="4">
+        <v>44436.484722222223</v>
+      </c>
+      <c r="H343" s="4">
+        <v>44436.489583333336</v>
+      </c>
+      <c r="I343" s="6">
+        <v>0</v>
+      </c>
+      <c r="J343" s="6">
+        <v>7</v>
+      </c>
+      <c r="K343" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>334</v>
+      </c>
+      <c r="C344" t="s">
+        <v>123</v>
+      </c>
+      <c r="D344" t="s">
+        <v>92</v>
+      </c>
+      <c r="E344" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F344" s="1">
+        <v>44435</v>
+      </c>
+      <c r="G344" s="4">
+        <v>44435.999305555553</v>
+      </c>
+      <c r="H344" s="4">
+        <v>44436.010416666664</v>
+      </c>
+      <c r="I344" s="6">
+        <v>0</v>
+      </c>
+      <c r="J344" s="6">
+        <v>16</v>
+      </c>
+      <c r="K344" s="2">
+        <v>44441.75</v>
       </c>
     </row>
   </sheetData>
@@ -11938,228 +12748,1050 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3E5F5-74DE-42FC-BD6F-3A1AA0AC7FBF}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="C1" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="E1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="5">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E25" si="0">DATE(2021,D2,C2)</f>
+        <v>44425</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G25" si="1">E2+F2</f>
+        <v>44425.458333333336</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I24" si="2">E2+H2</f>
+        <v>44425.590277777781</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="5">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>44436</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>44436.791666666664</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="2"/>
+        <v>44436.857638888891</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="5">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>44425</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>44425.638888888891</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="2"/>
+        <v>44425.645833333336</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1060</v>
+      </c>
+      <c r="C5" s="5">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>44439</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>44439.833333333336</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>44439.895833333336</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6">
+        <v>600</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>44433</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>44433.770833333336</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>44433.791666666664</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7">
+        <v>1061</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>44440.354166666664</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>44440.4375</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1060</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>44440.510416666664</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>44440.572916666664</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9">
+        <v>1061</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>44438</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>44438.708333333336</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>44438.78125</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="5">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>44438</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>44438.736111111109</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>44438.756944444445</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="5">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>44438</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>44438.770138888889</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>44438.794444444444</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12">
+        <v>1061</v>
+      </c>
+      <c r="C12" s="5">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>44436</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>44436.5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>44436.583333333336</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>44442.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="5">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>44437</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>44437.5625</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>44437.614583333336</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>44442.333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="5">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>44434</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>44434.5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="2"/>
+        <v>44434.541666666664</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>44442.333333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15">
+        <v>1051</v>
+      </c>
+      <c r="C15" s="5">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>44425</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>44425.458333333336</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="2"/>
+        <v>44425.541666666664</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="5">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>44434</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>44434.62777777778</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="2"/>
+        <v>44434.648611111108</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17">
+        <v>2019</v>
+      </c>
+      <c r="C17" s="5">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>44425</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>44425.645833333336</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="2"/>
+        <v>44425.791666666664</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="5">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>44426</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>44426.62777777778</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="2"/>
+        <v>44426.669444444444</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>2104</v>
+      </c>
+      <c r="C19" s="5">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>44438</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>44438.5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>44438.527777777781</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>40</v>
+      </c>
+      <c r="L19" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>330</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B20">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>44440.713888888888</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.71875</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="2"/>
+        <v>44440.71875</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>331</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B21">
+        <v>1060</v>
+      </c>
+      <c r="C21" s="5">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>44429</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>44429.78125</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="2"/>
+        <v>44429.8125</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>45</v>
+      </c>
+      <c r="L21" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="5">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>44433</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>44433.458333333336</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="2"/>
+        <v>44433.5625</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>332</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B23">
+        <v>2104</v>
+      </c>
+      <c r="C23" s="5">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>44438</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>44438.74722222222</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="2"/>
+        <v>44438.770833333336</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>34</v>
+      </c>
+      <c r="L23" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44441.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B24">
+        <v>2022</v>
+      </c>
+      <c r="C24" s="5">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>44436</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>44436.484722222223</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="2"/>
+        <v>44436.489583333336</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24" s="2">
+        <v>44441.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>334</v>
       </c>
-      <c r="C12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12" s="2">
-        <v>44441.5</v>
+      <c r="B25">
+        <v>2024</v>
+      </c>
+      <c r="C25" s="5">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>44435</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>44435.999305555553</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>44436.010416666664</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>16</v>
+      </c>
+      <c r="L25" s="2">
+        <v>44441.75</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I25" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/LocationsOfInterest.xlsx
+++ b/LocationsOfInterest.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\LOINZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12DC587-D70C-4719-BE99-ADE7284897B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF2CF34-D466-4122-BC64-2A7B1D68E3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="4605" windowWidth="38700" windowHeight="15345" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="381">
   <si>
     <t>Place</t>
   </si>
@@ -1152,6 +1153,33 @@
   </si>
   <si>
     <t>Pak'nSave Kilbirnie</t>
+  </si>
+  <si>
+    <t>Puhinui Pharmacy Papatoetoe</t>
+  </si>
+  <si>
+    <t>Countdown Pharmacy Mangere East</t>
+  </si>
+  <si>
+    <t>Whenuapai Gardens &amp; Orchard Otahuhu</t>
+  </si>
+  <si>
+    <t>Richmond Road Chemist Grey Lynn</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column42</t>
+  </si>
+  <si>
+    <t>Column43</t>
+  </si>
+  <si>
+    <t>Column44</t>
+  </si>
+  <si>
+    <t>Column432</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1211,11 +1239,37 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="hh:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1299,8 +1353,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K370" totalsRowShown="0">
-  <autoFilter ref="A1:K370" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K374" totalsRowShown="0">
+  <autoFilter ref="A1:K374" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K370">
     <sortCondition ref="A1:A370"/>
   </sortState>
@@ -1309,13 +1363,13 @@
     <tableColumn id="4" xr3:uid="{6B241F76-498C-4C47-9C11-E3696152F1BF}" name="Chain"/>
     <tableColumn id="2" xr3:uid="{76664143-11CB-4840-97D9-061CEC7B43CD}" name="Type"/>
     <tableColumn id="9" xr3:uid="{BAC21AB9-58A8-48B0-98C9-A628489890C2}" name="City"/>
-    <tableColumn id="6" xr3:uid="{BA8F5CAA-1A88-4985-A338-BA55A072525A}" name="ZipCode" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{F1A70AC2-BA3C-4A95-B27B-5CC3D2C1D891}" name="Date" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{812226E3-0E7C-4CF7-AC43-C0720C5AEF8E}" name="StartTime" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{43021BD1-80BE-4CF9-8DA1-504C28CBD830}" name="EndTime" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{A44F1E07-E42F-4E39-9036-663E59E4937D}" name="Hours" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{40E69462-6B4E-401F-B5F9-E8F9B69D3C37}" name="Minutes" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{CFEE2357-43CB-4516-B268-CBC38435968E}" name="WhenUpdated" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{BA8F5CAA-1A88-4985-A338-BA55A072525A}" name="ZipCode" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{F1A70AC2-BA3C-4A95-B27B-5CC3D2C1D891}" name="Date" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{812226E3-0E7C-4CF7-AC43-C0720C5AEF8E}" name="StartTime" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{43021BD1-80BE-4CF9-8DA1-504C28CBD830}" name="EndTime" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{A44F1E07-E42F-4E39-9036-663E59E4937D}" name="Hours" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{40E69462-6B4E-401F-B5F9-E8F9B69D3C37}" name="Minutes" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{CFEE2357-43CB-4516-B268-CBC38435968E}" name="WhenUpdated" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1329,23 +1383,23 @@
     <tableColumn id="2" xr3:uid="{B8D61242-A95A-45F8-B486-DB04F781CB84}" name="Address"/>
     <tableColumn id="7" xr3:uid="{527EE043-9BE0-433B-AFF5-0950B3CC2E4F}" name="Column1"/>
     <tableColumn id="9" xr3:uid="{2D626BBA-23AF-4475-9A96-A9CAB274B728}" name="Column12"/>
-    <tableColumn id="11" xr3:uid="{C5EE256C-9690-42DB-9686-6BB62A8AF9D3}" name="Column13" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{C5EE256C-9690-42DB-9686-6BB62A8AF9D3}" name="Column13" dataDxfId="23">
       <calculatedColumnFormula>DATE(2021,D2,C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B7395A63-B732-44CF-AE01-1C12285493FA}" name="Times" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{70189D42-4CCE-43B2-AEBC-0ECA7F9D546D}" name="Column3" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{B7395A63-B732-44CF-AE01-1C12285493FA}" name="Times" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{70189D42-4CCE-43B2-AEBC-0ECA7F9D546D}" name="Column3" dataDxfId="21">
       <calculatedColumnFormula>E2+F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BE6D7842-FE13-4FA7-8199-93AE4DACB939}" name="Column23" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{1C742D1E-41E5-4589-9947-8C2ED1190A59}" name="Column24" dataDxfId="11">
+    <tableColumn id="14" xr3:uid="{BE6D7842-FE13-4FA7-8199-93AE4DACB939}" name="Column23" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{1C742D1E-41E5-4589-9947-8C2ED1190A59}" name="Column24" dataDxfId="19">
       <calculatedColumnFormula>E2+H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B8D83278-8C3D-45C8-A671-F58C825BA7E7}" name="Column243" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{B8D83278-8C3D-45C8-A671-F58C825BA7E7}" name="Column243" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[Column24]]-Table1[[#This Row],[Column3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{7743FAAD-C2CE-4EB5-B6C8-9AD18196FDB4}" name="Column242" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{BAE82128-5458-4CEA-B3CD-99029DE06E1E}" name="Column25" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{EDDA7045-C90B-4AF8-BA8C-60E9495DA2E7}" name="Updated" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{7743FAAD-C2CE-4EB5-B6C8-9AD18196FDB4}" name="Column242" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{BAE82128-5458-4CEA-B3CD-99029DE06E1E}" name="Column25" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{EDDA7045-C90B-4AF8-BA8C-60E9495DA2E7}" name="Updated" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1359,22 +1413,53 @@
     <tableColumn id="2" xr3:uid="{5C173482-F099-496F-BF62-6BE55B725AAF}" name="Address"/>
     <tableColumn id="8" xr3:uid="{FD35A265-DFA4-4000-AECC-5208A0A1D01D}" name="Column2"/>
     <tableColumn id="7" xr3:uid="{007D6E8F-597D-4001-B178-F3B581C38473}" name="Column1"/>
-    <tableColumn id="9" xr3:uid="{47A6A511-2CC6-41D3-B0D6-18F9E7427D4A}" name="Column12" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{47A6A511-2CC6-41D3-B0D6-18F9E7427D4A}" name="Column12" dataDxfId="14">
       <calculatedColumnFormula>DATE(2021,D2,C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{98CFB46E-27A3-40CF-8CBB-32C3F6DC37EA}" name="Times" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{1678C2B7-43EE-4C32-A44D-B52348ED2AB6}" name="Column4" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{98CFB46E-27A3-40CF-8CBB-32C3F6DC37EA}" name="Times" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{1678C2B7-43EE-4C32-A44D-B52348ED2AB6}" name="Column4" dataDxfId="12">
       <calculatedColumnFormula>E2+F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BAB2F103-6890-419B-80F8-6548A3028CB0}" name="Column3" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{94E08B18-94F4-4EEE-80C0-E34C9C24A73D}" name="Column32" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{BAB2F103-6890-419B-80F8-6548A3028CB0}" name="Column3" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{94E08B18-94F4-4EEE-80C0-E34C9C24A73D}" name="Column32" dataDxfId="10">
       <calculatedColumnFormula>E2+H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{279CD4D2-1EE7-4407-AFFC-40222877DE21}" name="Column33" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{279CD4D2-1EE7-4407-AFFC-40222877DE21}" name="Column33" dataDxfId="9">
       <calculatedColumnFormula>I2-G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C9D5E0C1-B4B2-4F26-BA9A-6312966E17C9}" name="Column34" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{C9D5E0C1-B4B2-4F26-BA9A-6312966E17C9}" name="Column34" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{05E0D6C8-9390-4AF4-B795-08FE36A59F8F}" name="Updated"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFDA03E6-1EFD-4AB2-9939-D26EA4D3AA11}" name="Table3" displayName="Table3" ref="A1:N5" totalsRowShown="0">
+  <autoFilter ref="A1:N5" xr:uid="{CFDA03E6-1EFD-4AB2-9939-D26EA4D3AA11}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{3BC0C798-FDC3-4121-B256-70F1B59AA055}" name="Location name"/>
+    <tableColumn id="2" xr3:uid="{94D45253-430C-473E-A662-5BBC9AE54E40}" name="Address"/>
+    <tableColumn id="3" xr3:uid="{658E7810-2603-43D1-BA06-46CFEE3D2B8F}" name="Column1"/>
+    <tableColumn id="4" xr3:uid="{EBD11B75-2140-4FBD-BB29-D87AEB065532}" name="Column2"/>
+    <tableColumn id="5" xr3:uid="{84A4FF10-3B7A-48B5-A27F-6C2EED4DCA1F}" name="Column3"/>
+    <tableColumn id="9" xr3:uid="{707C8DDB-2214-487D-B3EE-76FACBF231AD}" name="Column32" dataDxfId="7">
+      <calculatedColumnFormula>DATE(2021,D2,C2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9934DED0-EB86-409D-A250-C9D8AA48BC39}" name="Times" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{2DB63540-2311-4510-991C-30B79B205F62}" name="Column5" dataDxfId="5">
+      <calculatedColumnFormula>F2+G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{4BC2205D-4E7D-4F5A-9F66-140480E6A3C9}" name="Column4"/>
+    <tableColumn id="11" xr3:uid="{DCFCF9DA-A41C-4893-8482-18F50F045645}" name="Column42" dataDxfId="4">
+      <calculatedColumnFormula>F2+I2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{7DC08C6E-1B37-42F4-9BF4-E94C31D5E2CD}" name="Column43" dataDxfId="3">
+      <calculatedColumnFormula>J2-H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{6E416E94-9F6B-4657-8FD8-06E00B12BEA4}" name="Column432" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{CF79D3A9-C9A4-49B9-9032-4DC9A3D47D1A}" name="Column44" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0B574CFB-265F-4A8F-86A4-8DC1BB90911C}" name="Updated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1677,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF01F6F-394C-421C-8FB1-87940BDF1F8E}">
-  <dimension ref="A1:K370"/>
+  <dimension ref="A1:K374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229:XFD231"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13776,6 +13861,134 @@
       </c>
       <c r="K370" s="2">
         <v>44429.375</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>372</v>
+      </c>
+      <c r="C371" t="s">
+        <v>171</v>
+      </c>
+      <c r="D371" t="s">
+        <v>87</v>
+      </c>
+      <c r="E371" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F371" s="1">
+        <v>44435</v>
+      </c>
+      <c r="G371" s="11">
+        <v>44435.5</v>
+      </c>
+      <c r="H371" s="11">
+        <v>44435.541666666664</v>
+      </c>
+      <c r="I371" s="6">
+        <v>1</v>
+      </c>
+      <c r="J371" s="6">
+        <v>0</v>
+      </c>
+      <c r="K371" s="2">
+        <v>44445.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>373</v>
+      </c>
+      <c r="C372" t="s">
+        <v>83</v>
+      </c>
+      <c r="D372" t="s">
+        <v>87</v>
+      </c>
+      <c r="E372" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F372" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G372" s="11">
+        <v>44440.458333333336</v>
+      </c>
+      <c r="H372" s="11">
+        <v>44440.46875</v>
+      </c>
+      <c r="I372" s="6">
+        <v>0</v>
+      </c>
+      <c r="J372" s="6">
+        <v>15</v>
+      </c>
+      <c r="K372" s="2">
+        <v>44445.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>374</v>
+      </c>
+      <c r="C373" t="s">
+        <v>168</v>
+      </c>
+      <c r="D373" t="s">
+        <v>87</v>
+      </c>
+      <c r="E373" s="3">
+        <v>1062</v>
+      </c>
+      <c r="F373" s="1">
+        <v>44437</v>
+      </c>
+      <c r="G373" s="11">
+        <v>44437.5625</v>
+      </c>
+      <c r="H373" s="11">
+        <v>44437.569444444445</v>
+      </c>
+      <c r="I373" s="6">
+        <v>0</v>
+      </c>
+      <c r="J373" s="6">
+        <v>10</v>
+      </c>
+      <c r="K373" s="2">
+        <v>44445.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>375</v>
+      </c>
+      <c r="C374" t="s">
+        <v>171</v>
+      </c>
+      <c r="D374" t="s">
+        <v>87</v>
+      </c>
+      <c r="E374" s="3">
+        <v>1021</v>
+      </c>
+      <c r="F374" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G374" s="11">
+        <v>44438.572916666664</v>
+      </c>
+      <c r="H374" s="11">
+        <v>44438.59375</v>
+      </c>
+      <c r="I374" s="6">
+        <v>0</v>
+      </c>
+      <c r="J374" s="6">
+        <v>30</v>
+      </c>
+      <c r="K374" s="2">
+        <v>44445.5</v>
       </c>
     </row>
   </sheetData>
@@ -17044,6 +17257,258 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAD0DC3-A50F-49F6-999A-EC0A877361D1}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" t="s">
+        <v>380</v>
+      </c>
+      <c r="M1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2">
+        <v>2025</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F5" si="0">DATE(2021,D2,C2)</f>
+        <v>44435</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H5" si="1">F2+G2</f>
+        <v>44435.5</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J5" si="2">F2+I2</f>
+        <v>44435.541666666664</v>
+      </c>
+      <c r="K2" s="10">
+        <f t="shared" ref="K2:K5" si="3">J2-H2</f>
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44445.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3">
+        <v>2024</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="1"/>
+        <v>44440.458333333336</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.46875</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="2"/>
+        <v>44440.46875</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0416666664241347E-2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2">
+        <v>44445.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4">
+        <v>1062</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>44437</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>44437.5625</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="2"/>
+        <v>44437.569444444445</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" si="3"/>
+        <v>6.9444444452528842E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>44445.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5">
+        <v>1021</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>44438</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>44438.572916666664</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.59375</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>44438.59375</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="3"/>
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>44445.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>

--- a/LocationsOfInterest.xlsx
+++ b/LocationsOfInterest.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\LOINZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6B439B-09FC-49C5-B862-9F6F9268B274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F387523-A18B-4544-B6A9-2931BEBE4A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
+    <workbookView xWindow="2445" yWindow="3435" windowWidth="38700" windowHeight="15345" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="394">
   <si>
     <t>Place</t>
   </si>
@@ -958,24 +957,6 @@
     <t>Fresh Choice Mangere Bridge</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Location name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Times</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
     <t>Platypus Ormiston Town Centre Flat Bush</t>
   </si>
   <si>
@@ -1015,15 +996,6 @@
     <t>Mobil Walmsley Road</t>
   </si>
   <si>
-    <t>Manurewa 2102</t>
-  </si>
-  <si>
-    <t>Column12</t>
-  </si>
-  <si>
-    <t>Column13</t>
-  </si>
-  <si>
     <t>Countdown Northcote</t>
   </si>
   <si>
@@ -1063,9 +1035,6 @@
     <t>Mobil Titirangi New Lynn</t>
   </si>
   <si>
-    <t>Manukau 2104</t>
-  </si>
-  <si>
     <t>Helensville</t>
   </si>
   <si>
@@ -1096,12 +1065,6 @@
     <t>Waterview Superette and Lotto</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
     <t>Pak'nSave Royal Oak</t>
   </si>
   <si>
@@ -1153,26 +1116,114 @@
     <t>McKinnon Street Superette</t>
   </si>
   <si>
-    <t>Column22</t>
-  </si>
-  <si>
-    <t>Column14</t>
-  </si>
-  <si>
-    <t>Column132</t>
-  </si>
-  <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>Pak'nSave Clendon Park</t>
+  </si>
+  <si>
+    <t>Clendon Pharmacy Clendon Park</t>
+  </si>
+  <si>
+    <t>Clyde Road Superette Otara</t>
+  </si>
+  <si>
+    <t>Otara Mini Supermarket Otara</t>
+  </si>
+  <si>
+    <t>Pacifica Laundry Otara</t>
+  </si>
+  <si>
+    <t>Vege Oasis Papatoetoe</t>
+  </si>
+  <si>
+    <t>Countdown Manukau City Mall</t>
+  </si>
+  <si>
+    <t>Chatters Laundromat Manurewa</t>
+  </si>
+  <si>
+    <t>Puhinui Laundromat</t>
+  </si>
+  <si>
+    <t>New World Southmall</t>
+  </si>
+  <si>
+    <t>Caltex Truck Stop</t>
+  </si>
+  <si>
+    <t>Countdown Sunnynook</t>
+  </si>
+  <si>
+    <t>SupaSave Supermarket Otara</t>
+  </si>
+  <si>
+    <t>Bargain Chemist Manukau retail store only</t>
+  </si>
+  <si>
+    <t>ASB ATM next to Papatoetoe Countdown</t>
+  </si>
+  <si>
+    <t>Galaxie Dairy Mt Eden</t>
+  </si>
+  <si>
+    <t>Skinny Handy Dairy Papatoetoe</t>
+  </si>
+  <si>
+    <t>Snowhite &amp; Bone-Dry Laundromat PM</t>
+  </si>
+  <si>
+    <t>Snowhite &amp; Bone-Dry Laundromat AM</t>
+  </si>
+  <si>
+    <t>Kwality mini bazaar</t>
+  </si>
+  <si>
+    <t>Unichem Pharmacy Mangere East</t>
+  </si>
+  <si>
+    <t>Unichem Mangere East Pharmacy</t>
+  </si>
+  <si>
+    <t>GAS Mascot Ave</t>
+  </si>
+  <si>
+    <t>Orly Avenue Superette</t>
+  </si>
+  <si>
+    <t>SuperValue Palomino Henderson</t>
+  </si>
+  <si>
+    <t>Whenuapai Gardens &amp; Orchard Manukau</t>
+  </si>
+  <si>
+    <t>Fresh Choice Otahuhu</t>
+  </si>
+  <si>
+    <t>New World Botany</t>
+  </si>
+  <si>
+    <t>Pak'nSave Botany</t>
+  </si>
+  <si>
+    <t>Mojo's Superette Mangere Bridge</t>
+  </si>
+  <si>
+    <t>PAK'nSAVE Manukau</t>
+  </si>
+  <si>
+    <t>Dayspring Laundromat Papatoetoe</t>
+  </si>
+  <si>
+    <t>Chemist Warehouse Ronwood Centre Manukau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss;@"/>
-    <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ am/pm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1209,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1219,15 +1270,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
     </dxf>
@@ -1249,33 +1299,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="hh:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ am/pm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ am/pm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ am/pm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ am/pm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1290,8 +1313,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K389" totalsRowShown="0">
-  <autoFilter ref="A1:K389" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K451" totalsRowShown="0">
+  <autoFilter ref="A1:K451" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K370">
     <sortCondition ref="A1:A370"/>
   </sortState>
@@ -1307,36 +1330,6 @@
     <tableColumn id="10" xr3:uid="{A44F1E07-E42F-4E39-9036-663E59E4937D}" name="Hours" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{40E69462-6B4E-401F-B5F9-E8F9B69D3C37}" name="Minutes" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{CFEE2357-43CB-4516-B268-CBC38435968E}" name="WhenUpdated" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{84CCA67B-80D9-4A2E-911F-F792764F6CCA}" name="Table5" displayName="Table5" ref="A1:M16" totalsRowShown="0">
-  <autoFilter ref="A1:M16" xr:uid="{84CCA67B-80D9-4A2E-911F-F792764F6CCA}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{BE6D7FE5-5638-48B3-8612-7349D95E7540}" name="Location name"/>
-    <tableColumn id="2" xr3:uid="{D01A379E-9366-4A94-A70F-C89142144A1E}" name="Address"/>
-    <tableColumn id="9" xr3:uid="{1C422B12-47E2-4C3F-B185-4FE75FBF73F0}" name="Column3"/>
-    <tableColumn id="8" xr3:uid="{AC5F2A67-09BA-41B0-80DE-BE1579655D3D}" name="Column2"/>
-    <tableColumn id="10" xr3:uid="{F4F65E67-AC73-459D-884E-6806610E691C}" name="Column22" dataDxfId="14">
-      <calculatedColumnFormula>DATE(2021,D2,C2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{3CE424A3-64F6-4B02-9DDC-45ACCBC92581}" name="Times" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{F2CA581F-0463-4C1E-8F09-3499D4317326}" name="Column4" dataDxfId="11">
-      <calculatedColumnFormula>E2+F2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{76F26706-258B-4ABA-AD2A-9E3FC5108BF1}" name="Column1" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{F964058D-9050-4709-B761-1B4B08A888BC}" name="Column12" dataDxfId="10">
-      <calculatedColumnFormula>E2+H2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{EE977856-932E-4010-B7C4-E75462B84746}" name="Column13" dataDxfId="9">
-      <calculatedColumnFormula>I2-G2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{6DAA3204-E3C6-45FD-BE1C-1C4213A2D414}" name="Column132" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{04496DBA-70A6-48CE-8A2B-2B0CEC416173}" name="Column14" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{AA6FBC00-2C8E-47FA-ABE4-093B04FA0B9B}" name="Updated" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1639,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF01F6F-394C-421C-8FB1-87940BDF1F8E}">
-  <dimension ref="A1:K389"/>
+  <dimension ref="A1:K451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B388" sqref="B388"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="K390" sqref="K390:K451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,7 +3774,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -3907,7 +3900,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C72" t="s">
         <v>170</v>
@@ -4388,7 +4381,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B86" t="s">
         <v>76</v>
@@ -4397,10 +4390,10 @@
         <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F86" s="1">
         <v>44435</v>
@@ -4423,7 +4416,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s">
         <v>76</v>
@@ -4913,7 +4906,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
         <v>76</v>
@@ -4983,7 +4976,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B103" t="s">
         <v>76</v>
@@ -5228,7 +5221,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
         <v>76</v>
@@ -5263,7 +5256,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B111" t="s">
         <v>76</v>
@@ -6029,7 +6022,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s">
         <v>82</v>
@@ -6376,7 +6369,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C145" t="s">
         <v>117</v>
@@ -6408,7 +6401,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C146" t="s">
         <v>82</v>
@@ -6660,7 +6653,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C154" t="s">
         <v>122</v>
@@ -6788,7 +6781,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
         <v>24</v>
@@ -6820,7 +6813,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C159" t="s">
         <v>24</v>
@@ -7539,7 +7532,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C181" t="s">
         <v>82</v>
@@ -7923,7 +7916,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C193" t="s">
         <v>117</v>
@@ -8019,7 +8012,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C196" t="s">
         <v>117</v>
@@ -8051,7 +8044,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C197" t="s">
         <v>117</v>
@@ -8115,7 +8108,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
@@ -8147,7 +8140,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C200" t="s">
         <v>24</v>
@@ -8179,7 +8172,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C201" t="s">
         <v>82</v>
@@ -9050,7 +9043,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B227" t="s">
         <v>236</v>
@@ -9085,7 +9078,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B228" t="s">
         <v>236</v>
@@ -9505,7 +9498,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B240" t="s">
         <v>236</v>
@@ -9785,7 +9778,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B248" t="s">
         <v>236</v>
@@ -10397,7 +10390,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C266" t="s">
         <v>122</v>
@@ -10429,7 +10422,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C267" t="s">
         <v>82</v>
@@ -10461,7 +10454,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C268" t="s">
         <v>16</v>
@@ -10491,7 +10484,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C269" t="s">
         <v>16</v>
@@ -10521,7 +10514,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C270" t="s">
         <v>16</v>
@@ -10551,7 +10544,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C271" t="s">
         <v>16</v>
@@ -10581,7 +10574,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C272" t="s">
         <v>16</v>
@@ -10899,7 +10892,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C282" t="s">
         <v>82</v>
@@ -10931,7 +10924,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C283" t="s">
         <v>82</v>
@@ -11213,7 +11206,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C292" t="s">
         <v>82</v>
@@ -11539,7 +11532,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C302" t="s">
         <v>82</v>
@@ -12686,7 +12679,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C338" t="s">
         <v>82</v>
@@ -12878,7 +12871,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C344" t="s">
         <v>24</v>
@@ -12942,7 +12935,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C346" t="s">
         <v>82</v>
@@ -12974,7 +12967,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C347" t="s">
         <v>82</v>
@@ -13742,7 +13735,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C371" t="s">
         <v>170</v>
@@ -13756,10 +13749,10 @@
       <c r="F371" s="1">
         <v>44435</v>
       </c>
-      <c r="G371" s="10">
+      <c r="G371" s="9">
         <v>44435.5</v>
       </c>
-      <c r="H371" s="10">
+      <c r="H371" s="9">
         <v>44435.541666666664</v>
       </c>
       <c r="I371" s="6">
@@ -13774,7 +13767,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C372" t="s">
         <v>82</v>
@@ -13788,10 +13781,10 @@
       <c r="F372" s="1">
         <v>44440</v>
       </c>
-      <c r="G372" s="10">
+      <c r="G372" s="9">
         <v>44440.458333333336</v>
       </c>
-      <c r="H372" s="10">
+      <c r="H372" s="9">
         <v>44440.46875</v>
       </c>
       <c r="I372" s="6">
@@ -13806,7 +13799,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C373" t="s">
         <v>167</v>
@@ -13820,10 +13813,10 @@
       <c r="F373" s="1">
         <v>44437</v>
       </c>
-      <c r="G373" s="10">
+      <c r="G373" s="9">
         <v>44437.5625</v>
       </c>
-      <c r="H373" s="10">
+      <c r="H373" s="9">
         <v>44437.569444444445</v>
       </c>
       <c r="I373" s="6">
@@ -13838,7 +13831,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C374" t="s">
         <v>170</v>
@@ -13852,10 +13845,10 @@
       <c r="F374" s="1">
         <v>44438</v>
       </c>
-      <c r="G374" s="10">
+      <c r="G374" s="9">
         <v>44438.572916666664</v>
       </c>
-      <c r="H374" s="10">
+      <c r="H374" s="9">
         <v>44438.59375</v>
       </c>
       <c r="I374" s="6">
@@ -13870,7 +13863,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C375" t="s">
         <v>117</v>
@@ -13884,10 +13877,10 @@
       <c r="F375" s="1">
         <v>44443</v>
       </c>
-      <c r="G375" s="11">
+      <c r="G375" s="10">
         <v>44443.083333333336</v>
       </c>
-      <c r="H375" s="11">
+      <c r="H375" s="10">
         <v>44443.09375</v>
       </c>
       <c r="I375" s="6">
@@ -13902,7 +13895,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B376" t="s">
         <v>76</v>
@@ -13919,10 +13912,10 @@
       <c r="F376" s="1">
         <v>44442</v>
       </c>
-      <c r="G376" s="11">
+      <c r="G376" s="10">
         <v>44442.719444444447</v>
       </c>
-      <c r="H376" s="11">
+      <c r="H376" s="10">
         <v>44442.739583333336</v>
       </c>
       <c r="I376" s="6">
@@ -13937,7 +13930,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C377" t="s">
         <v>122</v>
@@ -13951,10 +13944,10 @@
       <c r="F377" s="1">
         <v>44442</v>
       </c>
-      <c r="G377" s="11">
+      <c r="G377" s="10">
         <v>44442.719444444447</v>
       </c>
-      <c r="H377" s="11">
+      <c r="H377" s="10">
         <v>44442.739583333336</v>
       </c>
       <c r="I377" s="6">
@@ -13969,7 +13962,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B378" t="s">
         <v>236</v>
@@ -13986,10 +13979,10 @@
       <c r="F378" s="1">
         <v>44433</v>
       </c>
-      <c r="G378" s="11">
+      <c r="G378" s="10">
         <v>44433.45416666667</v>
       </c>
-      <c r="H378" s="11">
+      <c r="H378" s="10">
         <v>44433.5</v>
       </c>
       <c r="I378" s="6">
@@ -14010,7 +14003,7 @@
         <v>236</v>
       </c>
       <c r="C379" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D379" t="s">
         <v>86</v>
@@ -14021,10 +14014,10 @@
       <c r="F379" s="1">
         <v>44431</v>
       </c>
-      <c r="G379" s="11">
+      <c r="G379" s="10">
         <v>44431.5</v>
       </c>
-      <c r="H379" s="11">
+      <c r="H379" s="10">
         <v>44431.541666666664</v>
       </c>
       <c r="I379" s="6">
@@ -14039,13 +14032,13 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B380" t="s">
         <v>236</v>
       </c>
       <c r="C380" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D380" t="s">
         <v>86</v>
@@ -14056,10 +14049,10 @@
       <c r="F380" s="1">
         <v>44432</v>
       </c>
-      <c r="G380" s="11">
+      <c r="G380" s="10">
         <v>44432.375</v>
       </c>
-      <c r="H380" s="11">
+      <c r="H380" s="10">
         <v>44432.458333333336</v>
       </c>
       <c r="I380" s="6">
@@ -14091,10 +14084,10 @@
       <c r="F381" s="1">
         <v>44437</v>
       </c>
-      <c r="G381" s="11">
+      <c r="G381" s="10">
         <v>44437.5</v>
       </c>
-      <c r="H381" s="11">
+      <c r="H381" s="10">
         <v>44437.666666666664</v>
       </c>
       <c r="I381" s="6">
@@ -14126,10 +14119,10 @@
       <c r="F382" s="1">
         <v>44435</v>
       </c>
-      <c r="G382" s="11">
+      <c r="G382" s="10">
         <v>44435.614583333336</v>
       </c>
-      <c r="H382" s="11">
+      <c r="H382" s="10">
         <v>44435.645833333336</v>
       </c>
       <c r="I382" s="6">
@@ -14144,7 +14137,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C383" t="s">
         <v>82</v>
@@ -14158,10 +14151,10 @@
       <c r="F383" s="1">
         <v>44440</v>
       </c>
-      <c r="G383" s="11">
+      <c r="G383" s="10">
         <v>44440.718055555553</v>
       </c>
-      <c r="H383" s="11">
+      <c r="H383" s="10">
         <v>44440.729166666664</v>
       </c>
       <c r="I383" s="6">
@@ -14176,13 +14169,13 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B384" t="s">
         <v>236</v>
       </c>
       <c r="C384" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D384" t="s">
         <v>86</v>
@@ -14193,10 +14186,10 @@
       <c r="F384" s="1">
         <v>44434</v>
       </c>
-      <c r="G384" s="11">
+      <c r="G384" s="10">
         <v>44434.583333333336</v>
       </c>
-      <c r="H384" s="11">
+      <c r="H384" s="10">
         <v>44434.645833333336</v>
       </c>
       <c r="I384" s="6">
@@ -14211,10 +14204,10 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C385" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D385" t="s">
         <v>86</v>
@@ -14225,10 +14218,10 @@
       <c r="F385" s="1">
         <v>44431</v>
       </c>
-      <c r="G385" s="11">
+      <c r="G385" s="10">
         <v>44431.520833333336</v>
       </c>
-      <c r="H385" s="11">
+      <c r="H385" s="10">
         <v>44431.572916666664</v>
       </c>
       <c r="I385" s="6">
@@ -14260,10 +14253,10 @@
       <c r="F386" s="1">
         <v>44434</v>
       </c>
-      <c r="G386" s="11">
+      <c r="G386" s="10">
         <v>44434.5625</v>
       </c>
-      <c r="H386" s="11">
+      <c r="H386" s="10">
         <v>44434.604166666664</v>
       </c>
       <c r="I386" s="6">
@@ -14278,7 +14271,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B387" t="s">
         <v>75</v>
@@ -14295,10 +14288,10 @@
       <c r="F387" s="1">
         <v>44433</v>
       </c>
-      <c r="G387" s="11">
+      <c r="G387" s="10">
         <v>44433.494444444441</v>
       </c>
-      <c r="H387" s="11">
+      <c r="H387" s="10">
         <v>44433.510416666664</v>
       </c>
       <c r="I387" s="6">
@@ -14313,7 +14306,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C388" t="s">
         <v>170</v>
@@ -14327,10 +14320,10 @@
       <c r="F388" s="1">
         <v>44438</v>
       </c>
-      <c r="G388" s="11">
+      <c r="G388" s="10">
         <v>44438.572916666664</v>
       </c>
-      <c r="H388" s="11">
+      <c r="H388" s="10">
         <v>44438.59375</v>
       </c>
       <c r="I388" s="6">
@@ -14345,7 +14338,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C389" t="s">
         <v>82</v>
@@ -14359,10 +14352,10 @@
       <c r="F389" s="1">
         <v>44433</v>
       </c>
-      <c r="G389" s="11">
+      <c r="G389" s="10">
         <v>44433.541666666664</v>
       </c>
-      <c r="H389" s="11">
+      <c r="H389" s="10">
         <v>44433.552083333336</v>
       </c>
       <c r="I389" s="6">
@@ -14375,748 +14368,2066 @@
         <v>44445.75</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7259A841-BC6D-4969-8AE3-9F8DC8D5018C}">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>361</v>
+      </c>
+      <c r="B390" t="s">
+        <v>236</v>
+      </c>
+      <c r="C390" t="s">
+        <v>82</v>
+      </c>
+      <c r="D390" t="s">
+        <v>86</v>
+      </c>
+      <c r="E390" s="3">
+        <v>2103</v>
+      </c>
+      <c r="F390" s="1">
+        <v>44441</v>
+      </c>
+      <c r="G390" s="11">
+        <v>44441.652777777781</v>
+      </c>
+      <c r="H390" s="11">
+        <v>44441.673611111109</v>
+      </c>
+      <c r="I390" s="6">
+        <v>0</v>
+      </c>
+      <c r="J390" s="6">
+        <v>30</v>
+      </c>
+      <c r="K390" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>361</v>
+      </c>
+      <c r="B391" t="s">
+        <v>236</v>
+      </c>
+      <c r="C391" t="s">
+        <v>82</v>
+      </c>
+      <c r="D391" t="s">
+        <v>86</v>
+      </c>
+      <c r="E391" s="3">
+        <v>2103</v>
+      </c>
+      <c r="F391" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G391" s="11">
+        <v>44444.663194444445</v>
+      </c>
+      <c r="H391" s="11">
+        <v>44444.6875</v>
+      </c>
+      <c r="I391" s="6">
+        <v>0</v>
+      </c>
+      <c r="J391" s="6">
+        <v>35</v>
+      </c>
+      <c r="K391" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>362</v>
+      </c>
+      <c r="C392" t="s">
+        <v>170</v>
+      </c>
+      <c r="D392" t="s">
+        <v>86</v>
+      </c>
+      <c r="E392" s="3">
+        <v>2103</v>
+      </c>
+      <c r="F392" s="1">
+        <v>44448</v>
+      </c>
+      <c r="G392" s="11">
+        <v>44448.479166666664</v>
+      </c>
+      <c r="H392" s="11">
+        <v>44448.524305555555</v>
+      </c>
+      <c r="I392" s="6">
+        <v>1</v>
+      </c>
+      <c r="J392" s="6">
+        <v>5</v>
+      </c>
+      <c r="K392" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>155</v>
+      </c>
+      <c r="B393" t="s">
+        <v>76</v>
+      </c>
+      <c r="C393" t="s">
+        <v>82</v>
+      </c>
+      <c r="D393" t="s">
+        <v>86</v>
+      </c>
+      <c r="E393" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F393" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G393" s="11">
+        <v>44446.458333333336</v>
+      </c>
+      <c r="H393" s="11">
+        <v>44446.479166666664</v>
+      </c>
+      <c r="I393" s="6">
+        <v>0</v>
+      </c>
+      <c r="J393" s="6">
+        <v>30</v>
+      </c>
+      <c r="K393" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>361</v>
+      </c>
+      <c r="B394" t="s">
+        <v>236</v>
+      </c>
+      <c r="C394" t="s">
+        <v>82</v>
+      </c>
+      <c r="D394" t="s">
+        <v>86</v>
+      </c>
+      <c r="E394" s="3">
+        <v>2103</v>
+      </c>
+      <c r="F394" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G394" s="11">
+        <v>44446.434027777781</v>
+      </c>
+      <c r="H394" s="11">
+        <v>44446.458333333336</v>
+      </c>
+      <c r="I394" s="6">
+        <v>0</v>
+      </c>
+      <c r="J394" s="6">
+        <v>35</v>
+      </c>
+      <c r="K394" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>363</v>
+      </c>
+      <c r="C395" t="s">
+        <v>82</v>
+      </c>
+      <c r="D395" t="s">
+        <v>86</v>
+      </c>
+      <c r="E395" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F395" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G395" s="11">
+        <v>44446.477777777778</v>
+      </c>
+      <c r="H395" s="11">
+        <v>44446.489583333336</v>
+      </c>
+      <c r="I395" s="6">
+        <v>0</v>
+      </c>
+      <c r="J395" s="6">
+        <v>17</v>
+      </c>
+      <c r="K395" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>364</v>
+      </c>
+      <c r="C396" t="s">
+        <v>82</v>
+      </c>
+      <c r="D396" t="s">
+        <v>86</v>
+      </c>
+      <c r="E396" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F396" s="1">
+        <v>44447</v>
+      </c>
+      <c r="G396" s="11">
+        <v>44447.675694444442</v>
+      </c>
+      <c r="H396" s="11">
+        <v>44447.6875</v>
+      </c>
+      <c r="I396" s="6">
+        <v>0</v>
+      </c>
+      <c r="J396" s="6">
+        <v>17</v>
+      </c>
+      <c r="K396" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>155</v>
+      </c>
+      <c r="B397" t="s">
+        <v>76</v>
+      </c>
+      <c r="C397" t="s">
+        <v>82</v>
+      </c>
+      <c r="D397" t="s">
+        <v>86</v>
+      </c>
+      <c r="E397" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F397" s="1">
+        <v>44448</v>
+      </c>
+      <c r="G397" s="11">
+        <v>44448.472222222219</v>
+      </c>
+      <c r="H397" s="11">
+        <v>44448.486111111109</v>
+      </c>
+      <c r="I397" s="6">
+        <v>0</v>
+      </c>
+      <c r="J397" s="6">
+        <v>20</v>
+      </c>
+      <c r="K397" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>363</v>
+      </c>
+      <c r="C398" t="s">
+        <v>82</v>
+      </c>
+      <c r="D398" t="s">
+        <v>86</v>
+      </c>
+      <c r="E398" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F398" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G398" s="11">
+        <v>44443.662499999999</v>
+      </c>
+      <c r="H398" s="11">
+        <v>44443.666666666664</v>
+      </c>
+      <c r="I398" s="6">
+        <v>0</v>
+      </c>
+      <c r="J398" s="6">
+        <v>6</v>
+      </c>
+      <c r="K398" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>365</v>
+      </c>
+      <c r="C399" t="s">
+        <v>24</v>
+      </c>
+      <c r="D399" t="s">
+        <v>86</v>
+      </c>
+      <c r="E399" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F399" s="1">
+        <v>44447</v>
+      </c>
+      <c r="G399" s="11">
+        <v>44447.67083333333</v>
+      </c>
+      <c r="H399" s="11">
+        <v>44447.6875</v>
+      </c>
+      <c r="I399" s="6">
+        <v>0</v>
+      </c>
+      <c r="J399" s="6">
+        <v>24</v>
+      </c>
+      <c r="K399" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>366</v>
+      </c>
+      <c r="C400" t="s">
+        <v>82</v>
+      </c>
+      <c r="D400" t="s">
+        <v>86</v>
+      </c>
+      <c r="E400" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F400" s="1">
+        <v>44442</v>
+      </c>
+      <c r="G400" s="11">
+        <v>44442.509722222225</v>
+      </c>
+      <c r="H400" s="11">
+        <v>44442.520833333336</v>
+      </c>
+      <c r="I400" s="6">
+        <v>0</v>
+      </c>
+      <c r="J400" s="6">
+        <v>16</v>
+      </c>
+      <c r="K400" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>365</v>
+      </c>
+      <c r="C401" t="s">
+        <v>24</v>
+      </c>
+      <c r="D401" t="s">
+        <v>86</v>
+      </c>
+      <c r="E401" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F401" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G401" s="11">
+        <v>44446.75</v>
+      </c>
+      <c r="H401" s="11">
+        <v>44446.760416666664</v>
+      </c>
+      <c r="I401" s="6">
+        <v>0</v>
+      </c>
+      <c r="J401" s="6">
+        <v>15</v>
+      </c>
+      <c r="K401" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>364</v>
+      </c>
+      <c r="C402" t="s">
+        <v>82</v>
+      </c>
+      <c r="D402" t="s">
+        <v>86</v>
+      </c>
+      <c r="E402" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F402" s="1">
+        <v>44442</v>
+      </c>
+      <c r="G402" s="11">
+        <v>44442.788194444445</v>
+      </c>
+      <c r="H402" s="11">
+        <v>44442.791666666664</v>
+      </c>
+      <c r="I402" s="6">
+        <v>0</v>
+      </c>
+      <c r="J402" s="6">
+        <v>5</v>
+      </c>
+      <c r="K402" s="2">
+        <v>44450.333333333336</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>349</v>
+      </c>
+      <c r="C403" t="s">
+        <v>117</v>
+      </c>
+      <c r="D403" t="s">
+        <v>86</v>
+      </c>
+      <c r="E403" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F403" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G403" s="11">
+        <v>44446.5625</v>
+      </c>
+      <c r="H403" s="11">
+        <v>44446.583333333336</v>
+      </c>
+      <c r="I403" s="6">
+        <v>0</v>
+      </c>
+      <c r="J403" s="6">
+        <v>30</v>
+      </c>
+      <c r="K403" s="2">
+        <v>44449.75</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>367</v>
+      </c>
+      <c r="B404" t="s">
+        <v>76</v>
+      </c>
+      <c r="C404" t="s">
+        <v>82</v>
+      </c>
+      <c r="D404" t="s">
+        <v>86</v>
+      </c>
+      <c r="E404" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F404" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G404" s="11">
+        <v>44446.372916666667</v>
+      </c>
+      <c r="H404" s="11">
+        <v>44446.378472222219</v>
+      </c>
+      <c r="I404" s="6">
+        <v>0</v>
+      </c>
+      <c r="J404" s="6">
+        <v>8</v>
+      </c>
+      <c r="K404" s="2">
+        <v>44449.75</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>367</v>
+      </c>
+      <c r="B405" t="s">
+        <v>76</v>
+      </c>
+      <c r="C405" t="s">
+        <v>82</v>
+      </c>
+      <c r="D405" t="s">
+        <v>86</v>
+      </c>
+      <c r="E405" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F405" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G405" s="11">
+        <v>44444.416666666664</v>
+      </c>
+      <c r="H405" s="11">
+        <v>44444.458333333336</v>
+      </c>
+      <c r="I405" s="6">
+        <v>1</v>
+      </c>
+      <c r="J405" s="6">
+        <v>1</v>
+      </c>
+      <c r="K405" s="2">
+        <v>44449.75</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>368</v>
+      </c>
+      <c r="C406" t="s">
+        <v>24</v>
+      </c>
+      <c r="D406" t="s">
+        <v>86</v>
+      </c>
+      <c r="E406" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F406" s="1">
+        <v>44448</v>
+      </c>
+      <c r="G406" s="11">
+        <v>44448.583333333336</v>
+      </c>
+      <c r="H406" s="11">
+        <v>44448.666666666664</v>
+      </c>
+      <c r="I406" s="6">
+        <v>2</v>
+      </c>
+      <c r="J406" s="6">
+        <v>2</v>
+      </c>
+      <c r="K406" s="2">
+        <v>44449.75</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>369</v>
+      </c>
+      <c r="C407" t="s">
+        <v>24</v>
+      </c>
+      <c r="D407" t="s">
+        <v>86</v>
+      </c>
+      <c r="E407" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F407" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G407" s="11">
+        <v>44444.666666666664</v>
+      </c>
+      <c r="H407" s="11">
+        <v>44444.708333333336</v>
+      </c>
+      <c r="I407" s="6">
+        <v>1</v>
+      </c>
+      <c r="J407" s="6">
+        <v>1</v>
+      </c>
+      <c r="K407" s="2">
+        <v>44449.75</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>301</v>
+      </c>
+      <c r="B408" t="s">
+        <v>236</v>
+      </c>
+      <c r="C408" t="s">
+        <v>82</v>
+      </c>
+      <c r="D408" t="s">
+        <v>86</v>
+      </c>
+      <c r="E408" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F408" s="1">
+        <v>44441</v>
+      </c>
+      <c r="G408" s="11">
+        <v>44441.458333333336</v>
+      </c>
+      <c r="H408" s="11">
+        <v>44441.510416666664</v>
+      </c>
+      <c r="I408" s="6">
+        <v>1</v>
+      </c>
+      <c r="J408" s="6">
+        <v>15</v>
+      </c>
+      <c r="K408" s="2">
+        <v>44449.75</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>55</v>
+      </c>
+      <c r="C409" t="s">
+        <v>82</v>
+      </c>
+      <c r="D409" t="s">
+        <v>86</v>
+      </c>
+      <c r="E409" s="3">
+        <v>2103</v>
+      </c>
+      <c r="F409" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G409" s="11">
+        <v>44446.5625</v>
+      </c>
+      <c r="H409" s="11">
+        <v>44446.618055555555</v>
+      </c>
+      <c r="I409" s="6">
+        <v>1</v>
+      </c>
+      <c r="J409" s="6">
+        <v>20</v>
+      </c>
+      <c r="K409" s="2">
+        <v>44449.75</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>370</v>
+      </c>
+      <c r="B410" t="s">
+        <v>75</v>
+      </c>
+      <c r="C410" t="s">
+        <v>82</v>
+      </c>
+      <c r="D410" t="s">
+        <v>86</v>
+      </c>
+      <c r="E410" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F410" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G410" s="11">
+        <v>44446.458333333336</v>
+      </c>
+      <c r="H410" s="11">
+        <v>44446.46875</v>
+      </c>
+      <c r="I410" s="6">
+        <v>0</v>
+      </c>
+      <c r="J410" s="6">
+        <v>15</v>
+      </c>
+      <c r="K410" s="2">
+        <v>44449.75</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>371</v>
+      </c>
+      <c r="C411" t="s">
+        <v>117</v>
+      </c>
+      <c r="D411" t="s">
+        <v>86</v>
+      </c>
+      <c r="E411" s="3">
+        <v>1011</v>
+      </c>
+      <c r="F411" s="1">
+        <v>44439</v>
+      </c>
+      <c r="G411" s="11">
+        <v>44439.34375</v>
+      </c>
+      <c r="H411" s="11">
+        <v>44439.364583333336</v>
+      </c>
+      <c r="I411" s="6">
+        <v>0</v>
+      </c>
+      <c r="J411" s="6">
+        <v>30</v>
+      </c>
+      <c r="K411" s="2">
+        <v>44449.583333333336</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>371</v>
+      </c>
+      <c r="C412" t="s">
+        <v>117</v>
+      </c>
+      <c r="D412" t="s">
+        <v>86</v>
+      </c>
+      <c r="E412" s="3">
+        <v>1011</v>
+      </c>
+      <c r="F412" s="1">
+        <v>44441</v>
+      </c>
+      <c r="G412" s="11">
+        <v>44441.236111111109</v>
+      </c>
+      <c r="H412" s="11">
+        <v>44441.25</v>
+      </c>
+      <c r="I412" s="6">
+        <v>0</v>
+      </c>
+      <c r="J412" s="6">
+        <v>20</v>
+      </c>
+      <c r="K412" s="2">
+        <v>44449.583333333336</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>372</v>
+      </c>
+      <c r="B413" t="s">
+        <v>76</v>
+      </c>
+      <c r="C413" t="s">
+        <v>82</v>
+      </c>
+      <c r="D413" t="s">
+        <v>86</v>
+      </c>
+      <c r="E413" s="3">
+        <v>620</v>
+      </c>
+      <c r="F413" s="1">
+        <v>44435</v>
+      </c>
+      <c r="G413" s="11">
+        <v>44435.5625</v>
+      </c>
+      <c r="H413" s="11">
+        <v>44435.604166666664</v>
+      </c>
+      <c r="I413" s="6">
+        <v>1</v>
+      </c>
+      <c r="J413" s="6">
+        <v>1</v>
+      </c>
+      <c r="K413" s="2">
+        <v>44449.583333333336</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>155</v>
+      </c>
+      <c r="B414" t="s">
+        <v>76</v>
+      </c>
+      <c r="C414" t="s">
+        <v>82</v>
+      </c>
+      <c r="D414" t="s">
+        <v>86</v>
+      </c>
+      <c r="E414" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F414" s="1">
+        <v>44448</v>
+      </c>
+      <c r="G414" s="11">
+        <v>44448.5</v>
+      </c>
+      <c r="H414" s="11">
+        <v>44448.520833333336</v>
+      </c>
+      <c r="I414" s="6">
+        <v>0</v>
+      </c>
+      <c r="J414" s="6">
+        <v>30</v>
+      </c>
+      <c r="K414" s="2">
+        <v>44449.333333333336</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>155</v>
+      </c>
+      <c r="B415" t="s">
+        <v>76</v>
+      </c>
+      <c r="C415" t="s">
+        <v>82</v>
+      </c>
+      <c r="D415" t="s">
+        <v>86</v>
+      </c>
+      <c r="E415" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F415" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G415" s="11">
+        <v>44446.520833333336</v>
+      </c>
+      <c r="H415" s="11">
+        <v>44446.541666666664</v>
+      </c>
+      <c r="I415" s="6">
+        <v>0</v>
+      </c>
+      <c r="J415" s="6">
+        <v>30</v>
+      </c>
+      <c r="K415" s="2">
+        <v>44449.333333333336</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>53</v>
+      </c>
+      <c r="B416" t="s">
+        <v>76</v>
+      </c>
+      <c r="C416" t="s">
+        <v>82</v>
+      </c>
+      <c r="D416" t="s">
+        <v>86</v>
+      </c>
+      <c r="E416" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F416" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G416" s="11">
+        <v>44444.364583333336</v>
+      </c>
+      <c r="H416" s="11">
+        <v>44444.416666666664</v>
+      </c>
+      <c r="I416" s="6">
+        <v>1</v>
+      </c>
+      <c r="J416" s="6">
+        <v>15</v>
+      </c>
+      <c r="K416" s="2">
+        <v>44448.75</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>372</v>
+      </c>
+      <c r="B417" t="s">
+        <v>76</v>
+      </c>
+      <c r="C417" t="s">
+        <v>82</v>
+      </c>
+      <c r="D417" t="s">
+        <v>86</v>
+      </c>
+      <c r="E417" s="3">
+        <v>620</v>
+      </c>
+      <c r="F417" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G417" s="11">
+        <v>44438.5</v>
+      </c>
+      <c r="H417" s="11">
+        <v>44438.53125</v>
+      </c>
+      <c r="I417" s="6">
+        <v>0</v>
+      </c>
+      <c r="J417" s="6">
+        <v>45</v>
+      </c>
+      <c r="K417" s="2">
+        <v>44448.75</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>372</v>
+      </c>
+      <c r="B418" t="s">
+        <v>76</v>
+      </c>
+      <c r="C418" t="s">
+        <v>82</v>
+      </c>
+      <c r="D418" t="s">
+        <v>86</v>
+      </c>
+      <c r="E418" s="3">
+        <v>620</v>
+      </c>
+      <c r="F418" s="1">
+        <v>44442</v>
+      </c>
+      <c r="G418" s="11">
+        <v>44442.427083333336</v>
+      </c>
+      <c r="H418" s="11">
+        <v>44442.5</v>
+      </c>
+      <c r="I418" s="6">
+        <v>1</v>
+      </c>
+      <c r="J418" s="6">
+        <v>45</v>
+      </c>
+      <c r="K418" s="2">
+        <v>44448.75</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>373</v>
+      </c>
+      <c r="C419" t="s">
+        <v>82</v>
+      </c>
+      <c r="D419" t="s">
+        <v>86</v>
+      </c>
+      <c r="E419" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F419" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G419" s="11">
+        <v>44443.708333333336</v>
+      </c>
+      <c r="H419" s="11">
+        <v>44443.739583333336</v>
+      </c>
+      <c r="I419" s="6">
+        <v>0</v>
+      </c>
+      <c r="J419" s="6">
+        <v>45</v>
+      </c>
+      <c r="K419" s="2">
+        <v>44448.583333333336</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>374</v>
+      </c>
+      <c r="C420" t="s">
+        <v>170</v>
+      </c>
+      <c r="D420" t="s">
+        <v>86</v>
+      </c>
+      <c r="E420" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F420" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G420" s="11">
+        <v>44443.439583333333</v>
+      </c>
+      <c r="H420" s="11">
+        <v>44443.444444444445</v>
+      </c>
+      <c r="I420" s="6">
+        <v>0</v>
+      </c>
+      <c r="J420" s="6">
+        <v>7</v>
+      </c>
+      <c r="K420" s="2">
+        <v>44448.583333333336</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>375</v>
+      </c>
+      <c r="C421" t="s">
+        <v>122</v>
+      </c>
+      <c r="D421" t="s">
+        <v>86</v>
+      </c>
+      <c r="E421" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F421" s="1">
+        <v>44441</v>
+      </c>
+      <c r="G421" s="11">
+        <v>44441.447916666664</v>
+      </c>
+      <c r="H421" s="11">
+        <v>44441.46875</v>
+      </c>
+      <c r="I421" s="6">
+        <v>0</v>
+      </c>
+      <c r="J421" s="6">
+        <v>30</v>
+      </c>
+      <c r="K421" s="2">
+        <v>44448.583333333336</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>376</v>
+      </c>
+      <c r="C422" t="s">
+        <v>82</v>
+      </c>
+      <c r="D422" t="s">
+        <v>86</v>
+      </c>
+      <c r="E422" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F422" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G422" s="11">
+        <v>44443.589583333334</v>
+      </c>
+      <c r="H422" s="11">
+        <v>44443.614583333336</v>
+      </c>
+      <c r="I422" s="6">
+        <v>0</v>
+      </c>
+      <c r="J422" s="6">
+        <v>36</v>
+      </c>
+      <c r="K422" s="2">
+        <v>44448.5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>377</v>
+      </c>
+      <c r="C423" t="s">
+        <v>82</v>
+      </c>
+      <c r="D423" t="s">
+        <v>86</v>
+      </c>
+      <c r="E423" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F423" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G423" s="11">
+        <v>44444.458333333336</v>
+      </c>
+      <c r="H423" s="11">
+        <v>44444.5</v>
+      </c>
+      <c r="I423" s="6">
+        <v>1</v>
+      </c>
+      <c r="J423" s="6">
+        <v>1</v>
+      </c>
+      <c r="K423" s="2">
+        <v>44448.5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>378</v>
+      </c>
+      <c r="C424" t="s">
+        <v>24</v>
+      </c>
+      <c r="D424" t="s">
+        <v>86</v>
+      </c>
+      <c r="E424" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F424" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G424" s="11">
+        <v>44443.645833333336</v>
+      </c>
+      <c r="H424" s="11">
+        <v>44443.6875</v>
+      </c>
+      <c r="I424" s="6">
+        <v>1</v>
+      </c>
+      <c r="J424" s="6">
+        <v>1</v>
+      </c>
+      <c r="K424" s="2">
+        <v>44448.5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>379</v>
+      </c>
+      <c r="C425" t="s">
+        <v>24</v>
+      </c>
+      <c r="D425" t="s">
+        <v>86</v>
+      </c>
+      <c r="E425" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F425" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G425" s="11">
+        <v>44443.375</v>
+      </c>
+      <c r="H425" s="11">
+        <v>44443.416666666664</v>
+      </c>
+      <c r="I425" s="6">
+        <v>1</v>
+      </c>
+      <c r="J425" s="6">
+        <v>1</v>
+      </c>
+      <c r="K425" s="2">
+        <v>44448.5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>319</v>
+      </c>
+      <c r="C426" t="s">
+        <v>117</v>
+      </c>
+      <c r="D426" t="s">
+        <v>86</v>
+      </c>
+      <c r="E426" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F426" s="1">
+        <v>44435</v>
+      </c>
+      <c r="G426" s="11">
+        <v>44435.999305555553</v>
+      </c>
+      <c r="H426" s="11">
+        <v>44436.010416666664</v>
+      </c>
+      <c r="I426" s="6">
+        <v>0</v>
+      </c>
+      <c r="J426" s="6">
+        <v>16</v>
+      </c>
+      <c r="K426" s="2">
+        <v>44448.416666666664</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
         <v>353</v>
       </c>
-      <c r="E1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K1" t="s">
-        <v>374</v>
-      </c>
-      <c r="L1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2">
+      <c r="B427" t="s">
+        <v>236</v>
+      </c>
+      <c r="C427" t="s">
+        <v>82</v>
+      </c>
+      <c r="D427" t="s">
+        <v>86</v>
+      </c>
+      <c r="E427" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F427" s="1">
+        <v>44437</v>
+      </c>
+      <c r="G427" s="11">
+        <v>44437.833333333336</v>
+      </c>
+      <c r="H427" s="11">
+        <v>44437.875</v>
+      </c>
+      <c r="I427" s="6">
+        <v>1</v>
+      </c>
+      <c r="J427" s="6">
+        <v>1</v>
+      </c>
+      <c r="K427" s="2">
+        <v>44448.333333333336</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>380</v>
+      </c>
+      <c r="C428" t="s">
+        <v>82</v>
+      </c>
+      <c r="D428" t="s">
+        <v>86</v>
+      </c>
+      <c r="E428" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F428" s="1">
+        <v>44434</v>
+      </c>
+      <c r="G428" s="11">
+        <v>44434.604166666664</v>
+      </c>
+      <c r="H428" s="11">
+        <v>44434.666666666664</v>
+      </c>
+      <c r="I428" s="6">
+        <v>1</v>
+      </c>
+      <c r="J428" s="6">
+        <v>30</v>
+      </c>
+      <c r="K428" s="2">
+        <v>44447.75</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>381</v>
+      </c>
+      <c r="C429" t="s">
+        <v>170</v>
+      </c>
+      <c r="D429" t="s">
+        <v>86</v>
+      </c>
+      <c r="E429" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F429" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G429" s="11">
+        <v>44440.5</v>
+      </c>
+      <c r="H429" s="11">
+        <v>44440.520833333336</v>
+      </c>
+      <c r="I429" s="6">
+        <v>0</v>
+      </c>
+      <c r="J429" s="6">
+        <v>30</v>
+      </c>
+      <c r="K429" s="2">
+        <v>44447.666666666664</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>317</v>
+      </c>
+      <c r="C430" t="s">
+        <v>170</v>
+      </c>
+      <c r="D430" t="s">
+        <v>86</v>
+      </c>
+      <c r="E430" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F430" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G430" s="11">
+        <v>44443.446527777778</v>
+      </c>
+      <c r="H430" s="11">
+        <v>44443.458333333336</v>
+      </c>
+      <c r="I430" s="6">
+        <v>0</v>
+      </c>
+      <c r="J430" s="6">
+        <v>17</v>
+      </c>
+      <c r="K430" s="2">
+        <v>44447.583333333336</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>52</v>
+      </c>
+      <c r="C431" t="s">
+        <v>82</v>
+      </c>
+      <c r="D431" t="s">
+        <v>86</v>
+      </c>
+      <c r="E431" s="3">
+        <v>1041</v>
+      </c>
+      <c r="F431" s="1">
+        <v>44433</v>
+      </c>
+      <c r="G431" s="11">
+        <v>44433.520833333336</v>
+      </c>
+      <c r="H431" s="11">
+        <v>44433.552083333336</v>
+      </c>
+      <c r="I431" s="6">
+        <v>0</v>
+      </c>
+      <c r="J431" s="6">
+        <v>45</v>
+      </c>
+      <c r="K431" s="2">
+        <v>44447.5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>359</v>
+      </c>
+      <c r="C432" t="s">
+        <v>82</v>
+      </c>
+      <c r="D432" t="s">
+        <v>86</v>
+      </c>
+      <c r="E432" s="3">
+        <v>1041</v>
+      </c>
+      <c r="F432" s="1">
+        <v>44433</v>
+      </c>
+      <c r="G432" s="11">
+        <v>44433.541666666664</v>
+      </c>
+      <c r="H432" s="11">
+        <v>44433.59375</v>
+      </c>
+      <c r="I432" s="6">
+        <v>1</v>
+      </c>
+      <c r="J432" s="6">
+        <v>15</v>
+      </c>
+      <c r="K432" s="2">
+        <v>44447.416666666664</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>382</v>
+      </c>
+      <c r="C433" t="s">
+        <v>170</v>
+      </c>
+      <c r="D433" t="s">
+        <v>86</v>
+      </c>
+      <c r="E433" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F433" s="1">
+        <v>44445</v>
+      </c>
+      <c r="G433" s="11">
+        <v>44445.637499999997</v>
+      </c>
+      <c r="H433" s="11">
+        <v>44445.640972222223</v>
+      </c>
+      <c r="I433" s="6">
+        <v>0</v>
+      </c>
+      <c r="J433" s="6">
+        <v>5</v>
+      </c>
+      <c r="K433" s="2">
+        <v>44447.333333333336</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>383</v>
+      </c>
+      <c r="C434" t="s">
+        <v>117</v>
+      </c>
+      <c r="D434" t="s">
+        <v>86</v>
+      </c>
+      <c r="E434" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F434" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G434" s="11">
+        <v>44444.322916666664</v>
+      </c>
+      <c r="H434" s="11">
+        <v>44444.368055555555</v>
+      </c>
+      <c r="I434" s="6">
+        <v>1</v>
+      </c>
+      <c r="J434" s="6">
+        <v>5</v>
+      </c>
+      <c r="K434" s="2">
+        <v>44447.333333333336</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>384</v>
+      </c>
+      <c r="C435" t="s">
+        <v>82</v>
+      </c>
+      <c r="D435" t="s">
+        <v>86</v>
+      </c>
+      <c r="E435" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F435" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G435" s="11">
+        <v>44444.3125</v>
+      </c>
+      <c r="H435" s="11">
+        <v>44444.361111111109</v>
+      </c>
+      <c r="I435" s="6">
+        <v>1</v>
+      </c>
+      <c r="J435" s="6">
+        <v>10</v>
+      </c>
+      <c r="K435" s="2">
+        <v>44447.333333333336</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>225</v>
+      </c>
+      <c r="B436" t="s">
+        <v>75</v>
+      </c>
+      <c r="C436" t="s">
+        <v>82</v>
+      </c>
+      <c r="D436" t="s">
+        <v>86</v>
+      </c>
+      <c r="E436" s="3">
+        <v>1041</v>
+      </c>
+      <c r="F436" s="1">
+        <v>44435</v>
+      </c>
+      <c r="G436" s="11">
+        <v>44435.572916666664</v>
+      </c>
+      <c r="H436" s="11">
+        <v>44435.645833333336</v>
+      </c>
+      <c r="I436" s="6">
+        <v>1</v>
+      </c>
+      <c r="J436" s="6">
+        <v>45</v>
+      </c>
+      <c r="K436" s="2">
+        <v>44446.75</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>385</v>
+      </c>
+      <c r="C437" t="s">
+        <v>82</v>
+      </c>
+      <c r="D437" t="s">
+        <v>86</v>
+      </c>
+      <c r="E437" s="3">
+        <v>612</v>
+      </c>
+      <c r="F437" s="1">
+        <v>44435</v>
+      </c>
+      <c r="G437" s="11">
+        <v>44435.569444444445</v>
+      </c>
+      <c r="H437" s="11">
+        <v>44435.572916666664</v>
+      </c>
+      <c r="I437" s="6">
+        <v>0</v>
+      </c>
+      <c r="J437" s="6">
+        <v>5</v>
+      </c>
+      <c r="K437" s="2">
+        <v>44446.75</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>386</v>
+      </c>
+      <c r="C438" t="s">
+        <v>167</v>
+      </c>
+      <c r="D438" t="s">
+        <v>86</v>
+      </c>
+      <c r="E438" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F438" s="1">
+        <v>44436</v>
+      </c>
+      <c r="G438" s="11">
+        <v>44436.5625</v>
+      </c>
+      <c r="H438" s="11">
+        <v>44436.583333333336</v>
+      </c>
+      <c r="I438" s="6">
+        <v>0</v>
+      </c>
+      <c r="J438" s="6">
+        <v>30</v>
+      </c>
+      <c r="K438" s="2">
+        <v>44446.75</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>9</v>
+      </c>
+      <c r="B439" t="s">
+        <v>236</v>
+      </c>
+      <c r="C439" t="s">
+        <v>82</v>
+      </c>
+      <c r="D439" t="s">
+        <v>86</v>
+      </c>
+      <c r="E439" s="3">
+        <v>1060</v>
+      </c>
+      <c r="F439" s="1">
+        <v>44437</v>
+      </c>
+      <c r="G439" s="11">
+        <v>44437.5</v>
+      </c>
+      <c r="H439" s="11">
+        <v>44437.666666666664</v>
+      </c>
+      <c r="I439" s="6">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:E16" si="0">DATE(2021,D2,C2)</f>
+      <c r="J439" s="6">
+        <v>4</v>
+      </c>
+      <c r="K439" s="2">
+        <v>44446.666666666664</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>304</v>
+      </c>
+      <c r="B440" t="s">
+        <v>76</v>
+      </c>
+      <c r="C440" t="s">
+        <v>82</v>
+      </c>
+      <c r="D440" t="s">
+        <v>86</v>
+      </c>
+      <c r="E440" s="3">
+        <v>2150</v>
+      </c>
+      <c r="F440" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G440" s="11">
+        <v>44438.666666666664</v>
+      </c>
+      <c r="H440" s="11">
+        <v>44438.71875</v>
+      </c>
+      <c r="I440" s="6">
+        <v>1</v>
+      </c>
+      <c r="J440" s="6">
+        <v>15</v>
+      </c>
+      <c r="K440" s="2">
+        <v>44446.666666666664</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>304</v>
+      </c>
+      <c r="B441" t="s">
+        <v>76</v>
+      </c>
+      <c r="C441" t="s">
+        <v>82</v>
+      </c>
+      <c r="D441" t="s">
+        <v>86</v>
+      </c>
+      <c r="E441" s="3">
+        <v>2150</v>
+      </c>
+      <c r="F441" s="1">
+        <v>44435</v>
+      </c>
+      <c r="G441" s="11">
+        <v>44435.729166666664</v>
+      </c>
+      <c r="H441" s="11">
+        <v>44435.756944444445</v>
+      </c>
+      <c r="I441" s="6">
+        <v>0</v>
+      </c>
+      <c r="J441" s="6">
+        <v>40</v>
+      </c>
+      <c r="K441" s="2">
+        <v>44446.666666666664</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>155</v>
+      </c>
+      <c r="B442" t="s">
+        <v>76</v>
+      </c>
+      <c r="C442" t="s">
+        <v>82</v>
+      </c>
+      <c r="D442" t="s">
+        <v>86</v>
+      </c>
+      <c r="E442" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F442" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G442" s="11">
+        <v>44440.416666666664</v>
+      </c>
+      <c r="H442" s="11">
+        <v>44440.4375</v>
+      </c>
+      <c r="I442" s="6">
+        <v>0</v>
+      </c>
+      <c r="J442" s="6">
+        <v>30</v>
+      </c>
+      <c r="K442" s="2">
+        <v>44446.666666666664</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>304</v>
+      </c>
+      <c r="B443" t="s">
+        <v>76</v>
+      </c>
+      <c r="C443" t="s">
+        <v>82</v>
+      </c>
+      <c r="D443" t="s">
+        <v>86</v>
+      </c>
+      <c r="E443" s="3">
+        <v>2150</v>
+      </c>
+      <c r="F443" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G443" s="11">
+        <v>44440.53125</v>
+      </c>
+      <c r="H443" s="11">
+        <v>44440.555555555555</v>
+      </c>
+      <c r="I443" s="6">
+        <v>0</v>
+      </c>
+      <c r="J443" s="6">
+        <v>35</v>
+      </c>
+      <c r="K443" s="2">
+        <v>44446.666666666664</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>387</v>
+      </c>
+      <c r="C444" t="s">
+        <v>82</v>
+      </c>
+      <c r="D444" t="s">
+        <v>86</v>
+      </c>
+      <c r="E444" s="3">
+        <v>1062</v>
+      </c>
+      <c r="F444" s="1">
+        <v>44433</v>
+      </c>
+      <c r="G444" s="11">
+        <v>44433.5</v>
+      </c>
+      <c r="H444" s="11">
+        <v>44433.708333333336</v>
+      </c>
+      <c r="I444" s="6">
+        <v>5</v>
+      </c>
+      <c r="J444" s="6">
+        <v>5</v>
+      </c>
+      <c r="K444" s="2">
+        <v>44446.666666666664</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>388</v>
+      </c>
+      <c r="B445" t="s">
+        <v>75</v>
+      </c>
+      <c r="C445" t="s">
+        <v>82</v>
+      </c>
+      <c r="D445" t="s">
+        <v>86</v>
+      </c>
+      <c r="E445" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F445" s="1">
         <v>44443</v>
       </c>
-      <c r="F2" s="12">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G2" s="12">
-        <f t="shared" ref="G2:G16" si="1">E2+F2</f>
-        <v>44443.083333333336</v>
-      </c>
-      <c r="H2" s="12">
-        <v>9.375E-2</v>
-      </c>
-      <c r="I2" s="12">
-        <f t="shared" ref="I2:I16" si="2">E2+H2</f>
-        <v>44443.09375</v>
-      </c>
-      <c r="J2" s="9">
-        <f t="shared" ref="J2:J16" si="3">I2-G2</f>
-        <v>1.0416666664241347E-2</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="G445" s="11">
+        <v>44443.708333333336</v>
+      </c>
+      <c r="H445" s="11">
+        <v>44443.770833333336</v>
+      </c>
+      <c r="I445" s="6">
+        <v>1</v>
+      </c>
+      <c r="J445" s="6">
+        <v>30</v>
+      </c>
+      <c r="K445" s="2">
+        <v>44446.666666666664</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>389</v>
+      </c>
+      <c r="B446" t="s">
+        <v>236</v>
+      </c>
+      <c r="C446" t="s">
+        <v>82</v>
+      </c>
+      <c r="D446" t="s">
+        <v>86</v>
+      </c>
+      <c r="E446" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F446" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G446" s="11">
+        <v>44443.694444444445</v>
+      </c>
+      <c r="H446" s="11">
+        <v>44443.736111111109</v>
+      </c>
+      <c r="I446" s="6">
+        <v>1</v>
+      </c>
+      <c r="J446" s="6">
+        <v>1</v>
+      </c>
+      <c r="K446" s="2">
+        <v>44446.666666666664</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>390</v>
+      </c>
+      <c r="C447" t="s">
+        <v>82</v>
+      </c>
+      <c r="D447" t="s">
+        <v>86</v>
+      </c>
+      <c r="E447" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F447" s="1">
+        <v>44436</v>
+      </c>
+      <c r="G447" s="11">
+        <v>44436.822916666664</v>
+      </c>
+      <c r="H447" s="11">
+        <v>44436.875</v>
+      </c>
+      <c r="I447" s="6">
+        <v>1</v>
+      </c>
+      <c r="J447" s="6">
         <v>15</v>
       </c>
-      <c r="M2" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B3">
-        <v>814</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" si="0"/>
-        <v>44442</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.71944444444444444</v>
-      </c>
-      <c r="G3" s="12">
-        <f t="shared" si="1"/>
-        <v>44442.719444444447</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="I3" s="12">
-        <f t="shared" si="2"/>
-        <v>44442.739583333336</v>
-      </c>
-      <c r="J3" s="9">
-        <f t="shared" si="3"/>
-        <v>2.0138888889050577E-2</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B4">
-        <v>814</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>44442</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.71944444444444444</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" si="1"/>
-        <v>44442.719444444447</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="I4" s="12">
-        <f t="shared" si="2"/>
-        <v>44442.739583333336</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" si="3"/>
-        <v>2.0138888889050577E-2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B5">
-        <v>632</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
+      <c r="K447" s="2">
+        <v>44446.583333333336</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>54</v>
+      </c>
+      <c r="B448" t="s">
+        <v>236</v>
+      </c>
+      <c r="C448" t="s">
+        <v>82</v>
+      </c>
+      <c r="D448" t="s">
+        <v>86</v>
+      </c>
+      <c r="E448" s="3">
+        <v>2103</v>
+      </c>
+      <c r="F448" s="1">
+        <v>44441</v>
+      </c>
+      <c r="G448" s="11">
+        <v>44441.652777777781</v>
+      </c>
+      <c r="H448" s="11">
+        <v>44441.673611111109</v>
+      </c>
+      <c r="I448" s="6">
+        <v>0</v>
+      </c>
+      <c r="J448" s="6">
+        <v>30</v>
+      </c>
+      <c r="K448" s="2">
+        <v>44450.5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>391</v>
+      </c>
+      <c r="B449" t="s">
+        <v>236</v>
+      </c>
+      <c r="C449" t="s">
+        <v>82</v>
+      </c>
+      <c r="D449" t="s">
+        <v>86</v>
+      </c>
+      <c r="E449" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F449" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G449" s="11">
+        <v>44444.458333333336</v>
+      </c>
+      <c r="H449" s="11">
+        <v>44444.5</v>
+      </c>
+      <c r="I449" s="6">
+        <v>1</v>
+      </c>
+      <c r="J449" s="6">
+        <v>1</v>
+      </c>
+      <c r="K449" s="2">
+        <v>44450.5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>392</v>
+      </c>
+      <c r="C450" t="s">
+        <v>24</v>
+      </c>
+      <c r="D450" t="s">
+        <v>86</v>
+      </c>
+      <c r="E450" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F450" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G450" s="11">
+        <v>44444.666666666664</v>
+      </c>
+      <c r="H450" s="11">
+        <v>44444.708333333336</v>
+      </c>
+      <c r="I450" s="6">
+        <v>1</v>
+      </c>
+      <c r="J450" s="6">
+        <v>1</v>
+      </c>
+      <c r="K450" s="2">
+        <v>44450.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>393</v>
+      </c>
+      <c r="C451" t="s">
+        <v>170</v>
+      </c>
+      <c r="D451" t="s">
+        <v>86</v>
+      </c>
+      <c r="E451" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F451" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G451" s="11">
+        <v>44446.520833333336</v>
+      </c>
+      <c r="H451" s="11">
+        <v>44446.875</v>
+      </c>
+      <c r="I451" s="6">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>44433</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.45416666666666666</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>44433.45416666667</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" si="2"/>
-        <v>44433.5</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="3"/>
-        <v>4.5833333329937886E-2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>6</v>
-      </c>
-      <c r="M5" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>44431</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="1"/>
-        <v>44431.5</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="2"/>
-        <v>44431.541666666664</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="3"/>
-        <v>4.1666666664241347E-2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B7">
-        <v>2022</v>
-      </c>
-      <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>44432</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="1"/>
-        <v>44432.375</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="2"/>
-        <v>44432.458333333336</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" si="3"/>
-        <v>8.3333333335758653E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1060</v>
-      </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>44437</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="1"/>
-        <v>44437.5</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="2"/>
-        <v>44437.666666666664</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="3"/>
-        <v>0.16666666666424135</v>
-      </c>
-      <c r="K8" s="6">
-        <v>4</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9">
-        <v>1041</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>44435</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="1"/>
-        <v>44435.614583333336</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="2"/>
-        <v>44435.645833333336</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="3"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>45</v>
-      </c>
-      <c r="M9" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B10">
-        <v>614</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>44440</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.71805555555555556</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="1"/>
-        <v>44440.718055555553</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="2"/>
-        <v>44440.729166666664</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="3"/>
-        <v>1.1111111110949423E-2</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>16</v>
-      </c>
-      <c r="M10" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>367</v>
-      </c>
-      <c r="B11">
-        <v>2112</v>
-      </c>
-      <c r="C11">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>44434</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="1"/>
-        <v>44434.583333333336</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="2"/>
-        <v>44434.645833333336</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="3"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="J451" s="6">
         <v>30</v>
       </c>
-      <c r="M11" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B12">
-        <v>1041</v>
-      </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>44431</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="1"/>
-        <v>44431.520833333336</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="2"/>
-        <v>44431.572916666664</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="3"/>
-        <v>5.2083333328482695E-2</v>
-      </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6">
-        <v>15</v>
-      </c>
-      <c r="M12" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>2103</v>
-      </c>
-      <c r="C13">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>44434</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.5625</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="1"/>
-        <v>44434.5625</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="2"/>
-        <v>44434.604166666664</v>
-      </c>
-      <c r="J13" s="9">
-        <f t="shared" si="3"/>
-        <v>4.1666666664241347E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B14">
-        <v>632</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>44433</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.49444444444444446</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="1"/>
-        <v>44433.494444444441</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="2"/>
-        <v>44433.510416666664</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="3"/>
-        <v>1.5972222223354038E-2</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>23</v>
-      </c>
-      <c r="M14" s="2">
-        <v>44446.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>370</v>
-      </c>
-      <c r="B15">
-        <v>1021</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>44438</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>44438.572916666664</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0.59375</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="2"/>
-        <v>44438.59375</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="3"/>
-        <v>2.0833333335758653E-2</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>30</v>
-      </c>
-      <c r="M15" s="2">
-        <v>44445.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>371</v>
-      </c>
-      <c r="B16">
-        <v>1041</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>44433</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="1"/>
-        <v>44433.541666666664</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="2"/>
-        <v>44433.552083333336</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="3"/>
-        <v>1.0416666671517305E-2</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>15</v>
-      </c>
-      <c r="M16" s="2">
-        <v>44445.75</v>
+      <c r="K451" s="2">
+        <v>44450.5</v>
       </c>
     </row>
   </sheetData>

--- a/LocationsOfInterest.xlsx
+++ b/LocationsOfInterest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\LOINZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8542B7-C5F0-42CC-8395-ED95D34AD0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81CECE-8C1D-4483-B966-A9EEBCDB1017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="5985" windowWidth="38580" windowHeight="15345" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="578">
   <si>
     <t>Place</t>
   </si>
@@ -1681,6 +1681,93 @@
   </si>
   <si>
     <t xml:space="preserve"> 4410</t>
+  </si>
+  <si>
+    <t>Z Albany Service Station</t>
+  </si>
+  <si>
+    <t>Bush Road Liquor Centre</t>
+  </si>
+  <si>
+    <t>Shosha Albany</t>
+  </si>
+  <si>
+    <t>FreshChoice Otahuhu</t>
+  </si>
+  <si>
+    <t>BP Connect Albany</t>
+  </si>
+  <si>
+    <t>Crown Quality Food Bar</t>
+  </si>
+  <si>
+    <t>Mcdonalds Taupiri</t>
+  </si>
+  <si>
+    <t>BP Raglan</t>
+  </si>
+  <si>
+    <t>Supervalue Raglan</t>
+  </si>
+  <si>
+    <t>Aroha Sushi Raglan</t>
+  </si>
+  <si>
+    <t>Supervalue Avondale</t>
+  </si>
+  <si>
+    <t>Green and Grocery World</t>
+  </si>
+  <si>
+    <t>BP Connect Taupiri</t>
+  </si>
+  <si>
+    <t>Coronation Superette Hillcrest</t>
+  </si>
+  <si>
+    <t>Beach Haven Bakery</t>
+  </si>
+  <si>
+    <t>Farro Mt Eden</t>
+  </si>
+  <si>
+    <t>Z Petrol Station Papatoetoe</t>
+  </si>
+  <si>
+    <t>Tasty Bites Lunch Bar East Tamaki</t>
+  </si>
+  <si>
+    <t>GAS Albany Heights</t>
+  </si>
+  <si>
+    <t>Dominos Beach Haven</t>
+  </si>
+  <si>
+    <t>Cascade Superette</t>
+  </si>
+  <si>
+    <t>Tobys Seafood Manurewa</t>
+  </si>
+  <si>
+    <t>The Warehouse Manukau</t>
+  </si>
+  <si>
+    <t>Chicking Manukau</t>
+  </si>
+  <si>
+    <t>Dollar Dealers Otara</t>
+  </si>
+  <si>
+    <t>Cash Converters Otara</t>
+  </si>
+  <si>
+    <t>Fruit World New Lynn</t>
+  </si>
+  <si>
+    <t>Mad Butcher Mt Roskill</t>
+  </si>
+  <si>
+    <t>Raglan</t>
   </si>
 </sst>
 </file>
@@ -1779,8 +1866,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K659" totalsRowShown="0">
-  <autoFilter ref="A1:K659" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K705" totalsRowShown="0">
+  <autoFilter ref="A1:K705" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K601">
     <sortCondition descending="1" ref="K1:K601"/>
   </sortState>
@@ -2098,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF01F6F-394C-421C-8FB1-87940BDF1F8E}">
-  <dimension ref="A1:K659"/>
+  <dimension ref="A1:K705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="E614" sqref="E614"/>
+    <sheetView tabSelected="1" topLeftCell="A633" workbookViewId="0">
+      <selection activeCell="E677" sqref="E677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23596,6 +23683,1493 @@
         <v>44465.666666666664</v>
       </c>
     </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>549</v>
+      </c>
+      <c r="C660" t="s">
+        <v>117</v>
+      </c>
+      <c r="D660" t="s">
+        <v>86</v>
+      </c>
+      <c r="E660" s="3">
+        <v>632</v>
+      </c>
+      <c r="F660" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G660" s="12">
+        <v>44468.968055555553</v>
+      </c>
+      <c r="H660" s="12">
+        <v>44468.979166666664</v>
+      </c>
+      <c r="I660" s="6">
+        <v>0</v>
+      </c>
+      <c r="J660" s="6">
+        <v>16</v>
+      </c>
+      <c r="K660" s="2">
+        <v>44473.333333333336</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>549</v>
+      </c>
+      <c r="C661" t="s">
+        <v>117</v>
+      </c>
+      <c r="D661" t="s">
+        <v>86</v>
+      </c>
+      <c r="E661" s="3">
+        <v>632</v>
+      </c>
+      <c r="F661" s="1">
+        <v>44466</v>
+      </c>
+      <c r="G661" s="12">
+        <v>44466.678472222222</v>
+      </c>
+      <c r="H661" s="12">
+        <v>44466.6875</v>
+      </c>
+      <c r="I661" s="6">
+        <v>0</v>
+      </c>
+      <c r="J661" s="6">
+        <v>13</v>
+      </c>
+      <c r="K661" s="2">
+        <v>44473.333333333336</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>549</v>
+      </c>
+      <c r="C662" t="s">
+        <v>117</v>
+      </c>
+      <c r="D662" t="s">
+        <v>86</v>
+      </c>
+      <c r="E662" s="3">
+        <v>632</v>
+      </c>
+      <c r="F662" s="1">
+        <v>44470</v>
+      </c>
+      <c r="G662" s="12">
+        <v>44470.5</v>
+      </c>
+      <c r="H662" s="12">
+        <v>44470.510416666664</v>
+      </c>
+      <c r="I662" s="6">
+        <v>0</v>
+      </c>
+      <c r="J662" s="6">
+        <v>15</v>
+      </c>
+      <c r="K662" s="2">
+        <v>44473.333333333336</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>549</v>
+      </c>
+      <c r="C663" t="s">
+        <v>117</v>
+      </c>
+      <c r="D663" t="s">
+        <v>86</v>
+      </c>
+      <c r="E663" s="3">
+        <v>632</v>
+      </c>
+      <c r="F663" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G663" s="12">
+        <v>44469.945833333331</v>
+      </c>
+      <c r="H663" s="12">
+        <v>44469.956250000003</v>
+      </c>
+      <c r="I663" s="6">
+        <v>0</v>
+      </c>
+      <c r="J663" s="6">
+        <v>15</v>
+      </c>
+      <c r="K663" s="2">
+        <v>44473.333333333336</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>549</v>
+      </c>
+      <c r="C664" t="s">
+        <v>117</v>
+      </c>
+      <c r="D664" t="s">
+        <v>86</v>
+      </c>
+      <c r="E664" s="3">
+        <v>632</v>
+      </c>
+      <c r="F664" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G664" s="12">
+        <v>44467.948611111111</v>
+      </c>
+      <c r="H664" s="12">
+        <v>44467.958333333336</v>
+      </c>
+      <c r="I664" s="6">
+        <v>0</v>
+      </c>
+      <c r="J664" s="6">
+        <v>14</v>
+      </c>
+      <c r="K664" s="2">
+        <v>44473.333333333336</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>550</v>
+      </c>
+      <c r="C665" t="s">
+        <v>82</v>
+      </c>
+      <c r="D665" t="s">
+        <v>86</v>
+      </c>
+      <c r="E665" s="3">
+        <v>632</v>
+      </c>
+      <c r="F665" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G665" s="12">
+        <v>44467.40625</v>
+      </c>
+      <c r="H665" s="12">
+        <v>44467.427083333336</v>
+      </c>
+      <c r="I665" s="6">
+        <v>0</v>
+      </c>
+      <c r="J665" s="6">
+        <v>30</v>
+      </c>
+      <c r="K665" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>264</v>
+      </c>
+      <c r="C666" t="s">
+        <v>82</v>
+      </c>
+      <c r="D666" t="s">
+        <v>86</v>
+      </c>
+      <c r="E666" s="3">
+        <v>1026</v>
+      </c>
+      <c r="F666" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G666" s="12">
+        <v>44469.583333333336</v>
+      </c>
+      <c r="H666" s="12">
+        <v>44469.75</v>
+      </c>
+      <c r="I666" s="6">
+        <v>4</v>
+      </c>
+      <c r="J666" s="6">
+        <v>0</v>
+      </c>
+      <c r="K666" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>551</v>
+      </c>
+      <c r="C667" t="s">
+        <v>122</v>
+      </c>
+      <c r="D667" t="s">
+        <v>86</v>
+      </c>
+      <c r="E667" s="3">
+        <v>632</v>
+      </c>
+      <c r="F667" s="1">
+        <v>44470</v>
+      </c>
+      <c r="G667" s="12">
+        <v>44470.645833333336</v>
+      </c>
+      <c r="H667" s="12">
+        <v>44470.65625</v>
+      </c>
+      <c r="I667" s="6">
+        <v>0</v>
+      </c>
+      <c r="J667" s="6">
+        <v>15</v>
+      </c>
+      <c r="K667" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>551</v>
+      </c>
+      <c r="C668" t="s">
+        <v>122</v>
+      </c>
+      <c r="D668" t="s">
+        <v>86</v>
+      </c>
+      <c r="E668" s="3">
+        <v>632</v>
+      </c>
+      <c r="F668" s="1">
+        <v>44463</v>
+      </c>
+      <c r="G668" s="12">
+        <v>44463.84375</v>
+      </c>
+      <c r="H668" s="12">
+        <v>44463.864583333336</v>
+      </c>
+      <c r="I668" s="6">
+        <v>0</v>
+      </c>
+      <c r="J668" s="6">
+        <v>30</v>
+      </c>
+      <c r="K668" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>552</v>
+      </c>
+      <c r="C669" t="s">
+        <v>82</v>
+      </c>
+      <c r="D669" t="s">
+        <v>86</v>
+      </c>
+      <c r="E669" s="3">
+        <v>1062</v>
+      </c>
+      <c r="F669" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G669" s="12">
+        <v>44467.416666666664</v>
+      </c>
+      <c r="H669" s="12">
+        <v>44467.479166666664</v>
+      </c>
+      <c r="I669" s="6">
+        <v>1</v>
+      </c>
+      <c r="J669" s="6">
+        <v>30</v>
+      </c>
+      <c r="K669" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>553</v>
+      </c>
+      <c r="C670" t="s">
+        <v>117</v>
+      </c>
+      <c r="D670" t="s">
+        <v>86</v>
+      </c>
+      <c r="E670" s="3">
+        <v>632</v>
+      </c>
+      <c r="F670" s="1">
+        <v>44462</v>
+      </c>
+      <c r="G670" s="12">
+        <v>44462.92291666667</v>
+      </c>
+      <c r="H670" s="12">
+        <v>44462.9375</v>
+      </c>
+      <c r="I670" s="6">
+        <v>0</v>
+      </c>
+      <c r="J670" s="6">
+        <v>21</v>
+      </c>
+      <c r="K670" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>554</v>
+      </c>
+      <c r="C671" t="s">
+        <v>82</v>
+      </c>
+      <c r="D671" t="s">
+        <v>86</v>
+      </c>
+      <c r="E671" s="3">
+        <v>632</v>
+      </c>
+      <c r="F671" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G671" s="12">
+        <v>44467.40625</v>
+      </c>
+      <c r="H671" s="12">
+        <v>44467.427083333336</v>
+      </c>
+      <c r="I671" s="6">
+        <v>0</v>
+      </c>
+      <c r="J671" s="6">
+        <v>30</v>
+      </c>
+      <c r="K671" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>316</v>
+      </c>
+      <c r="B672" t="s">
+        <v>76</v>
+      </c>
+      <c r="C672" t="s">
+        <v>82</v>
+      </c>
+      <c r="D672" t="s">
+        <v>86</v>
+      </c>
+      <c r="E672" s="3">
+        <v>1060</v>
+      </c>
+      <c r="F672" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G672" s="12">
+        <v>44467.416666666664</v>
+      </c>
+      <c r="H672" s="12">
+        <v>44467.479166666664</v>
+      </c>
+      <c r="I672" s="6">
+        <v>1</v>
+      </c>
+      <c r="J672" s="6">
+        <v>30</v>
+      </c>
+      <c r="K672" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>555</v>
+      </c>
+      <c r="C673" t="s">
+        <v>80</v>
+      </c>
+      <c r="D673" t="s">
+        <v>539</v>
+      </c>
+      <c r="E673" s="3">
+        <v>3791</v>
+      </c>
+      <c r="F673" s="1">
+        <v>44462</v>
+      </c>
+      <c r="G673" s="12">
+        <v>44462.666666666664</v>
+      </c>
+      <c r="H673" s="12">
+        <v>44462.677083333336</v>
+      </c>
+      <c r="I673" s="6">
+        <v>0</v>
+      </c>
+      <c r="J673" s="6">
+        <v>15</v>
+      </c>
+      <c r="K673" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>556</v>
+      </c>
+      <c r="C674" t="s">
+        <v>117</v>
+      </c>
+      <c r="D674" t="s">
+        <v>577</v>
+      </c>
+      <c r="E674" s="3">
+        <v>3225</v>
+      </c>
+      <c r="F674" s="1">
+        <v>44471</v>
+      </c>
+      <c r="G674" s="12">
+        <v>44471.760416666664</v>
+      </c>
+      <c r="H674" s="12">
+        <v>44471.78125</v>
+      </c>
+      <c r="I674" s="6">
+        <v>0</v>
+      </c>
+      <c r="J674" s="6">
+        <v>30</v>
+      </c>
+      <c r="K674" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>557</v>
+      </c>
+      <c r="C675" t="s">
+        <v>82</v>
+      </c>
+      <c r="D675" t="s">
+        <v>577</v>
+      </c>
+      <c r="E675" s="3">
+        <v>3225</v>
+      </c>
+      <c r="F675" s="1">
+        <v>44471</v>
+      </c>
+      <c r="G675" s="12">
+        <v>44471.729166666664</v>
+      </c>
+      <c r="H675" s="12">
+        <v>44471.8125</v>
+      </c>
+      <c r="I675" s="6">
+        <v>2</v>
+      </c>
+      <c r="J675" s="6">
+        <v>0</v>
+      </c>
+      <c r="K675" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>558</v>
+      </c>
+      <c r="C676" t="s">
+        <v>80</v>
+      </c>
+      <c r="D676" t="s">
+        <v>577</v>
+      </c>
+      <c r="E676" s="3">
+        <v>3225</v>
+      </c>
+      <c r="F676" s="1">
+        <v>44470</v>
+      </c>
+      <c r="G676" s="12">
+        <v>44470.635416666664</v>
+      </c>
+      <c r="H676" s="12">
+        <v>44470.677083333336</v>
+      </c>
+      <c r="I676" s="6">
+        <v>1</v>
+      </c>
+      <c r="J676" s="6">
+        <v>0</v>
+      </c>
+      <c r="K676" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>549</v>
+      </c>
+      <c r="C677" t="s">
+        <v>117</v>
+      </c>
+      <c r="D677" t="s">
+        <v>86</v>
+      </c>
+      <c r="E677" s="3">
+        <v>632</v>
+      </c>
+      <c r="F677" s="1">
+        <v>44465</v>
+      </c>
+      <c r="G677" s="12">
+        <v>44465.6875</v>
+      </c>
+      <c r="H677" s="12">
+        <v>44465.708333333336</v>
+      </c>
+      <c r="I677" s="6">
+        <v>0</v>
+      </c>
+      <c r="J677" s="6">
+        <v>30</v>
+      </c>
+      <c r="K677" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>559</v>
+      </c>
+      <c r="C678" t="s">
+        <v>82</v>
+      </c>
+      <c r="D678" t="s">
+        <v>86</v>
+      </c>
+      <c r="E678" s="3">
+        <v>1026</v>
+      </c>
+      <c r="F678" s="1">
+        <v>44463</v>
+      </c>
+      <c r="G678" s="12">
+        <v>44463.5</v>
+      </c>
+      <c r="H678" s="12">
+        <v>44463.75</v>
+      </c>
+      <c r="I678" s="6">
+        <v>6</v>
+      </c>
+      <c r="J678" s="6">
+        <v>0</v>
+      </c>
+      <c r="K678" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>560</v>
+      </c>
+      <c r="C679" t="s">
+        <v>82</v>
+      </c>
+      <c r="D679" t="s">
+        <v>86</v>
+      </c>
+      <c r="E679" s="3">
+        <v>632</v>
+      </c>
+      <c r="F679" s="1">
+        <v>44470</v>
+      </c>
+      <c r="G679" s="12">
+        <v>44470.645833333336</v>
+      </c>
+      <c r="H679" s="12">
+        <v>44470.666666666664</v>
+      </c>
+      <c r="I679" s="6">
+        <v>0</v>
+      </c>
+      <c r="J679" s="6">
+        <v>30</v>
+      </c>
+      <c r="K679" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>264</v>
+      </c>
+      <c r="C680" t="s">
+        <v>82</v>
+      </c>
+      <c r="D680" t="s">
+        <v>86</v>
+      </c>
+      <c r="E680" s="3">
+        <v>1026</v>
+      </c>
+      <c r="F680" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G680" s="12">
+        <v>44468.583333333336</v>
+      </c>
+      <c r="H680" s="12">
+        <v>44468.75</v>
+      </c>
+      <c r="I680" s="6">
+        <v>4</v>
+      </c>
+      <c r="J680" s="6">
+        <v>0</v>
+      </c>
+      <c r="K680" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>264</v>
+      </c>
+      <c r="C681" t="s">
+        <v>82</v>
+      </c>
+      <c r="D681" t="s">
+        <v>86</v>
+      </c>
+      <c r="E681" s="3">
+        <v>1026</v>
+      </c>
+      <c r="F681" s="1">
+        <v>44460</v>
+      </c>
+      <c r="G681" s="12">
+        <v>44460.5</v>
+      </c>
+      <c r="H681" s="12">
+        <v>44460.75</v>
+      </c>
+      <c r="I681" s="6">
+        <v>6</v>
+      </c>
+      <c r="J681" s="6">
+        <v>0</v>
+      </c>
+      <c r="K681" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>560</v>
+      </c>
+      <c r="C682" t="s">
+        <v>82</v>
+      </c>
+      <c r="D682" t="s">
+        <v>86</v>
+      </c>
+      <c r="E682" s="3">
+        <v>632</v>
+      </c>
+      <c r="F682" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G682" s="12">
+        <v>44467.5</v>
+      </c>
+      <c r="H682" s="12">
+        <v>44467.708333333336</v>
+      </c>
+      <c r="I682" s="6">
+        <v>5</v>
+      </c>
+      <c r="J682" s="6">
+        <v>0</v>
+      </c>
+      <c r="K682" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>561</v>
+      </c>
+      <c r="C683" t="s">
+        <v>117</v>
+      </c>
+      <c r="D683" t="s">
+        <v>539</v>
+      </c>
+      <c r="E683" s="3">
+        <v>3791</v>
+      </c>
+      <c r="F683" s="1">
+        <v>44462</v>
+      </c>
+      <c r="G683" s="12">
+        <v>44462.625</v>
+      </c>
+      <c r="H683" s="12">
+        <v>44462.666666666664</v>
+      </c>
+      <c r="I683" s="6">
+        <v>1</v>
+      </c>
+      <c r="J683" s="6">
+        <v>0</v>
+      </c>
+      <c r="K683" s="2">
+        <v>44472.875</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>562</v>
+      </c>
+      <c r="C684" t="s">
+        <v>82</v>
+      </c>
+      <c r="D684" t="s">
+        <v>86</v>
+      </c>
+      <c r="E684" s="3">
+        <v>627</v>
+      </c>
+      <c r="F684" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G684" s="12">
+        <v>44469.53125</v>
+      </c>
+      <c r="H684" s="12">
+        <v>44469.552083333336</v>
+      </c>
+      <c r="I684" s="6">
+        <v>0</v>
+      </c>
+      <c r="J684" s="6">
+        <v>30</v>
+      </c>
+      <c r="K684" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>563</v>
+      </c>
+      <c r="C685" t="s">
+        <v>82</v>
+      </c>
+      <c r="D685" t="s">
+        <v>86</v>
+      </c>
+      <c r="E685" s="3">
+        <v>626</v>
+      </c>
+      <c r="F685" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G685" s="12">
+        <v>44467.263888888891</v>
+      </c>
+      <c r="H685" s="12">
+        <v>44467.267361111109</v>
+      </c>
+      <c r="I685" s="6">
+        <v>0</v>
+      </c>
+      <c r="J685" s="6">
+        <v>5</v>
+      </c>
+      <c r="K685" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>351</v>
+      </c>
+      <c r="B686" t="s">
+        <v>236</v>
+      </c>
+      <c r="C686" t="s">
+        <v>82</v>
+      </c>
+      <c r="D686" t="s">
+        <v>86</v>
+      </c>
+      <c r="E686" s="3">
+        <v>632</v>
+      </c>
+      <c r="F686" s="1">
+        <v>44459</v>
+      </c>
+      <c r="G686" s="12">
+        <v>44459.833333333336</v>
+      </c>
+      <c r="H686" s="12">
+        <v>44459.916666666664</v>
+      </c>
+      <c r="I686" s="6">
+        <v>2</v>
+      </c>
+      <c r="J686" s="6">
+        <v>0</v>
+      </c>
+      <c r="K686" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>564</v>
+      </c>
+      <c r="C687" t="s">
+        <v>82</v>
+      </c>
+      <c r="D687" t="s">
+        <v>86</v>
+      </c>
+      <c r="E687" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F687" s="1">
+        <v>44464</v>
+      </c>
+      <c r="G687" s="12">
+        <v>44464.5</v>
+      </c>
+      <c r="H687" s="12">
+        <v>44464.520833333336</v>
+      </c>
+      <c r="I687" s="6">
+        <v>0</v>
+      </c>
+      <c r="J687" s="6">
+        <v>30</v>
+      </c>
+      <c r="K687" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>565</v>
+      </c>
+      <c r="C688" t="s">
+        <v>117</v>
+      </c>
+      <c r="D688" t="s">
+        <v>86</v>
+      </c>
+      <c r="E688" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F688" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G688" s="12">
+        <v>44469.826388888891</v>
+      </c>
+      <c r="H688" s="12">
+        <v>44469.829861111109</v>
+      </c>
+      <c r="I688" s="6">
+        <v>0</v>
+      </c>
+      <c r="J688" s="6">
+        <v>5</v>
+      </c>
+      <c r="K688" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>566</v>
+      </c>
+      <c r="C689" t="s">
+        <v>80</v>
+      </c>
+      <c r="D689" t="s">
+        <v>86</v>
+      </c>
+      <c r="E689" s="3">
+        <v>2013</v>
+      </c>
+      <c r="F689" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G689" s="12">
+        <v>44468.40625</v>
+      </c>
+      <c r="H689" s="12">
+        <v>44468.413194444445</v>
+      </c>
+      <c r="I689" s="6">
+        <v>0</v>
+      </c>
+      <c r="J689" s="6">
+        <v>10</v>
+      </c>
+      <c r="K689" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>562</v>
+      </c>
+      <c r="C690" t="s">
+        <v>82</v>
+      </c>
+      <c r="D690" t="s">
+        <v>86</v>
+      </c>
+      <c r="E690" s="3">
+        <v>627</v>
+      </c>
+      <c r="F690" s="1">
+        <v>44470</v>
+      </c>
+      <c r="G690" s="12">
+        <v>44470.53125</v>
+      </c>
+      <c r="H690" s="12">
+        <v>44470.552083333336</v>
+      </c>
+      <c r="I690" s="6">
+        <v>0</v>
+      </c>
+      <c r="J690" s="6">
+        <v>30</v>
+      </c>
+      <c r="K690" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>301</v>
+      </c>
+      <c r="B691" t="s">
+        <v>236</v>
+      </c>
+      <c r="C691" t="s">
+        <v>82</v>
+      </c>
+      <c r="D691" t="s">
+        <v>86</v>
+      </c>
+      <c r="E691" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F691" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G691" s="12">
+        <v>44467.541666666664</v>
+      </c>
+      <c r="H691" s="12">
+        <v>44467.625</v>
+      </c>
+      <c r="I691" s="6">
+        <v>2</v>
+      </c>
+      <c r="J691" s="6">
+        <v>0</v>
+      </c>
+      <c r="K691" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>567</v>
+      </c>
+      <c r="C692" t="s">
+        <v>117</v>
+      </c>
+      <c r="D692" t="s">
+        <v>86</v>
+      </c>
+      <c r="E692" s="3">
+        <v>792</v>
+      </c>
+      <c r="F692" s="1">
+        <v>44471</v>
+      </c>
+      <c r="G692" s="12">
+        <v>44471.510416666664</v>
+      </c>
+      <c r="H692" s="12">
+        <v>44471.53125</v>
+      </c>
+      <c r="I692" s="6">
+        <v>0</v>
+      </c>
+      <c r="J692" s="6">
+        <v>30</v>
+      </c>
+      <c r="K692" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>351</v>
+      </c>
+      <c r="B693" t="s">
+        <v>236</v>
+      </c>
+      <c r="C693" t="s">
+        <v>82</v>
+      </c>
+      <c r="D693" t="s">
+        <v>86</v>
+      </c>
+      <c r="E693" s="3">
+        <v>632</v>
+      </c>
+      <c r="F693" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G693" s="12">
+        <v>44469.833333333336</v>
+      </c>
+      <c r="H693" s="12">
+        <v>44469.916666666664</v>
+      </c>
+      <c r="I693" s="6">
+        <v>2</v>
+      </c>
+      <c r="J693" s="6">
+        <v>0</v>
+      </c>
+      <c r="K693" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>568</v>
+      </c>
+      <c r="C694" t="s">
+        <v>80</v>
+      </c>
+      <c r="D694" t="s">
+        <v>86</v>
+      </c>
+      <c r="E694" s="3">
+        <v>626</v>
+      </c>
+      <c r="F694" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G694" s="12">
+        <v>44469.875</v>
+      </c>
+      <c r="H694" s="12">
+        <v>44469.916666666664</v>
+      </c>
+      <c r="I694" s="6">
+        <v>1</v>
+      </c>
+      <c r="J694" s="6">
+        <v>0</v>
+      </c>
+      <c r="K694" s="2">
+        <v>44472.75</v>
+      </c>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>569</v>
+      </c>
+      <c r="C695" t="s">
+        <v>82</v>
+      </c>
+      <c r="D695" t="s">
+        <v>86</v>
+      </c>
+      <c r="E695" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F695" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G695" s="12">
+        <v>44467.614583333336</v>
+      </c>
+      <c r="H695" s="12">
+        <v>44467.659722222219</v>
+      </c>
+      <c r="I695" s="6">
+        <v>1</v>
+      </c>
+      <c r="J695" s="6">
+        <v>5</v>
+      </c>
+      <c r="K695" s="2">
+        <v>44472.666666666664</v>
+      </c>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>570</v>
+      </c>
+      <c r="C696" t="s">
+        <v>82</v>
+      </c>
+      <c r="D696" t="s">
+        <v>86</v>
+      </c>
+      <c r="E696" s="3">
+        <v>2113</v>
+      </c>
+      <c r="F696" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G696" s="12">
+        <v>44469.552083333336</v>
+      </c>
+      <c r="H696" s="12">
+        <v>44469.559027777781</v>
+      </c>
+      <c r="I696" s="6">
+        <v>0</v>
+      </c>
+      <c r="J696" s="6">
+        <v>10</v>
+      </c>
+      <c r="K696" s="2">
+        <v>44472.666666666664</v>
+      </c>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>571</v>
+      </c>
+      <c r="C697" t="s">
+        <v>122</v>
+      </c>
+      <c r="D697" t="s">
+        <v>86</v>
+      </c>
+      <c r="E697" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F697" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G697" s="12">
+        <v>44469.524305555555</v>
+      </c>
+      <c r="H697" s="12">
+        <v>44469.545138888891</v>
+      </c>
+      <c r="I697" s="6">
+        <v>0</v>
+      </c>
+      <c r="J697" s="6">
+        <v>30</v>
+      </c>
+      <c r="K697" s="2">
+        <v>44472.666666666664</v>
+      </c>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>572</v>
+      </c>
+      <c r="C698" t="s">
+        <v>80</v>
+      </c>
+      <c r="D698" t="s">
+        <v>86</v>
+      </c>
+      <c r="E698" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F698" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G698" s="12">
+        <v>44468.690972222219</v>
+      </c>
+      <c r="H698" s="12">
+        <v>44468.732638888891</v>
+      </c>
+      <c r="I698" s="6">
+        <v>1</v>
+      </c>
+      <c r="J698" s="6">
+        <v>0</v>
+      </c>
+      <c r="K698" s="2">
+        <v>44472.666666666664</v>
+      </c>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>573</v>
+      </c>
+      <c r="C699" t="s">
+        <v>122</v>
+      </c>
+      <c r="D699" t="s">
+        <v>86</v>
+      </c>
+      <c r="E699" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F699" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G699" s="12">
+        <v>44468.438888888886</v>
+      </c>
+      <c r="H699" s="12">
+        <v>44468.458333333336</v>
+      </c>
+      <c r="I699" s="6">
+        <v>0</v>
+      </c>
+      <c r="J699" s="6">
+        <v>28</v>
+      </c>
+      <c r="K699" s="2">
+        <v>44472.666666666664</v>
+      </c>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>572</v>
+      </c>
+      <c r="C700" t="s">
+        <v>80</v>
+      </c>
+      <c r="D700" t="s">
+        <v>86</v>
+      </c>
+      <c r="E700" s="3">
+        <v>2104</v>
+      </c>
+      <c r="F700" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G700" s="12">
+        <v>44468.743055555555</v>
+      </c>
+      <c r="H700" s="12">
+        <v>44468.753472222219</v>
+      </c>
+      <c r="I700" s="6">
+        <v>0</v>
+      </c>
+      <c r="J700" s="6">
+        <v>15</v>
+      </c>
+      <c r="K700" s="2">
+        <v>44472.666666666664</v>
+      </c>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>383</v>
+      </c>
+      <c r="C701" t="s">
+        <v>82</v>
+      </c>
+      <c r="D701" t="s">
+        <v>86</v>
+      </c>
+      <c r="E701" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F701" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G701" s="12">
+        <v>44469.961805555555</v>
+      </c>
+      <c r="H701" s="12">
+        <v>44469.965277777781</v>
+      </c>
+      <c r="I701" s="6">
+        <v>0</v>
+      </c>
+      <c r="J701" s="6">
+        <v>5</v>
+      </c>
+      <c r="K701" s="2">
+        <v>44472.666666666664</v>
+      </c>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>574</v>
+      </c>
+      <c r="C702" t="s">
+        <v>122</v>
+      </c>
+      <c r="D702" t="s">
+        <v>86</v>
+      </c>
+      <c r="E702" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F702" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G702" s="12">
+        <v>44468.416666666664</v>
+      </c>
+      <c r="H702" s="12">
+        <v>44468.4375</v>
+      </c>
+      <c r="I702" s="6">
+        <v>0</v>
+      </c>
+      <c r="J702" s="6">
+        <v>30</v>
+      </c>
+      <c r="K702" s="2">
+        <v>44472.666666666664</v>
+      </c>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>575</v>
+      </c>
+      <c r="C703" t="s">
+        <v>82</v>
+      </c>
+      <c r="D703" t="s">
+        <v>86</v>
+      </c>
+      <c r="E703" s="3">
+        <v>600</v>
+      </c>
+      <c r="F703" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G703" s="12">
+        <v>44468.625</v>
+      </c>
+      <c r="H703" s="12">
+        <v>44468.666666666664</v>
+      </c>
+      <c r="I703" s="6">
+        <v>1</v>
+      </c>
+      <c r="J703" s="6">
+        <v>0</v>
+      </c>
+      <c r="K703" s="2">
+        <v>44472.583333333336</v>
+      </c>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>155</v>
+      </c>
+      <c r="B704" t="s">
+        <v>76</v>
+      </c>
+      <c r="C704" t="s">
+        <v>82</v>
+      </c>
+      <c r="D704" t="s">
+        <v>86</v>
+      </c>
+      <c r="E704" s="3">
+        <v>2102</v>
+      </c>
+      <c r="F704" s="1">
+        <v>44466</v>
+      </c>
+      <c r="G704" s="12">
+        <v>44466.804861111108</v>
+      </c>
+      <c r="H704" s="12">
+        <v>44466.822916666664</v>
+      </c>
+      <c r="I704" s="6">
+        <v>0</v>
+      </c>
+      <c r="J704" s="6">
+        <v>26</v>
+      </c>
+      <c r="K704" s="2">
+        <v>44472.5</v>
+      </c>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>576</v>
+      </c>
+      <c r="C705" t="s">
+        <v>82</v>
+      </c>
+      <c r="D705" t="s">
+        <v>86</v>
+      </c>
+      <c r="E705" s="3">
+        <v>1041</v>
+      </c>
+      <c r="F705" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G705" s="12">
+        <v>44468.5</v>
+      </c>
+      <c r="H705" s="12">
+        <v>44468.583333333336</v>
+      </c>
+      <c r="I705" s="6">
+        <v>2</v>
+      </c>
+      <c r="J705" s="6">
+        <v>0</v>
+      </c>
+      <c r="K705" s="2">
+        <v>44472.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LocationsOfInterest.xlsx
+++ b/LocationsOfInterest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\LOINZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81CECE-8C1D-4483-B966-A9EEBCDB1017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8DFF55-CFD9-4040-9F64-048B306DD9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
+    <workbookView xWindow="12300" yWindow="2145" windowWidth="38580" windowHeight="15345" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="580">
   <si>
     <t>Place</t>
   </si>
@@ -1768,6 +1768,12 @@
   </si>
   <si>
     <t>Raglan</t>
+  </si>
+  <si>
+    <t>McDonald's Wairau Road</t>
+  </si>
+  <si>
+    <t>View Road Dairy Wairau Valley</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1783,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1790,6 +1796,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF002639"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1812,7 +1824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1826,6 +1838,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1866,8 +1879,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K705" totalsRowShown="0">
-  <autoFilter ref="A1:K705" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K707" totalsRowShown="0">
+  <autoFilter ref="A1:K707" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K601">
     <sortCondition descending="1" ref="K1:K601"/>
   </sortState>
@@ -2185,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF01F6F-394C-421C-8FB1-87940BDF1F8E}">
-  <dimension ref="A1:K705"/>
+  <dimension ref="A1:K707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A633" workbookViewId="0">
-      <selection activeCell="E677" sqref="E677"/>
+    <sheetView tabSelected="1" topLeftCell="A681" workbookViewId="0">
+      <selection activeCell="K707" sqref="K707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25170,6 +25183,70 @@
         <v>44472.5</v>
       </c>
     </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>578</v>
+      </c>
+      <c r="C706" t="s">
+        <v>80</v>
+      </c>
+      <c r="D706" t="s">
+        <v>86</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F706" s="1">
+        <v>44471</v>
+      </c>
+      <c r="G706" s="12">
+        <v>44471.75</v>
+      </c>
+      <c r="H706" s="12">
+        <v>44471.833333333336</v>
+      </c>
+      <c r="I706" s="5">
+        <v>2</v>
+      </c>
+      <c r="J706" s="6">
+        <v>0</v>
+      </c>
+      <c r="K706" s="13">
+        <v>44473.416666666664</v>
+      </c>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>579</v>
+      </c>
+      <c r="C707" t="s">
+        <v>82</v>
+      </c>
+      <c r="D707" t="s">
+        <v>86</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F707" s="1">
+        <v>44471</v>
+      </c>
+      <c r="G707" s="12">
+        <v>44471.520833333336</v>
+      </c>
+      <c r="H707" s="12">
+        <v>44471.5625</v>
+      </c>
+      <c r="I707" s="5">
+        <v>1</v>
+      </c>
+      <c r="J707" s="6">
+        <v>0</v>
+      </c>
+      <c r="K707" s="13">
+        <v>44473.416666666664</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LocationsOfInterest.xlsx
+++ b/LocationsOfInterest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\LOINZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288456A-A797-4FFC-8981-DC1E3911698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7FEB5-0702-4179-82C8-DD4E25DE1FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="5430" windowWidth="38580" windowHeight="15345" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{D45D9D31-60CE-48BD-BE5F-F4E10D0147B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="771">
   <si>
     <t>Place</t>
   </si>
@@ -2335,6 +2335,18 @@
   </si>
   <si>
     <t>Papakura</t>
+  </si>
+  <si>
+    <t>Caltex</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>Gull</t>
   </si>
 </sst>
 </file>
@@ -2442,8 +2454,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}" name="Table2" displayName="Table2" ref="A1:K998" totalsRowShown="0">
   <autoFilter ref="A1:K998" xr:uid="{86356766-91F4-4343-AA6A-0D2635B3B5E0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K955">
-    <sortCondition descending="1" ref="K1:K955"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K986">
+    <sortCondition ref="A1:A998"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{004DA442-11EA-4DBF-9749-A8A67BC42E99}" name="Place"/>
@@ -2762,7 +2774,7 @@
   <dimension ref="A1:K998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C999" sqref="C999"/>
+      <selection activeCell="D456" sqref="D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,10 +2859,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B3" t="s">
-        <v>743</v>
+        <v>466</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
@@ -2858,66 +2867,69 @@
       <c r="D3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="3">
-        <v>2113</v>
+      <c r="E3" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F3" s="1">
-        <v>44473</v>
+        <v>44455</v>
       </c>
       <c r="G3" s="4">
-        <v>44473.395138888889</v>
+        <v>44455.458333333336</v>
       </c>
       <c r="H3" s="4">
-        <v>44473.402083333334</v>
+        <v>44455.479166666664</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2">
-        <v>44479.666666666664</v>
+        <v>44464.75</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>488</v>
+      </c>
+      <c r="B4" t="s">
+        <v>737</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="3">
-        <v>614</v>
+        <v>530</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F4" s="1">
-        <v>44474</v>
+        <v>44471</v>
       </c>
       <c r="G4" s="4">
-        <v>44474.415277777778</v>
+        <v>44471.298611111109</v>
       </c>
       <c r="H4" s="4">
-        <v>44474.422222222223</v>
+        <v>44471.354166666664</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
-        <v>44479.666666666664</v>
+        <v>44471.875</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>626</v>
       </c>
       <c r="B5" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C5" t="s">
         <v>116</v>
@@ -2926,33 +2938,33 @@
         <v>85</v>
       </c>
       <c r="E5" s="3">
-        <v>2113</v>
+        <v>2104</v>
       </c>
       <c r="F5" s="1">
-        <v>44474</v>
+        <v>44476</v>
       </c>
       <c r="G5" s="4">
-        <v>44474.456250000003</v>
+        <v>44476.302083333336</v>
       </c>
       <c r="H5" s="4">
-        <v>44474.463194444441</v>
+        <v>44476.3125</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2">
-        <v>44479.666666666664</v>
+        <v>44478.583333333336</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -2961,25 +2973,25 @@
         <v>85</v>
       </c>
       <c r="E6" s="3">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="F6" s="1">
-        <v>44476</v>
+        <v>44462</v>
       </c>
       <c r="G6" s="4">
-        <v>44476.51458333333</v>
+        <v>44462.92291666667</v>
       </c>
       <c r="H6" s="4">
-        <v>44476.518055555556</v>
+        <v>44462.9375</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2">
-        <v>44479.666666666664</v>
+        <v>44472.875</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3016,7 +3028,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>481</v>
+      </c>
+      <c r="B8" t="s">
+        <v>737</v>
       </c>
       <c r="C8" t="s">
         <v>116</v>
@@ -3024,26 +3039,26 @@
       <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="3">
-        <v>2120</v>
+      <c r="E8" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F8" s="1">
-        <v>44478</v>
+        <v>44457</v>
       </c>
       <c r="G8" s="4">
-        <v>44478.284722222219</v>
+        <v>44457.34652777778</v>
       </c>
       <c r="H8" s="4">
-        <v>44478.336805555555</v>
+        <v>44457.354166666664</v>
       </c>
       <c r="I8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="2">
-        <v>44479.666666666664</v>
+        <v>44461.666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3627,37 +3642,37 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>588</v>
+        <v>643</v>
       </c>
       <c r="B27" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C27" t="s">
         <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>452</v>
+        <v>85</v>
       </c>
       <c r="E27" s="3">
-        <v>3503</v>
+        <v>610</v>
       </c>
       <c r="F27" s="1">
-        <v>44478</v>
+        <v>44472</v>
       </c>
       <c r="G27" s="4">
-        <v>44478.451388888891</v>
+        <v>44472.35</v>
       </c>
       <c r="H27" s="4">
-        <v>44478.510416666664</v>
+        <v>44472.352083333331</v>
       </c>
       <c r="I27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K27" s="2">
-        <v>44479.5</v>
+        <v>44477.75</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3722,37 +3737,37 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="B30" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C30" t="s">
         <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>452</v>
+        <v>85</v>
       </c>
       <c r="E30" s="3">
-        <v>3503</v>
+        <v>610</v>
       </c>
       <c r="F30" s="1">
-        <v>44477</v>
+        <v>44473</v>
       </c>
       <c r="G30" s="4">
-        <v>44477.260416666664</v>
+        <v>44473.34097222222</v>
       </c>
       <c r="H30" s="4">
-        <v>44477.305555555555</v>
+        <v>44473.34375</v>
       </c>
       <c r="I30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K30" s="2">
-        <v>44479.458333333336</v>
+        <v>44477.75</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4185,10 +4200,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="B44" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C44" t="s">
         <v>116</v>
@@ -4197,25 +4212,25 @@
         <v>85</v>
       </c>
       <c r="E44" s="3">
-        <v>2104</v>
+        <v>610</v>
       </c>
       <c r="F44" s="1">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="G44" s="4">
-        <v>44473.833333333336</v>
+        <v>44474.318749999999</v>
       </c>
       <c r="H44" s="4">
-        <v>44473.84375</v>
+        <v>44474.320833333331</v>
       </c>
       <c r="I44" s="6">
         <v>0</v>
       </c>
       <c r="J44" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K44" s="2">
-        <v>44478.833333333336</v>
+        <v>44477.75</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4523,7 +4538,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>548</v>
+        <v>643</v>
       </c>
       <c r="B54" t="s">
         <v>737</v>
@@ -4532,33 +4547,33 @@
         <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>569</v>
+        <v>85</v>
       </c>
       <c r="E54" s="3">
-        <v>3225</v>
+        <v>610</v>
       </c>
       <c r="F54" s="1">
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="G54" s="4">
-        <v>44471.416666666664</v>
+        <v>44475.272916666669</v>
       </c>
       <c r="H54" s="4">
-        <v>44471.4375</v>
+        <v>44475.274305555555</v>
       </c>
       <c r="I54" s="6">
         <v>0</v>
       </c>
       <c r="J54" s="6">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="K54" s="2">
-        <v>44478.75</v>
+        <v>44477.75</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>548</v>
+        <v>643</v>
       </c>
       <c r="B55" t="s">
         <v>737</v>
@@ -4567,28 +4582,28 @@
         <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>569</v>
+        <v>85</v>
       </c>
       <c r="E55" s="3">
-        <v>3225</v>
+        <v>610</v>
       </c>
       <c r="F55" s="1">
-        <v>44472</v>
+        <v>44476</v>
       </c>
       <c r="G55" s="4">
-        <v>44472.729166666664</v>
+        <v>44476.318749999999</v>
       </c>
       <c r="H55" s="4">
-        <v>44472.78125</v>
+        <v>44476.320138888892</v>
       </c>
       <c r="I55" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K55" s="2">
-        <v>44478.75</v>
+        <v>44477.75</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -5065,7 +5080,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="B70" t="s">
         <v>737</v>
@@ -5077,25 +5092,25 @@
         <v>85</v>
       </c>
       <c r="E70" s="3">
-        <v>1026</v>
+        <v>610</v>
       </c>
       <c r="F70" s="1">
-        <v>44475</v>
+        <v>44472</v>
       </c>
       <c r="G70" s="4">
-        <v>44475.854166666664</v>
+        <v>44472.68472222222</v>
       </c>
       <c r="H70" s="4">
-        <v>44475.875</v>
+        <v>44472.688194444447</v>
       </c>
       <c r="I70" s="6">
         <v>0</v>
       </c>
       <c r="J70" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K70" s="2">
-        <v>44478.666666666664</v>
+        <v>44476.5</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -5164,10 +5179,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>619</v>
+        <v>711</v>
       </c>
       <c r="B73" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C73" t="s">
         <v>116</v>
@@ -5176,25 +5191,25 @@
         <v>85</v>
       </c>
       <c r="E73" s="3">
-        <v>600</v>
+        <v>1023</v>
       </c>
       <c r="F73" s="1">
-        <v>44476</v>
+        <v>44473</v>
       </c>
       <c r="G73" s="4">
-        <v>44476.458333333336</v>
+        <v>44473.958333333336</v>
       </c>
       <c r="H73" s="4">
-        <v>44476.5</v>
+        <v>44473.020833333336</v>
       </c>
       <c r="I73" s="6">
         <v>1</v>
       </c>
       <c r="J73" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K73" s="2">
-        <v>44478.666666666664</v>
+        <v>44475.5</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -5601,7 +5616,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>626</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s">
         <v>737</v>
@@ -5610,28 +5625,28 @@
         <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>85</v>
-      </c>
-      <c r="E86" s="3">
-        <v>2104</v>
+        <v>532</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="F86" s="1">
-        <v>44476</v>
+        <v>44469</v>
       </c>
       <c r="G86" s="4">
-        <v>44476.302083333336</v>
+        <v>44469.275694444441</v>
       </c>
       <c r="H86" s="4">
-        <v>44476.3125</v>
+        <v>44469.322916666664</v>
       </c>
       <c r="I86" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K86" s="2">
-        <v>44478.583333333336</v>
+        <v>44471.875</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -5858,34 +5873,37 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>579</v>
+        <v>553</v>
+      </c>
+      <c r="B94" t="s">
+        <v>737</v>
       </c>
       <c r="C94" t="s">
         <v>116</v>
       </c>
       <c r="D94" t="s">
-        <v>85</v>
+        <v>531</v>
       </c>
       <c r="E94" s="3">
-        <v>614</v>
+        <v>3791</v>
       </c>
       <c r="F94" s="1">
-        <v>44472</v>
+        <v>44462</v>
       </c>
       <c r="G94" s="4">
-        <v>44472.708333333336</v>
+        <v>44462.625</v>
       </c>
       <c r="H94" s="4">
-        <v>44472.729166666664</v>
+        <v>44462.666666666664</v>
       </c>
       <c r="I94" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>44478.416666666664</v>
+        <v>44472.875</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -6306,7 +6324,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>651</v>
+        <v>470</v>
       </c>
       <c r="B108" t="s">
         <v>737</v>
@@ -6315,28 +6333,28 @@
         <v>116</v>
       </c>
       <c r="D108" t="s">
-        <v>736</v>
-      </c>
-      <c r="E108" s="3">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="F108" s="1">
-        <v>44471</v>
+        <v>44461</v>
       </c>
       <c r="G108" s="4">
-        <v>44471.972222222219</v>
+        <v>44461.306250000001</v>
       </c>
       <c r="H108" s="4">
-        <v>44471.013888888891</v>
+        <v>44461.3125</v>
       </c>
       <c r="I108" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K108" s="2">
-        <v>44477.75</v>
+        <v>44463.75</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -6411,7 +6429,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>643</v>
+        <v>470</v>
       </c>
       <c r="B111" t="s">
         <v>737</v>
@@ -6422,26 +6440,26 @@
       <c r="D111" t="s">
         <v>85</v>
       </c>
-      <c r="E111" s="3">
-        <v>610</v>
+      <c r="E111" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="F111" s="1">
-        <v>44472</v>
+        <v>44461</v>
       </c>
       <c r="G111" s="4">
-        <v>44472.35</v>
+        <v>44461.342361111114</v>
       </c>
       <c r="H111" s="4">
-        <v>44472.352083333331</v>
+        <v>44461.349305555559</v>
       </c>
       <c r="I111" s="6">
         <v>0</v>
       </c>
       <c r="J111" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K111" s="2">
-        <v>44477.75</v>
+        <v>44463.75</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6481,39 +6499,42 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>644</v>
+        <v>470</v>
+      </c>
+      <c r="B113" t="s">
+        <v>737</v>
       </c>
       <c r="C113" t="s">
         <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>569</v>
-      </c>
-      <c r="E113" s="3">
-        <v>3225</v>
+        <v>85</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="F113" s="1">
-        <v>44472</v>
+        <v>44462</v>
       </c>
       <c r="G113" s="4">
-        <v>44472.291666666664</v>
+        <v>44462.436805555553</v>
       </c>
       <c r="H113" s="4">
-        <v>44472.875</v>
+        <v>44462.443749999999</v>
       </c>
       <c r="I113" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J113" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K113" s="2">
-        <v>44477.75</v>
+        <v>44463.75</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B114" t="s">
         <v>737</v>
@@ -6522,25 +6543,25 @@
         <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>85</v>
+        <v>736</v>
       </c>
       <c r="E114" s="3">
-        <v>610</v>
+        <v>110</v>
       </c>
       <c r="F114" s="1">
-        <v>44473</v>
+        <v>44471</v>
       </c>
       <c r="G114" s="4">
-        <v>44473.34097222222</v>
+        <v>44471.972222222219</v>
       </c>
       <c r="H114" s="4">
-        <v>44473.34375</v>
+        <v>44471.013888888891</v>
       </c>
       <c r="I114" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K114" s="2">
         <v>44477.75</v>
@@ -6612,10 +6633,10 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>604</v>
+        <v>520</v>
       </c>
       <c r="B117" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C117" t="s">
         <v>116</v>
@@ -6623,26 +6644,26 @@
       <c r="D117" t="s">
         <v>85</v>
       </c>
-      <c r="E117" s="3">
-        <v>2104</v>
+      <c r="E117" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F117" s="1">
-        <v>44473</v>
+        <v>44467</v>
       </c>
       <c r="G117" s="4">
-        <v>44473.520833333336</v>
+        <v>44467.45208333333</v>
       </c>
       <c r="H117" s="4">
-        <v>44473.572916666664</v>
+        <v>44467.493750000001</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
       </c>
       <c r="J117" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K117" s="2">
-        <v>44477.75</v>
+        <v>44468.666666666664</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6682,42 +6703,42 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>648</v>
+        <v>707</v>
       </c>
       <c r="B119" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C119" t="s">
         <v>116</v>
       </c>
       <c r="D119" t="s">
-        <v>736</v>
+        <v>85</v>
       </c>
       <c r="E119" s="3">
-        <v>112</v>
+        <v>622</v>
       </c>
       <c r="F119" s="1">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="G119" s="4">
-        <v>44473.65625</v>
+        <v>44470.25</v>
       </c>
       <c r="H119" s="4">
-        <v>44473.697916666664</v>
+        <v>44470.260416666664</v>
       </c>
       <c r="I119" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K119" s="2">
-        <v>44477.75</v>
+        <v>44475.666666666664</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>643</v>
+        <v>418</v>
       </c>
       <c r="B120" t="s">
         <v>737</v>
@@ -6729,25 +6750,25 @@
         <v>85</v>
       </c>
       <c r="E120" s="3">
-        <v>610</v>
+        <v>2022</v>
       </c>
       <c r="F120" s="1">
-        <v>44474</v>
+        <v>44454</v>
       </c>
       <c r="G120" s="4">
-        <v>44474.318749999999</v>
+        <v>44454.347222222219</v>
       </c>
       <c r="H120" s="4">
-        <v>44474.320833333331</v>
+        <v>44454.708333333336</v>
       </c>
       <c r="I120" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J120" s="6">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="K120" s="2">
-        <v>44477.75</v>
+        <v>44459.416666666664</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6848,7 +6869,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>643</v>
+        <v>418</v>
       </c>
       <c r="B124" t="s">
         <v>737</v>
@@ -6860,25 +6881,25 @@
         <v>85</v>
       </c>
       <c r="E124" s="3">
-        <v>610</v>
+        <v>2022</v>
       </c>
       <c r="F124" s="1">
-        <v>44475</v>
+        <v>44455</v>
       </c>
       <c r="G124" s="4">
-        <v>44475.272916666669</v>
+        <v>44455.326388888891</v>
       </c>
       <c r="H124" s="4">
-        <v>44475.274305555555</v>
+        <v>44455.708333333336</v>
       </c>
       <c r="I124" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J124" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K124" s="2">
-        <v>44477.75</v>
+        <v>44459.416666666664</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6985,7 +7006,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="B128" t="s">
         <v>737</v>
@@ -6997,25 +7018,25 @@
         <v>85</v>
       </c>
       <c r="E128" s="3">
-        <v>610</v>
+        <v>2104</v>
       </c>
       <c r="F128" s="1">
         <v>44476</v>
       </c>
       <c r="G128" s="4">
-        <v>44476.318749999999</v>
+        <v>44476.576388888891</v>
       </c>
       <c r="H128" s="4">
-        <v>44476.320138888892</v>
+        <v>44476.586805555555</v>
       </c>
       <c r="I128" s="6">
         <v>0</v>
       </c>
       <c r="J128" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K128" s="2">
-        <v>44477.75</v>
+        <v>44477.583333333336</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -7309,37 +7330,37 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>665</v>
+        <v>492</v>
       </c>
       <c r="B138" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C138" t="s">
         <v>116</v>
       </c>
       <c r="D138" t="s">
-        <v>85</v>
-      </c>
-      <c r="E138" s="3">
-        <v>2022</v>
+        <v>537</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="F138" s="1">
         <v>44467</v>
       </c>
       <c r="G138" s="4">
-        <v>44467.416666666664</v>
+        <v>44467.977777777778</v>
       </c>
       <c r="H138" s="4">
-        <v>44467.447916666664</v>
+        <v>44468.040277777778</v>
       </c>
       <c r="I138" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K138" s="2">
-        <v>44477.583333333336</v>
+        <v>44471.875</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -7443,37 +7464,37 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>665</v>
+        <v>548</v>
       </c>
       <c r="B142" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C142" t="s">
         <v>116</v>
       </c>
       <c r="D142" t="s">
-        <v>85</v>
+        <v>569</v>
       </c>
       <c r="E142" s="3">
-        <v>2022</v>
+        <v>3225</v>
       </c>
       <c r="F142" s="1">
-        <v>44468</v>
+        <v>44471</v>
       </c>
       <c r="G142" s="4">
-        <v>44468.416666666664</v>
+        <v>44471.416666666664</v>
       </c>
       <c r="H142" s="4">
-        <v>44468.447916666664</v>
+        <v>44471.4375</v>
       </c>
       <c r="I142" s="6">
         <v>0</v>
       </c>
       <c r="J142" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K142" s="2">
-        <v>44477.583333333336</v>
+        <v>44478.75</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -7513,37 +7534,37 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>665</v>
+        <v>548</v>
       </c>
       <c r="B144" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C144" t="s">
         <v>116</v>
       </c>
       <c r="D144" t="s">
-        <v>85</v>
+        <v>569</v>
       </c>
       <c r="E144" s="3">
-        <v>2022</v>
+        <v>3225</v>
       </c>
       <c r="F144" s="1">
-        <v>44469</v>
+        <v>44472</v>
       </c>
       <c r="G144" s="4">
-        <v>44469.416666666664</v>
+        <v>44472.729166666664</v>
       </c>
       <c r="H144" s="4">
-        <v>44469.447916666664</v>
+        <v>44472.78125</v>
       </c>
       <c r="I144" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" s="6">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K144" s="2">
-        <v>44477.583333333336</v>
+        <v>44478.75</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -7912,7 +7933,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>668</v>
+        <v>548</v>
       </c>
       <c r="B156" t="s">
         <v>737</v>
@@ -7921,28 +7942,28 @@
         <v>116</v>
       </c>
       <c r="D156" t="s">
-        <v>85</v>
+        <v>569</v>
       </c>
       <c r="E156" s="3">
-        <v>2104</v>
+        <v>3225</v>
       </c>
       <c r="F156" s="1">
-        <v>44476</v>
+        <v>44471</v>
       </c>
       <c r="G156" s="4">
-        <v>44476.576388888891</v>
+        <v>44471.739583333336</v>
       </c>
       <c r="H156" s="4">
-        <v>44476.586805555555</v>
+        <v>44471.760416666664</v>
       </c>
       <c r="I156" s="6">
         <v>0</v>
       </c>
       <c r="J156" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K156" s="2">
-        <v>44477.583333333336</v>
+        <v>44474.75</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -8515,37 +8536,37 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>341</v>
+        <v>548</v>
       </c>
       <c r="B174" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C174" t="s">
         <v>116</v>
       </c>
       <c r="D174" t="s">
-        <v>85</v>
+        <v>569</v>
       </c>
       <c r="E174" s="3">
-        <v>2102</v>
+        <v>3225</v>
       </c>
       <c r="F174" s="1">
-        <v>44469</v>
+        <v>44471</v>
       </c>
       <c r="G174" s="4">
-        <v>44469.484722222223</v>
+        <v>44471.760416666664</v>
       </c>
       <c r="H174" s="4">
-        <v>44469.53125</v>
+        <v>44471.78125</v>
       </c>
       <c r="I174" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" s="6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K174" s="2">
-        <v>44476.75</v>
+        <v>44472.875</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -8975,7 +8996,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>643</v>
+        <v>548</v>
       </c>
       <c r="B188" t="s">
         <v>737</v>
@@ -8984,28 +9005,28 @@
         <v>116</v>
       </c>
       <c r="D188" t="s">
-        <v>85</v>
+        <v>569</v>
       </c>
       <c r="E188" s="3">
-        <v>610</v>
+        <v>3225</v>
       </c>
       <c r="F188" s="1">
-        <v>44472</v>
+        <v>44474</v>
       </c>
       <c r="G188" s="4">
-        <v>44472.68472222222</v>
+        <v>44474.718055555553</v>
       </c>
       <c r="H188" s="4">
-        <v>44472.688194444447</v>
+        <v>44474.740277777775</v>
       </c>
       <c r="I188" s="6">
         <v>0</v>
       </c>
       <c r="J188" s="6">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K188" s="2">
-        <v>44476.5</v>
+        <v>44480.333333333336</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -9138,37 +9159,37 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>695</v>
+        <v>548</v>
       </c>
       <c r="B193" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C193" t="s">
         <v>116</v>
       </c>
       <c r="D193" t="s">
-        <v>85</v>
+        <v>569</v>
       </c>
       <c r="E193" s="3">
-        <v>1060</v>
+        <v>3225</v>
       </c>
       <c r="F193" s="1">
-        <v>44471</v>
+        <v>44476</v>
       </c>
       <c r="G193" s="4">
-        <v>44471.489583333336</v>
+        <v>44476.499305555553</v>
       </c>
       <c r="H193" s="4">
-        <v>44471.532638888886</v>
+        <v>44476.521527777775</v>
       </c>
       <c r="I193" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K193" s="2">
-        <v>44476.333333333336</v>
+        <v>44480.333333333336</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -9368,37 +9389,37 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="B200" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C200" t="s">
         <v>116</v>
       </c>
       <c r="D200" t="s">
-        <v>733</v>
-      </c>
-      <c r="E200" s="3">
-        <v>3204</v>
+        <v>113</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="F200" s="1">
-        <v>44474</v>
+        <v>44424</v>
       </c>
       <c r="G200" s="4">
-        <v>44474.645833333336</v>
+        <v>44424.895833333336</v>
       </c>
       <c r="H200" s="4">
-        <v>44474.65625</v>
+        <v>44424.916666666664</v>
       </c>
       <c r="I200" s="6">
         <v>0</v>
       </c>
       <c r="J200" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K200" s="2">
-        <v>44475.75</v>
+        <v>44429.375</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -9435,7 +9456,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>707</v>
+        <v>489</v>
       </c>
       <c r="B202" t="s">
         <v>737</v>
@@ -9444,28 +9465,28 @@
         <v>116</v>
       </c>
       <c r="D202" t="s">
-        <v>85</v>
-      </c>
-      <c r="E202" s="3">
-        <v>622</v>
+        <v>531</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="F202" s="1">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="G202" s="4">
-        <v>44470.25</v>
+        <v>44469.041666666664</v>
       </c>
       <c r="H202" s="4">
-        <v>44470.260416666664</v>
+        <v>44469.09375</v>
       </c>
       <c r="I202" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" s="6">
         <v>15</v>
       </c>
       <c r="K202" s="2">
-        <v>44475.666666666664</v>
+        <v>44471.875</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -9857,7 +9878,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>711</v>
+        <v>489</v>
       </c>
       <c r="B215" t="s">
         <v>737</v>
@@ -9866,28 +9887,28 @@
         <v>116</v>
       </c>
       <c r="D215" t="s">
-        <v>85</v>
-      </c>
-      <c r="E215" s="3">
-        <v>1023</v>
+        <v>531</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="F215" s="1">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="G215" s="4">
-        <v>44473.958333333336</v>
+        <v>44470.197916666664</v>
       </c>
       <c r="H215" s="4">
-        <v>44473.020833333336</v>
+        <v>44470.25</v>
       </c>
       <c r="I215" s="6">
         <v>1</v>
       </c>
       <c r="J215" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K215" s="2">
-        <v>44475.5</v>
+        <v>44471.875</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -10151,7 +10172,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="B224" t="s">
         <v>737</v>
@@ -10160,28 +10181,28 @@
         <v>116</v>
       </c>
       <c r="D224" t="s">
-        <v>569</v>
-      </c>
-      <c r="E224" s="3">
-        <v>3225</v>
+        <v>531</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="F224" s="1">
         <v>44471</v>
       </c>
       <c r="G224" s="4">
-        <v>44471.739583333336</v>
+        <v>44471.041666666664</v>
       </c>
       <c r="H224" s="4">
-        <v>44471.760416666664</v>
+        <v>44471.09375</v>
       </c>
       <c r="I224" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K224" s="2">
-        <v>44474.75</v>
+        <v>44471.875</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -11075,115 +11096,115 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>541</v>
+        <v>429</v>
       </c>
       <c r="B252" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C252" t="s">
         <v>116</v>
       </c>
       <c r="D252" t="s">
-        <v>85</v>
-      </c>
-      <c r="E252" s="3">
-        <v>632</v>
+        <v>448</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="F252" s="1">
-        <v>44466</v>
+        <v>44450</v>
       </c>
       <c r="G252" s="4">
-        <v>44466.678472222222</v>
+        <v>44450.322916666664</v>
       </c>
       <c r="H252" s="4">
-        <v>44466.6875</v>
+        <v>44450.385416666664</v>
       </c>
       <c r="I252" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="6">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K252" s="2">
-        <v>44473.333333333336</v>
+        <v>44456.75</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>541</v>
+        <v>115</v>
       </c>
       <c r="B253" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C253" t="s">
         <v>116</v>
       </c>
       <c r="D253" t="s">
-        <v>85</v>
-      </c>
-      <c r="E253" s="3">
-        <v>632</v>
+        <v>117</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="F253" s="1">
-        <v>44467</v>
+        <v>44424</v>
       </c>
       <c r="G253" s="4">
-        <v>44467.948611111111</v>
+        <v>44424.625</v>
       </c>
       <c r="H253" s="4">
-        <v>44467.958333333336</v>
+        <v>44424.666666666664</v>
       </c>
       <c r="I253" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K253" s="2">
-        <v>44473.333333333336</v>
+        <v>44433.75</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="B254" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C254" t="s">
         <v>116</v>
       </c>
       <c r="D254" t="s">
-        <v>85</v>
-      </c>
-      <c r="E254" s="3">
-        <v>632</v>
+        <v>117</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="F254" s="1">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="G254" s="4">
-        <v>44468.968055555553</v>
+        <v>44467.083333333336</v>
       </c>
       <c r="H254" s="4">
-        <v>44468.979166666664</v>
+        <v>44467.125</v>
       </c>
       <c r="I254" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K254" s="2">
-        <v>44473.333333333336</v>
+        <v>44471.875</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
       <c r="B255" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C255" t="s">
         <v>116</v>
@@ -11192,33 +11213,33 @@
         <v>85</v>
       </c>
       <c r="E255" s="3">
-        <v>632</v>
+        <v>1026</v>
       </c>
       <c r="F255" s="1">
-        <v>44469</v>
+        <v>44475</v>
       </c>
       <c r="G255" s="4">
-        <v>44469.945833333331</v>
+        <v>44475.854166666664</v>
       </c>
       <c r="H255" s="4">
-        <v>44469.956250000003</v>
+        <v>44475.875</v>
       </c>
       <c r="I255" s="6">
         <v>0</v>
       </c>
       <c r="J255" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K255" s="2">
-        <v>44473.333333333336</v>
+        <v>44478.666666666664</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>541</v>
+        <v>33</v>
       </c>
       <c r="B256" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="C256" t="s">
         <v>116</v>
@@ -11226,26 +11247,26 @@
       <c r="D256" t="s">
         <v>85</v>
       </c>
-      <c r="E256" s="3">
-        <v>632</v>
+      <c r="E256" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="F256" s="1">
-        <v>44470</v>
+        <v>44427</v>
       </c>
       <c r="G256" s="4">
-        <v>44470.5</v>
+        <v>44427.958333333336</v>
       </c>
       <c r="H256" s="4">
-        <v>44470.510416666664</v>
+        <v>44427.999988425923</v>
       </c>
       <c r="I256" s="6">
         <v>0</v>
       </c>
       <c r="J256" s="6">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="K256" s="2">
-        <v>44473.333333333336</v>
+        <v>44434.833333333336</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -11285,10 +11306,10 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>545</v>
+        <v>362</v>
       </c>
       <c r="B258" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="C258" t="s">
         <v>116</v>
@@ -11297,60 +11318,60 @@
         <v>85</v>
       </c>
       <c r="E258" s="3">
-        <v>632</v>
+        <v>1011</v>
       </c>
       <c r="F258" s="1">
-        <v>44462</v>
+        <v>44439</v>
       </c>
       <c r="G258" s="4">
-        <v>44462.92291666667</v>
+        <v>44439.34375</v>
       </c>
       <c r="H258" s="4">
-        <v>44462.9375</v>
+        <v>44439.364583333336</v>
       </c>
       <c r="I258" s="6">
         <v>0</v>
       </c>
       <c r="J258" s="6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K258" s="2">
-        <v>44472.875</v>
+        <v>44449.583333333336</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>553</v>
+        <v>362</v>
       </c>
       <c r="B259" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="C259" t="s">
         <v>116</v>
       </c>
       <c r="D259" t="s">
-        <v>531</v>
+        <v>85</v>
       </c>
       <c r="E259" s="3">
-        <v>3791</v>
+        <v>1011</v>
       </c>
       <c r="F259" s="1">
-        <v>44462</v>
+        <v>44441</v>
       </c>
       <c r="G259" s="4">
-        <v>44462.625</v>
+        <v>44441.236111111109</v>
       </c>
       <c r="H259" s="4">
-        <v>44462.666666666664</v>
+        <v>44441.25</v>
       </c>
       <c r="I259" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K259" s="2">
-        <v>44472.875</v>
+        <v>44449.583333333336</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -11457,37 +11478,37 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="B263" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="C263" t="s">
         <v>116</v>
       </c>
       <c r="D263" t="s">
-        <v>85</v>
-      </c>
-      <c r="E263" s="3">
-        <v>632</v>
+        <v>535</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="F263" s="1">
-        <v>44465</v>
+        <v>44467</v>
       </c>
       <c r="G263" s="4">
-        <v>44465.6875</v>
+        <v>44467.416666666664</v>
       </c>
       <c r="H263" s="4">
-        <v>44465.708333333336</v>
+        <v>44467.479166666664</v>
       </c>
       <c r="I263" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" s="6">
         <v>30</v>
       </c>
       <c r="K263" s="2">
-        <v>44472.875</v>
+        <v>44471.875</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -11821,37 +11842,37 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="B274" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="C274" t="s">
         <v>116</v>
       </c>
       <c r="D274" t="s">
-        <v>569</v>
+        <v>85</v>
       </c>
       <c r="E274" s="3">
-        <v>3225</v>
+        <v>614</v>
       </c>
       <c r="F274" s="1">
-        <v>44471</v>
+        <v>44474</v>
       </c>
       <c r="G274" s="4">
-        <v>44471.760416666664</v>
+        <v>44474.415277777778</v>
       </c>
       <c r="H274" s="4">
-        <v>44471.78125</v>
+        <v>44474.422222222223</v>
       </c>
       <c r="I274" s="6">
         <v>0</v>
       </c>
       <c r="J274" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K274" s="2">
-        <v>44472.875</v>
+        <v>44479.666666666664</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -12156,10 +12177,10 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="B284" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="C284" t="s">
         <v>116</v>
@@ -12168,25 +12189,25 @@
         <v>85</v>
       </c>
       <c r="E284" s="3">
-        <v>2025</v>
+        <v>614</v>
       </c>
       <c r="F284" s="1">
-        <v>44469</v>
+        <v>44472</v>
       </c>
       <c r="G284" s="4">
-        <v>44469.826388888891</v>
+        <v>44472.708333333336</v>
       </c>
       <c r="H284" s="4">
-        <v>44469.829861111109</v>
+        <v>44472.729166666664</v>
       </c>
       <c r="I284" s="6">
         <v>0</v>
       </c>
       <c r="J284" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K284" s="2">
-        <v>44472.75</v>
+        <v>44478.416666666664</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -12225,6 +12246,9 @@
       <c r="A286" t="s">
         <v>559</v>
       </c>
+      <c r="B286" t="s">
+        <v>769</v>
+      </c>
       <c r="C286" t="s">
         <v>116</v>
       </c>
@@ -12712,72 +12736,72 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B301" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="C301" t="s">
         <v>116</v>
       </c>
       <c r="D301" t="s">
-        <v>537</v>
+        <v>85</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="F301" s="1">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="G301" s="4">
-        <v>44467.977777777778</v>
+        <v>44469.53125</v>
       </c>
       <c r="H301" s="4">
-        <v>44468.040277777778</v>
+        <v>44469.552083333336</v>
       </c>
       <c r="I301" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" s="6">
         <v>30</v>
       </c>
       <c r="K301" s="2">
-        <v>44471.875</v>
+        <v>44471.666666666664</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>495</v>
+        <v>374</v>
       </c>
       <c r="B302" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="C302" t="s">
         <v>116</v>
       </c>
       <c r="D302" t="s">
-        <v>117</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
+      </c>
+      <c r="E302" s="3">
+        <v>2022</v>
       </c>
       <c r="F302" s="1">
-        <v>44467</v>
+        <v>44444</v>
       </c>
       <c r="G302" s="4">
-        <v>44467.083333333336</v>
+        <v>44444.322916666664</v>
       </c>
       <c r="H302" s="4">
-        <v>44467.125</v>
+        <v>44444.368055555555</v>
       </c>
       <c r="I302" s="6">
         <v>1</v>
       </c>
       <c r="J302" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K302" s="2">
-        <v>44471.875</v>
+        <v>44447.333333333336</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -12817,34 +12841,37 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>490</v>
+        <v>311</v>
+      </c>
+      <c r="B304" t="s">
+        <v>769</v>
       </c>
       <c r="C304" t="s">
         <v>116</v>
       </c>
       <c r="D304" t="s">
-        <v>535</v>
-      </c>
-      <c r="E304" s="3" t="s">
-        <v>534</v>
+        <v>85</v>
+      </c>
+      <c r="E304" s="3">
+        <v>2022</v>
       </c>
       <c r="F304" s="1">
-        <v>44467</v>
+        <v>44436</v>
       </c>
       <c r="G304" s="4">
-        <v>44467.416666666664</v>
+        <v>44436.484722222223</v>
       </c>
       <c r="H304" s="4">
-        <v>44467.479166666664</v>
+        <v>44436.489583333336</v>
       </c>
       <c r="I304" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" s="6">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K304" s="2">
-        <v>44471.875</v>
+        <v>44441.75</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -12881,72 +12908,72 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B306" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="C306" t="s">
         <v>116</v>
       </c>
       <c r="D306" t="s">
-        <v>532</v>
+        <v>85</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>539</v>
+        <v>89</v>
       </c>
       <c r="F306" s="1">
-        <v>44469</v>
+        <v>44452</v>
       </c>
       <c r="G306" s="4">
-        <v>44469.275694444441</v>
+        <v>44452.875</v>
       </c>
       <c r="H306" s="4">
-        <v>44469.322916666664</v>
+        <v>44452.9375</v>
       </c>
       <c r="I306" s="6">
         <v>1</v>
       </c>
       <c r="J306" s="6">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K306" s="2">
-        <v>44471.875</v>
+        <v>44462.5</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="B307" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="C307" t="s">
         <v>116</v>
       </c>
       <c r="D307" t="s">
-        <v>531</v>
+        <v>85</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>533</v>
+        <v>89</v>
       </c>
       <c r="F307" s="1">
-        <v>44469</v>
+        <v>44453</v>
       </c>
       <c r="G307" s="4">
-        <v>44469.041666666664</v>
+        <v>44453.010416666664</v>
       </c>
       <c r="H307" s="4">
-        <v>44469.09375</v>
-      </c>
-      <c r="I307" s="6">
-        <v>1</v>
+        <v>44453.020833333336</v>
+      </c>
+      <c r="I307" s="5">
+        <v>0</v>
       </c>
       <c r="J307" s="6">
         <v>15</v>
       </c>
       <c r="K307" s="2">
-        <v>44471.875</v>
+        <v>44459.583333333336</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -12986,98 +13013,98 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="B309" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="C309" t="s">
         <v>116</v>
       </c>
       <c r="D309" t="s">
-        <v>531</v>
+        <v>450</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="F309" s="1">
-        <v>44470</v>
+        <v>44448</v>
       </c>
       <c r="G309" s="4">
-        <v>44470.197916666664</v>
+        <v>44448.465277777781</v>
       </c>
       <c r="H309" s="4">
-        <v>44470.25</v>
+        <v>44448.520833333336</v>
       </c>
       <c r="I309" s="6">
         <v>1</v>
       </c>
       <c r="J309" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K309" s="2">
-        <v>44471.875</v>
+        <v>44456.583333333336</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>488</v>
+        <v>399</v>
       </c>
       <c r="B310" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
       <c r="C310" t="s">
         <v>116</v>
       </c>
       <c r="D310" t="s">
-        <v>530</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>529</v>
+        <v>85</v>
+      </c>
+      <c r="E310" s="3">
+        <v>2023</v>
       </c>
       <c r="F310" s="1">
-        <v>44471</v>
+        <v>44450</v>
       </c>
       <c r="G310" s="4">
-        <v>44471.298611111109</v>
+        <v>44450.208333333336</v>
       </c>
       <c r="H310" s="4">
-        <v>44471.354166666664</v>
+        <v>44450.21875</v>
       </c>
       <c r="I310" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K310" s="2">
-        <v>44471.875</v>
+        <v>44454.416666666664</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>489</v>
+        <v>575</v>
       </c>
       <c r="B311" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
       <c r="C311" t="s">
         <v>116</v>
       </c>
       <c r="D311" t="s">
-        <v>531</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>533</v>
+        <v>85</v>
+      </c>
+      <c r="E311" s="3">
+        <v>2120</v>
       </c>
       <c r="F311" s="1">
-        <v>44471</v>
+        <v>44478</v>
       </c>
       <c r="G311" s="4">
-        <v>44471.041666666664</v>
+        <v>44478.284722222219</v>
       </c>
       <c r="H311" s="4">
-        <v>44471.09375</v>
+        <v>44478.336805555555</v>
       </c>
       <c r="I311" s="6">
         <v>1</v>
@@ -13086,7 +13113,7 @@
         <v>15</v>
       </c>
       <c r="K311" s="2">
-        <v>44471.875</v>
+        <v>44479.666666666664</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -13123,7 +13150,10 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>496</v>
+        <v>619</v>
+      </c>
+      <c r="B313" t="s">
+        <v>740</v>
       </c>
       <c r="C313" t="s">
         <v>116</v>
@@ -13131,26 +13161,26 @@
       <c r="D313" t="s">
         <v>85</v>
       </c>
-      <c r="E313" s="3" t="s">
-        <v>484</v>
+      <c r="E313" s="3">
+        <v>600</v>
       </c>
       <c r="F313" s="1">
-        <v>44469</v>
+        <v>44476</v>
       </c>
       <c r="G313" s="4">
-        <v>44469.53125</v>
+        <v>44476.458333333336</v>
       </c>
       <c r="H313" s="4">
-        <v>44469.552083333336</v>
+        <v>44476.5</v>
       </c>
       <c r="I313" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K313" s="2">
-        <v>44471.666666666664</v>
+        <v>44478.666666666664</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -13321,10 +13351,10 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>500</v>
+        <v>213</v>
       </c>
       <c r="B319" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C319" t="s">
         <v>116</v>
@@ -13333,16 +13363,16 @@
         <v>85</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F319" s="1">
-        <v>44468</v>
+        <v>44425</v>
       </c>
       <c r="G319" s="7">
-        <v>44468.736111111109</v>
+        <v>44425.9375</v>
       </c>
       <c r="H319" s="7">
-        <v>44468.756944444445</v>
+        <v>44425.958333333336</v>
       </c>
       <c r="I319" s="6">
         <v>0</v>
@@ -13351,7 +13381,7 @@
         <v>30</v>
       </c>
       <c r="K319" s="2">
-        <v>44471.416666666664</v>
+        <v>44430.791666666664</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
@@ -13554,10 +13584,10 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>508</v>
+        <v>214</v>
       </c>
       <c r="B326" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C326" t="s">
         <v>116</v>
@@ -13566,25 +13596,25 @@
         <v>85</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="F326" s="1">
-        <v>44464</v>
+        <v>44424</v>
       </c>
       <c r="G326" s="7">
-        <v>44464.71875</v>
+        <v>44424.25</v>
       </c>
       <c r="H326" s="7">
-        <v>44464.739583333336</v>
+        <v>44424.260416666664</v>
       </c>
       <c r="I326" s="6">
         <v>0</v>
       </c>
       <c r="J326" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K326" s="2">
-        <v>44470.5</v>
+        <v>44432.5</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
@@ -14256,10 +14286,10 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="B347" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C347" t="s">
         <v>116</v>
@@ -14268,25 +14298,25 @@
         <v>85</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="F347" s="1">
-        <v>44467</v>
+        <v>44450</v>
       </c>
       <c r="G347" s="7">
-        <v>44467.458333333336</v>
+        <v>44450.065972222219</v>
       </c>
       <c r="H347" s="7">
-        <v>44467.465277777781</v>
+        <v>44450.15625</v>
       </c>
       <c r="I347" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J347" s="6">
         <v>10</v>
       </c>
       <c r="K347" s="2">
-        <v>44468.75</v>
+        <v>44465.375</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -14323,10 +14353,10 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>520</v>
+        <v>402</v>
       </c>
       <c r="B349" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C349" t="s">
         <v>116</v>
@@ -14334,26 +14364,26 @@
       <c r="D349" t="s">
         <v>85</v>
       </c>
-      <c r="E349" s="3" t="s">
-        <v>151</v>
+      <c r="E349" s="3">
+        <v>1072</v>
       </c>
       <c r="F349" s="1">
-        <v>44467</v>
+        <v>44450</v>
       </c>
       <c r="G349" s="8">
-        <v>44467.45208333333</v>
+        <v>44450.065972222219</v>
       </c>
       <c r="H349" s="8">
-        <v>44467.493750000001</v>
+        <v>44450.114583333336</v>
       </c>
       <c r="I349" s="6">
         <v>1</v>
       </c>
       <c r="J349" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K349" s="2">
-        <v>44468.666666666664</v>
+        <v>44454.416666666664</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
@@ -14588,7 +14618,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>402</v>
+        <v>215</v>
       </c>
       <c r="B357" t="s">
         <v>740</v>
@@ -14600,25 +14630,25 @@
         <v>85</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="F357" s="1">
-        <v>44450</v>
+        <v>44425</v>
       </c>
       <c r="G357" s="8">
-        <v>44450.065972222219</v>
+        <v>44425.458333333336</v>
       </c>
       <c r="H357" s="8">
-        <v>44450.15625</v>
+        <v>44425.479166666664</v>
       </c>
       <c r="I357" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J357" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K357" s="2">
-        <v>44465.375</v>
+        <v>44431.833333333336</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
@@ -14751,7 +14781,10 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>466</v>
+        <v>301</v>
+      </c>
+      <c r="B362" t="s">
+        <v>740</v>
       </c>
       <c r="C362" t="s">
         <v>116</v>
@@ -14760,16 +14793,16 @@
         <v>85</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="F362" s="1">
-        <v>44455</v>
+        <v>44433</v>
       </c>
       <c r="G362" s="10">
-        <v>44455.458333333336</v>
+        <v>44433.770833333336</v>
       </c>
       <c r="H362" s="10">
-        <v>44455.479166666664</v>
+        <v>44433.791666666664</v>
       </c>
       <c r="I362" s="6">
         <v>0</v>
@@ -14778,7 +14811,7 @@
         <v>30</v>
       </c>
       <c r="K362" s="2">
-        <v>44464.75</v>
+        <v>44442.416666666664</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
@@ -15112,45 +15145,45 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>470</v>
+        <v>216</v>
       </c>
       <c r="B373" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C373" t="s">
         <v>116</v>
       </c>
       <c r="D373" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F373" s="1">
-        <v>44461</v>
+        <v>44425</v>
       </c>
       <c r="G373" s="10">
-        <v>44461.306250000001</v>
+        <v>44425.847222222219</v>
       </c>
       <c r="H373" s="10">
-        <v>44461.3125</v>
+        <v>44425.857638888891</v>
       </c>
       <c r="I373" s="6">
         <v>0</v>
       </c>
       <c r="J373" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K373" s="2">
-        <v>44463.75</v>
+        <v>44431.583333333336</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>470</v>
+        <v>17</v>
       </c>
       <c r="B374" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C374" t="s">
         <v>116</v>
@@ -15159,33 +15192,33 @@
         <v>85</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="F374" s="1">
-        <v>44461</v>
+        <v>44426</v>
       </c>
       <c r="G374" s="10">
-        <v>44461.342361111114</v>
+        <v>44426.729166666664</v>
       </c>
       <c r="H374" s="10">
-        <v>44461.349305555559</v>
+        <v>44426.739583333336</v>
       </c>
       <c r="I374" s="6">
         <v>0</v>
       </c>
       <c r="J374" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K374" s="2">
-        <v>44463.75</v>
+        <v>44430.375</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>470</v>
+        <v>572</v>
       </c>
       <c r="B375" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C375" t="s">
         <v>116</v>
@@ -15193,26 +15226,26 @@
       <c r="D375" t="s">
         <v>85</v>
       </c>
-      <c r="E375" s="3" t="s">
-        <v>86</v>
+      <c r="E375" s="3">
+        <v>614</v>
       </c>
       <c r="F375" s="1">
-        <v>44462</v>
+        <v>44476</v>
       </c>
       <c r="G375" s="10">
-        <v>44462.436805555553</v>
+        <v>44476.51458333333</v>
       </c>
       <c r="H375" s="10">
-        <v>44462.443749999999</v>
+        <v>44476.518055555556</v>
       </c>
       <c r="I375" s="6">
         <v>0</v>
       </c>
       <c r="J375" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K375" s="2">
-        <v>44463.75</v>
+        <v>44479.666666666664</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
@@ -15587,7 +15620,10 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>475</v>
+        <v>421</v>
+      </c>
+      <c r="B387" t="s">
+        <v>740</v>
       </c>
       <c r="C387" t="s">
         <v>116</v>
@@ -15595,26 +15631,26 @@
       <c r="D387" t="s">
         <v>85</v>
       </c>
-      <c r="E387" s="3" t="s">
-        <v>89</v>
+      <c r="E387" s="3">
+        <v>1060</v>
       </c>
       <c r="F387" s="1">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="G387" s="11">
-        <v>44452.875</v>
+        <v>44453.416666666664</v>
       </c>
       <c r="H387" s="11">
-        <v>44452.9375</v>
+        <v>44453.4375</v>
       </c>
       <c r="I387" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="6">
         <v>30</v>
       </c>
       <c r="K387" s="2">
-        <v>44462.5</v>
+        <v>44459.416666666664</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -15878,10 +15914,10 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>481</v>
+        <v>325</v>
       </c>
       <c r="B396" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C396" t="s">
         <v>116</v>
@@ -15890,25 +15926,25 @@
         <v>85</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F396" s="1">
-        <v>44457</v>
+        <v>44433</v>
       </c>
       <c r="G396" s="11">
-        <v>44457.34652777778</v>
+        <v>44433.770833333336</v>
       </c>
       <c r="H396" s="11">
-        <v>44457.354166666664</v>
+        <v>44433.791666666664</v>
       </c>
       <c r="I396" s="6">
         <v>0</v>
       </c>
       <c r="J396" s="6">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K396" s="2">
-        <v>44461.666666666664</v>
+        <v>44442.5</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
@@ -16327,7 +16363,10 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>463</v>
+        <v>312</v>
+      </c>
+      <c r="B409" t="s">
+        <v>740</v>
       </c>
       <c r="C409" t="s">
         <v>116</v>
@@ -16335,26 +16374,26 @@
       <c r="D409" t="s">
         <v>85</v>
       </c>
-      <c r="E409" s="3" t="s">
-        <v>89</v>
+      <c r="E409" s="3">
+        <v>2024</v>
       </c>
       <c r="F409" s="1">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="G409" s="11">
-        <v>44453.010416666664</v>
+        <v>44435.999305555553</v>
       </c>
       <c r="H409" s="11">
-        <v>44453.020833333336</v>
-      </c>
-      <c r="I409" s="5">
+        <v>44436.010416666664</v>
+      </c>
+      <c r="I409" s="6">
         <v>0</v>
       </c>
       <c r="J409" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K409" s="2">
-        <v>44459.583333333336</v>
+        <v>44448.416666666664</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
@@ -16394,7 +16433,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>421</v>
+        <v>604</v>
       </c>
       <c r="B411" t="s">
         <v>740</v>
@@ -16402,26 +16441,29 @@
       <c r="C411" t="s">
         <v>116</v>
       </c>
+      <c r="D411" t="s">
+        <v>85</v>
+      </c>
       <c r="E411" s="3">
-        <v>1060</v>
+        <v>2104</v>
       </c>
       <c r="F411" s="1">
-        <v>44453</v>
+        <v>44473</v>
       </c>
       <c r="G411" s="11">
-        <v>44453.416666666664</v>
+        <v>44473.833333333336</v>
       </c>
       <c r="H411" s="11">
-        <v>44453.4375</v>
+        <v>44473.84375</v>
       </c>
       <c r="I411" s="6">
         <v>0</v>
       </c>
       <c r="J411" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K411" s="2">
-        <v>44459.416666666664</v>
+        <v>44478.833333333336</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -16434,6 +16476,9 @@
       <c r="C412" t="s">
         <v>81</v>
       </c>
+      <c r="D412" t="s">
+        <v>85</v>
+      </c>
       <c r="E412" s="3">
         <v>2102</v>
       </c>
@@ -16463,6 +16508,9 @@
       <c r="C413" t="s">
         <v>81</v>
       </c>
+      <c r="D413" t="s">
+        <v>85</v>
+      </c>
       <c r="E413" s="3">
         <v>2023</v>
       </c>
@@ -16487,34 +16535,37 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>418</v>
+        <v>604</v>
       </c>
       <c r="B414" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C414" t="s">
         <v>116</v>
       </c>
+      <c r="D414" t="s">
+        <v>85</v>
+      </c>
       <c r="E414" s="3">
-        <v>2022</v>
+        <v>2104</v>
       </c>
       <c r="F414" s="1">
-        <v>44454</v>
+        <v>44473</v>
       </c>
       <c r="G414" s="11">
-        <v>44454.347222222219</v>
+        <v>44473.520833333336</v>
       </c>
       <c r="H414" s="11">
-        <v>44454.708333333336</v>
+        <v>44473.572916666664</v>
       </c>
       <c r="I414" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J414" s="6">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K414" s="2">
-        <v>44459.416666666664</v>
+        <v>44477.75</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
@@ -16556,6 +16607,9 @@
       <c r="C416" t="s">
         <v>81</v>
       </c>
+      <c r="D416" t="s">
+        <v>85</v>
+      </c>
       <c r="E416" s="3">
         <v>1060</v>
       </c>
@@ -16580,34 +16634,37 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>418</v>
+        <v>604</v>
       </c>
       <c r="B417" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C417" t="s">
         <v>116</v>
       </c>
+      <c r="D417" t="s">
+        <v>85</v>
+      </c>
       <c r="E417" s="3">
-        <v>2022</v>
+        <v>2104</v>
       </c>
       <c r="F417" s="1">
-        <v>44455</v>
+        <v>44473</v>
       </c>
       <c r="G417" s="11">
-        <v>44455.326388888891</v>
+        <v>44473.520833333336</v>
       </c>
       <c r="H417" s="11">
-        <v>44455.708333333336</v>
+        <v>44473.572916666664</v>
       </c>
       <c r="I417" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J417" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K417" s="2">
-        <v>44459.416666666664</v>
+        <v>44480.333333333336</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
@@ -16649,6 +16706,9 @@
       <c r="C419" t="s">
         <v>81</v>
       </c>
+      <c r="D419" t="s">
+        <v>85</v>
+      </c>
       <c r="E419" s="3">
         <v>2016</v>
       </c>
@@ -16681,6 +16741,9 @@
       <c r="C420" t="s">
         <v>81</v>
       </c>
+      <c r="D420" t="s">
+        <v>85</v>
+      </c>
       <c r="E420" s="3">
         <v>2022</v>
       </c>
@@ -16713,6 +16776,9 @@
       <c r="C421" t="s">
         <v>81</v>
       </c>
+      <c r="D421" t="s">
+        <v>85</v>
+      </c>
       <c r="E421" s="3">
         <v>2022</v>
       </c>
@@ -16742,6 +16808,9 @@
       <c r="C422" t="s">
         <v>166</v>
       </c>
+      <c r="D422" t="s">
+        <v>85</v>
+      </c>
       <c r="E422" s="3">
         <v>2022</v>
       </c>
@@ -16774,6 +16843,9 @@
       <c r="C423" t="s">
         <v>81</v>
       </c>
+      <c r="D423" t="s">
+        <v>85</v>
+      </c>
       <c r="E423" s="3">
         <v>2013</v>
       </c>
@@ -16806,6 +16878,9 @@
       <c r="C424" t="s">
         <v>81</v>
       </c>
+      <c r="D424" t="s">
+        <v>85</v>
+      </c>
       <c r="E424" s="3">
         <v>2013</v>
       </c>
@@ -16835,6 +16910,9 @@
       <c r="C425" t="s">
         <v>81</v>
       </c>
+      <c r="D425" t="s">
+        <v>85</v>
+      </c>
       <c r="E425" s="3">
         <v>2102</v>
       </c>
@@ -16867,6 +16945,9 @@
       <c r="C426" t="s">
         <v>81</v>
       </c>
+      <c r="D426" t="s">
+        <v>85</v>
+      </c>
       <c r="E426" s="3">
         <v>2022</v>
       </c>
@@ -16891,37 +16972,34 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>426</v>
-      </c>
-      <c r="B427" t="s">
-        <v>743</v>
+        <v>644</v>
       </c>
       <c r="C427" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D427" t="s">
-        <v>453</v>
-      </c>
-      <c r="E427" s="3" t="s">
-        <v>454</v>
+        <v>569</v>
+      </c>
+      <c r="E427" s="3">
+        <v>3225</v>
       </c>
       <c r="F427" s="1">
-        <v>44450</v>
+        <v>44472</v>
       </c>
       <c r="G427" s="11">
-        <v>44450.423611111109</v>
+        <v>44472.291666666664</v>
       </c>
       <c r="H427" s="11">
-        <v>44450.479166666664</v>
+        <v>44472.875</v>
       </c>
       <c r="I427" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J427" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K427" s="2">
-        <v>44457.416666666664</v>
+        <v>44477.75</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
@@ -16931,6 +17009,9 @@
       <c r="C428" t="s">
         <v>81</v>
       </c>
+      <c r="D428" t="s">
+        <v>85</v>
+      </c>
       <c r="E428" s="3">
         <v>2022</v>
       </c>
@@ -16955,37 +17036,34 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>426</v>
-      </c>
-      <c r="B429" t="s">
-        <v>743</v>
+        <v>438</v>
       </c>
       <c r="C429" t="s">
         <v>116</v>
       </c>
       <c r="D429" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F429" s="1">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="G429" s="11">
-        <v>44453.413194444445</v>
+        <v>44454.368055555555</v>
       </c>
       <c r="H429" s="11">
-        <v>44453.46875</v>
+        <v>44454.416666666664</v>
       </c>
       <c r="I429" s="6">
         <v>1</v>
       </c>
       <c r="J429" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K429" s="2">
-        <v>44457.416666666664</v>
+        <v>44456.5</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
@@ -16995,6 +17073,9 @@
       <c r="C430" t="s">
         <v>166</v>
       </c>
+      <c r="D430" t="s">
+        <v>85</v>
+      </c>
       <c r="E430" s="3">
         <v>2104</v>
       </c>
@@ -17024,6 +17105,9 @@
       <c r="C431" t="s">
         <v>23</v>
       </c>
+      <c r="D431" t="s">
+        <v>85</v>
+      </c>
       <c r="E431" s="3">
         <v>2104</v>
       </c>
@@ -17048,37 +17132,37 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>429</v>
+        <v>665</v>
       </c>
       <c r="B432" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C432" t="s">
         <v>116</v>
       </c>
       <c r="D432" t="s">
-        <v>448</v>
-      </c>
-      <c r="E432" s="3" t="s">
-        <v>455</v>
+        <v>85</v>
+      </c>
+      <c r="E432" s="3">
+        <v>2022</v>
       </c>
       <c r="F432" s="1">
-        <v>44450</v>
+        <v>44467</v>
       </c>
       <c r="G432" s="11">
-        <v>44450.322916666664</v>
+        <v>44467.416666666664</v>
       </c>
       <c r="H432" s="11">
-        <v>44450.385416666664</v>
+        <v>44467.447916666664</v>
       </c>
       <c r="I432" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J432" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K432" s="2">
-        <v>44456.75</v>
+        <v>44477.583333333336</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
@@ -17091,6 +17175,9 @@
       <c r="C433" t="s">
         <v>81</v>
       </c>
+      <c r="D433" t="s">
+        <v>85</v>
+      </c>
       <c r="E433" s="3">
         <v>2022</v>
       </c>
@@ -17120,6 +17207,9 @@
       <c r="C434" t="s">
         <v>81</v>
       </c>
+      <c r="D434" t="s">
+        <v>85</v>
+      </c>
       <c r="E434" s="3">
         <v>2023</v>
       </c>
@@ -17144,34 +17234,37 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>431</v>
+        <v>665</v>
+      </c>
+      <c r="B435" t="s">
+        <v>743</v>
       </c>
       <c r="C435" t="s">
         <v>116</v>
       </c>
       <c r="D435" t="s">
-        <v>450</v>
-      </c>
-      <c r="E435" s="3" t="s">
-        <v>457</v>
+        <v>85</v>
+      </c>
+      <c r="E435" s="3">
+        <v>2022</v>
       </c>
       <c r="F435" s="1">
-        <v>44448</v>
+        <v>44468</v>
       </c>
       <c r="G435" s="11">
-        <v>44448.465277777781</v>
+        <v>44468.416666666664</v>
       </c>
       <c r="H435" s="11">
-        <v>44448.520833333336</v>
+        <v>44468.447916666664</v>
       </c>
       <c r="I435" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J435" s="6">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K435" s="2">
-        <v>44456.583333333336</v>
+        <v>44477.583333333336</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
@@ -17184,6 +17277,9 @@
       <c r="C436" t="s">
         <v>81</v>
       </c>
+      <c r="D436" t="s">
+        <v>85</v>
+      </c>
       <c r="E436" s="3">
         <v>2120</v>
       </c>
@@ -17208,7 +17304,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>430</v>
+        <v>665</v>
       </c>
       <c r="B437" t="s">
         <v>743</v>
@@ -17217,28 +17313,28 @@
         <v>116</v>
       </c>
       <c r="D437" t="s">
-        <v>449</v>
-      </c>
-      <c r="E437" s="3" t="s">
-        <v>456</v>
+        <v>85</v>
+      </c>
+      <c r="E437" s="3">
+        <v>2022</v>
       </c>
       <c r="F437" s="1">
-        <v>44449</v>
+        <v>44469</v>
       </c>
       <c r="G437" s="11">
-        <v>44449.395833333336</v>
+        <v>44469.416666666664</v>
       </c>
       <c r="H437" s="11">
-        <v>44449.444444444445</v>
+        <v>44469.447916666664</v>
       </c>
       <c r="I437" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J437" s="6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K437" s="2">
-        <v>44456.583333333336</v>
+        <v>44477.583333333336</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
@@ -17251,6 +17347,9 @@
       <c r="C438" t="s">
         <v>81</v>
       </c>
+      <c r="D438" t="s">
+        <v>85</v>
+      </c>
       <c r="E438" s="3">
         <v>2022</v>
       </c>
@@ -17283,6 +17382,9 @@
       <c r="C439" t="s">
         <v>81</v>
       </c>
+      <c r="D439" t="s">
+        <v>85</v>
+      </c>
       <c r="E439" s="3">
         <v>2019</v>
       </c>
@@ -17315,6 +17417,9 @@
       <c r="C440" t="s">
         <v>81</v>
       </c>
+      <c r="D440" t="s">
+        <v>85</v>
+      </c>
       <c r="E440" s="3">
         <v>2019</v>
       </c>
@@ -17403,7 +17508,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>435</v>
+        <v>541</v>
       </c>
       <c r="B443" t="s">
         <v>743</v>
@@ -17412,60 +17517,63 @@
         <v>116</v>
       </c>
       <c r="D443" t="s">
-        <v>451</v>
-      </c>
-      <c r="E443" s="3" t="s">
-        <v>458</v>
+        <v>85</v>
+      </c>
+      <c r="E443" s="3">
+        <v>632</v>
       </c>
       <c r="F443" s="1">
-        <v>44450</v>
+        <v>44466</v>
       </c>
       <c r="G443" s="11">
-        <v>44450.232638888891</v>
+        <v>44466.678472222222</v>
       </c>
       <c r="H443" s="11">
-        <v>44450.274305555555</v>
+        <v>44466.6875</v>
       </c>
       <c r="I443" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J443" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K443" s="2">
-        <v>44456.5</v>
+        <v>44473.333333333336</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>438</v>
+        <v>541</v>
+      </c>
+      <c r="B444" t="s">
+        <v>743</v>
       </c>
       <c r="C444" t="s">
         <v>116</v>
       </c>
       <c r="D444" t="s">
-        <v>449</v>
-      </c>
-      <c r="E444" s="3" t="s">
-        <v>461</v>
+        <v>85</v>
+      </c>
+      <c r="E444" s="3">
+        <v>632</v>
       </c>
       <c r="F444" s="1">
-        <v>44454</v>
+        <v>44467</v>
       </c>
       <c r="G444" s="11">
-        <v>44454.368055555555</v>
+        <v>44467.948611111111</v>
       </c>
       <c r="H444" s="11">
-        <v>44454.416666666664</v>
+        <v>44467.958333333336</v>
       </c>
       <c r="I444" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K444" s="2">
-        <v>44456.5</v>
+        <v>44473.333333333336</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
@@ -17475,6 +17583,9 @@
       <c r="C445" t="s">
         <v>81</v>
       </c>
+      <c r="D445" t="s">
+        <v>85</v>
+      </c>
       <c r="E445" s="3">
         <v>2023</v>
       </c>
@@ -17504,6 +17615,9 @@
       <c r="C446" t="s">
         <v>81</v>
       </c>
+      <c r="D446" t="s">
+        <v>85</v>
+      </c>
       <c r="E446" s="3">
         <v>2023</v>
       </c>
@@ -17533,6 +17647,9 @@
       <c r="C447" t="s">
         <v>81</v>
       </c>
+      <c r="D447" t="s">
+        <v>85</v>
+      </c>
       <c r="E447" s="3">
         <v>2023</v>
       </c>
@@ -17597,6 +17714,9 @@
       <c r="C449" t="s">
         <v>81</v>
       </c>
+      <c r="D449" t="s">
+        <v>85</v>
+      </c>
       <c r="E449" s="3">
         <v>2023</v>
       </c>
@@ -17693,6 +17813,9 @@
       <c r="C452" t="s">
         <v>81</v>
       </c>
+      <c r="D452" t="s">
+        <v>85</v>
+      </c>
       <c r="E452" s="3">
         <v>2023</v>
       </c>
@@ -17722,6 +17845,9 @@
       <c r="C453" t="s">
         <v>81</v>
       </c>
+      <c r="D453" t="s">
+        <v>85</v>
+      </c>
       <c r="E453" s="3">
         <v>2022</v>
       </c>
@@ -17751,6 +17877,9 @@
       <c r="C454" t="s">
         <v>81</v>
       </c>
+      <c r="D454" t="s">
+        <v>85</v>
+      </c>
       <c r="E454" s="3">
         <v>2112</v>
       </c>
@@ -17775,7 +17904,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>443</v>
+        <v>541</v>
       </c>
       <c r="B455" t="s">
         <v>743</v>
@@ -17783,26 +17912,29 @@
       <c r="C455" t="s">
         <v>116</v>
       </c>
+      <c r="D455" t="s">
+        <v>85</v>
+      </c>
       <c r="E455" s="3">
-        <v>2023</v>
+        <v>632</v>
       </c>
       <c r="F455" s="1">
-        <v>44452</v>
+        <v>44468</v>
       </c>
       <c r="G455" s="11">
-        <v>44452.322916666664</v>
+        <v>44468.968055555553</v>
       </c>
       <c r="H455" s="11">
-        <v>44452.333333333336</v>
+        <v>44468.979166666664</v>
       </c>
       <c r="I455" s="6">
         <v>0</v>
       </c>
       <c r="J455" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K455" s="2">
-        <v>44455.75</v>
+        <v>44473.333333333336</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
@@ -17812,6 +17944,9 @@
       <c r="C456" t="s">
         <v>81</v>
       </c>
+      <c r="D456" t="s">
+        <v>85</v>
+      </c>
       <c r="E456" s="3">
         <v>2022</v>
       </c>
@@ -18118,7 +18253,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>397</v>
+        <v>541</v>
       </c>
       <c r="B466" t="s">
         <v>743</v>
@@ -18130,25 +18265,25 @@
         <v>85</v>
       </c>
       <c r="E466" s="3">
-        <v>2104</v>
+        <v>632</v>
       </c>
       <c r="F466" s="1">
-        <v>44446</v>
+        <v>44469</v>
       </c>
       <c r="G466" s="11">
-        <v>44446.625</v>
+        <v>44469.945833333331</v>
       </c>
       <c r="H466" s="11">
-        <v>44446.645833333336</v>
+        <v>44469.956250000003</v>
       </c>
       <c r="I466" s="6">
         <v>0</v>
       </c>
       <c r="J466" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K466" s="2">
-        <v>44454.5</v>
+        <v>44473.333333333336</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
@@ -18185,7 +18320,10 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>399</v>
+        <v>541</v>
+      </c>
+      <c r="B468" t="s">
+        <v>743</v>
       </c>
       <c r="C468" t="s">
         <v>116</v>
@@ -18194,16 +18332,16 @@
         <v>85</v>
       </c>
       <c r="E468" s="3">
-        <v>2023</v>
+        <v>632</v>
       </c>
       <c r="F468" s="1">
-        <v>44450</v>
+        <v>44470</v>
       </c>
       <c r="G468" s="11">
-        <v>44450.208333333336</v>
+        <v>44470.5</v>
       </c>
       <c r="H468" s="11">
-        <v>44450.21875</v>
+        <v>44470.510416666664</v>
       </c>
       <c r="I468" s="6">
         <v>0</v>
@@ -18212,7 +18350,7 @@
         <v>15</v>
       </c>
       <c r="K468" s="2">
-        <v>44454.416666666664</v>
+        <v>44473.333333333336</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
@@ -18249,10 +18387,10 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>402</v>
+        <v>541</v>
       </c>
       <c r="B470" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C470" t="s">
         <v>116</v>
@@ -18261,25 +18399,25 @@
         <v>85</v>
       </c>
       <c r="E470" s="3">
-        <v>1072</v>
+        <v>632</v>
       </c>
       <c r="F470" s="1">
-        <v>44450</v>
+        <v>44465</v>
       </c>
       <c r="G470" s="11">
-        <v>44450.065972222219</v>
+        <v>44465.6875</v>
       </c>
       <c r="H470" s="11">
-        <v>44450.114583333336</v>
+        <v>44465.708333333336</v>
       </c>
       <c r="I470" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J470" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K470" s="2">
-        <v>44454.416666666664</v>
+        <v>44472.875</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
@@ -20336,7 +20474,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>341</v>
+        <v>508</v>
       </c>
       <c r="B533" t="s">
         <v>743</v>
@@ -20347,17 +20485,17 @@
       <c r="D533" t="s">
         <v>85</v>
       </c>
-      <c r="E533" s="3">
-        <v>2102</v>
+      <c r="E533" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F533" s="1">
-        <v>44446</v>
+        <v>44464</v>
       </c>
       <c r="G533" s="12">
-        <v>44446.5625</v>
+        <v>44464.71875</v>
       </c>
       <c r="H533" s="12">
-        <v>44446.583333333336</v>
+        <v>44464.739583333336</v>
       </c>
       <c r="I533" s="6">
         <v>0</v>
@@ -20366,7 +20504,7 @@
         <v>30</v>
       </c>
       <c r="K533" s="2">
-        <v>44449.75</v>
+        <v>44470.5</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
@@ -20438,39 +20576,45 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>362</v>
+        <v>435</v>
+      </c>
+      <c r="B536" t="s">
+        <v>743</v>
       </c>
       <c r="C536" t="s">
         <v>116</v>
       </c>
       <c r="D536" t="s">
-        <v>85</v>
-      </c>
-      <c r="E536" s="3">
-        <v>1011</v>
+        <v>451</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="F536" s="1">
-        <v>44439</v>
+        <v>44450</v>
       </c>
       <c r="G536" s="12">
-        <v>44439.34375</v>
+        <v>44450.232638888891</v>
       </c>
       <c r="H536" s="12">
-        <v>44439.364583333336</v>
+        <v>44450.274305555555</v>
       </c>
       <c r="I536" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J536" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K536" s="2">
-        <v>44449.583333333336</v>
+        <v>44456.5</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>362</v>
+        <v>397</v>
+      </c>
+      <c r="B537" t="s">
+        <v>743</v>
       </c>
       <c r="C537" t="s">
         <v>116</v>
@@ -20479,25 +20623,25 @@
         <v>85</v>
       </c>
       <c r="E537" s="3">
-        <v>1011</v>
+        <v>2104</v>
       </c>
       <c r="F537" s="1">
-        <v>44441</v>
+        <v>44446</v>
       </c>
       <c r="G537" s="12">
-        <v>44441.236111111109</v>
+        <v>44446.625</v>
       </c>
       <c r="H537" s="12">
-        <v>44441.25</v>
+        <v>44446.645833333336</v>
       </c>
       <c r="I537" s="6">
         <v>0</v>
       </c>
       <c r="J537" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K537" s="2">
-        <v>44449.583333333336</v>
+        <v>44454.5</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
@@ -20901,37 +21045,37 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="B550" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C550" t="s">
         <v>116</v>
       </c>
       <c r="D550" t="s">
-        <v>85</v>
-      </c>
-      <c r="E550" s="3">
-        <v>2024</v>
+        <v>453</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="F550" s="1">
-        <v>44435</v>
+        <v>44450</v>
       </c>
       <c r="G550" s="12">
-        <v>44435.999305555553</v>
+        <v>44450.423611111109</v>
       </c>
       <c r="H550" s="12">
-        <v>44436.010416666664</v>
+        <v>44450.479166666664</v>
       </c>
       <c r="I550" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J550" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K550" s="2">
-        <v>44448.416666666664</v>
+        <v>44457.416666666664</v>
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
@@ -21134,34 +21278,37 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>374</v>
+        <v>426</v>
+      </c>
+      <c r="B557" t="s">
+        <v>743</v>
       </c>
       <c r="C557" t="s">
         <v>116</v>
       </c>
       <c r="D557" t="s">
-        <v>85</v>
-      </c>
-      <c r="E557" s="3">
-        <v>2022</v>
+        <v>453</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="F557" s="1">
-        <v>44444</v>
+        <v>44453</v>
       </c>
       <c r="G557" s="12">
-        <v>44444.322916666664</v>
+        <v>44453.413194444445</v>
       </c>
       <c r="H557" s="12">
-        <v>44444.368055555555</v>
+        <v>44453.46875</v>
       </c>
       <c r="I557" s="6">
         <v>1</v>
       </c>
       <c r="J557" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K557" s="2">
-        <v>44447.333333333336</v>
+        <v>44457.416666666664</v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
@@ -21982,7 +22129,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="B582" t="s">
         <v>743</v>
@@ -21994,25 +22141,25 @@
         <v>85</v>
       </c>
       <c r="E582" s="3" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="F582" s="1">
-        <v>44443</v>
+        <v>44424</v>
       </c>
       <c r="G582" s="12">
-        <v>44443.083333333336</v>
+        <v>44424.5</v>
       </c>
       <c r="H582" s="12">
-        <v>44443.09375</v>
+        <v>44424.506944444445</v>
       </c>
       <c r="I582" s="6">
         <v>0</v>
       </c>
       <c r="J582" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K582" s="2">
-        <v>44446.5</v>
+        <v>44430.375</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
@@ -23575,37 +23722,37 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="B630" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C630" t="s">
         <v>116</v>
       </c>
       <c r="D630" t="s">
-        <v>85</v>
+        <v>449</v>
       </c>
       <c r="E630" s="3" t="s">
-        <v>111</v>
+        <v>456</v>
       </c>
       <c r="F630" s="1">
-        <v>44433</v>
+        <v>44449</v>
       </c>
       <c r="G630" s="12">
-        <v>44433.770833333336</v>
+        <v>44449.395833333336</v>
       </c>
       <c r="H630" s="12">
-        <v>44433.791666666664</v>
+        <v>44449.444444444445</v>
       </c>
       <c r="I630" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J630" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K630" s="2">
-        <v>44442.5</v>
+        <v>44456.583333333336</v>
       </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
@@ -23709,10 +23856,10 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>301</v>
+        <v>574</v>
       </c>
       <c r="B634" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C634" t="s">
         <v>116</v>
@@ -23720,26 +23867,26 @@
       <c r="D634" t="s">
         <v>85</v>
       </c>
-      <c r="E634" s="3" t="s">
-        <v>111</v>
+      <c r="E634" s="3">
+        <v>2113</v>
       </c>
       <c r="F634" s="1">
-        <v>44433</v>
+        <v>44473</v>
       </c>
       <c r="G634" s="12">
-        <v>44433.770833333336</v>
+        <v>44473.395138888889</v>
       </c>
       <c r="H634" s="12">
-        <v>44433.791666666664</v>
+        <v>44473.402083333334</v>
       </c>
       <c r="I634" s="6">
         <v>0</v>
       </c>
       <c r="J634" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K634" s="2">
-        <v>44442.416666666664</v>
+        <v>44479.666666666664</v>
       </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
@@ -24146,7 +24293,10 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>311</v>
+        <v>574</v>
+      </c>
+      <c r="B647" t="s">
+        <v>743</v>
       </c>
       <c r="C647" t="s">
         <v>116</v>
@@ -24155,25 +24305,25 @@
         <v>85</v>
       </c>
       <c r="E647" s="3">
-        <v>2022</v>
+        <v>2113</v>
       </c>
       <c r="F647" s="1">
-        <v>44436</v>
+        <v>44474</v>
       </c>
       <c r="G647" s="12">
-        <v>44436.484722222223</v>
+        <v>44474.456250000003</v>
       </c>
       <c r="H647" s="12">
-        <v>44436.489583333336</v>
+        <v>44474.463194444441</v>
       </c>
       <c r="I647" s="6">
         <v>0</v>
       </c>
       <c r="J647" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K647" s="2">
-        <v>44441.75</v>
+        <v>44479.666666666664</v>
       </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
@@ -27317,34 +27467,37 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>33</v>
+        <v>648</v>
+      </c>
+      <c r="B743" t="s">
+        <v>743</v>
       </c>
       <c r="C743" t="s">
         <v>116</v>
       </c>
       <c r="D743" t="s">
-        <v>85</v>
-      </c>
-      <c r="E743" s="3" t="s">
-        <v>111</v>
+        <v>736</v>
+      </c>
+      <c r="E743" s="3">
+        <v>112</v>
       </c>
       <c r="F743" s="1">
-        <v>44427</v>
+        <v>44473</v>
       </c>
       <c r="G743" s="12">
-        <v>44427.958333333336</v>
+        <v>44473.65625</v>
       </c>
       <c r="H743" s="12">
-        <v>44427.999988425923</v>
+        <v>44473.697916666664</v>
       </c>
       <c r="I743" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J743" s="6">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K743" s="2">
-        <v>44434.833333333336</v>
+        <v>44477.75</v>
       </c>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
@@ -27815,37 +27968,37 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="B758" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C758" t="s">
         <v>116</v>
       </c>
       <c r="D758" t="s">
-        <v>117</v>
-      </c>
-      <c r="E758" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
+      </c>
+      <c r="E758" s="3">
+        <v>2102</v>
       </c>
       <c r="F758" s="1">
-        <v>44424</v>
+        <v>44469</v>
       </c>
       <c r="G758" s="12">
-        <v>44424.625</v>
+        <v>44469.484722222223</v>
       </c>
       <c r="H758" s="12">
-        <v>44424.666666666664</v>
+        <v>44469.53125</v>
       </c>
       <c r="I758" s="6">
         <v>1</v>
       </c>
       <c r="J758" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K758" s="2">
-        <v>44433.75</v>
+        <v>44476.75</v>
       </c>
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
@@ -29477,10 +29630,10 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c r="B809" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C809" t="s">
         <v>116</v>
@@ -29488,26 +29641,26 @@
       <c r="D809" t="s">
         <v>85</v>
       </c>
-      <c r="E809" s="3" t="s">
-        <v>206</v>
+      <c r="E809" s="3">
+        <v>2102</v>
       </c>
       <c r="F809" s="1">
-        <v>44424</v>
+        <v>44446</v>
       </c>
       <c r="G809" s="12">
-        <v>44424.25</v>
+        <v>44446.5625</v>
       </c>
       <c r="H809" s="12">
-        <v>44424.260416666664</v>
+        <v>44446.583333333336</v>
       </c>
       <c r="I809" s="6">
         <v>0</v>
       </c>
       <c r="J809" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K809" s="2">
-        <v>44432.5</v>
+        <v>44449.75</v>
       </c>
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
@@ -30215,10 +30368,10 @@
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="B832" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C832" t="s">
         <v>116</v>
@@ -30227,25 +30380,25 @@
         <v>85</v>
       </c>
       <c r="E832" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F832" s="1">
-        <v>44425</v>
+        <v>44443</v>
       </c>
       <c r="G832" s="12">
-        <v>44425.458333333336</v>
+        <v>44443.083333333336</v>
       </c>
       <c r="H832" s="12">
-        <v>44425.479166666664</v>
+        <v>44443.09375</v>
       </c>
       <c r="I832" s="6">
         <v>0</v>
       </c>
       <c r="J832" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K832" s="2">
-        <v>44431.833333333336</v>
+        <v>44446.5</v>
       </c>
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.25">
@@ -30314,7 +30467,7 @@
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>291</v>
+        <v>594</v>
       </c>
       <c r="B835" t="s">
         <v>743</v>
@@ -30323,28 +30476,28 @@
         <v>116</v>
       </c>
       <c r="D835" t="s">
-        <v>85</v>
-      </c>
-      <c r="E835" s="3" t="s">
-        <v>86</v>
+        <v>452</v>
+      </c>
+      <c r="E835" s="3">
+        <v>3503</v>
       </c>
       <c r="F835" s="1">
-        <v>44425</v>
+        <v>44477</v>
       </c>
       <c r="G835" s="12">
-        <v>44425.333333333336</v>
+        <v>44477.260416666664</v>
       </c>
       <c r="H835" s="12">
-        <v>44425.34375</v>
+        <v>44477.305555555555</v>
       </c>
       <c r="I835" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J835" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K835" s="2">
-        <v>44431.833333333336</v>
+        <v>44479.458333333336</v>
       </c>
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.25">
@@ -30687,37 +30840,37 @@
     </row>
     <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>216</v>
+        <v>745</v>
       </c>
       <c r="B846" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C846" t="s">
         <v>116</v>
       </c>
       <c r="D846" t="s">
-        <v>87</v>
-      </c>
-      <c r="E846" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="E846" s="3">
+        <v>2013</v>
       </c>
       <c r="F846" s="1">
-        <v>44425</v>
+        <v>44468</v>
       </c>
       <c r="G846" s="12">
-        <v>44425.847222222219</v>
+        <v>44468.736111111109</v>
       </c>
       <c r="H846" s="12">
-        <v>44425.857638888891</v>
+        <v>44468.756944444445</v>
       </c>
       <c r="I846" s="6">
         <v>0</v>
       </c>
       <c r="J846" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K846" s="2">
-        <v>44431.583333333336</v>
+        <v>44481.416666666664</v>
       </c>
     </row>
     <row r="847" spans="1:11" x14ac:dyDescent="0.25">
@@ -31218,10 +31371,10 @@
     </row>
     <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>213</v>
+        <v>500</v>
       </c>
       <c r="B862" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C862" t="s">
         <v>116</v>
@@ -31230,16 +31383,16 @@
         <v>85</v>
       </c>
       <c r="E862" s="3" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F862" s="1">
-        <v>44425</v>
+        <v>44468</v>
       </c>
       <c r="G862" s="12">
-        <v>44425.9375</v>
+        <v>44468.736111111109</v>
       </c>
       <c r="H862" s="12">
-        <v>44425.958333333336</v>
+        <v>44468.756944444445</v>
       </c>
       <c r="I862" s="6">
         <v>0</v>
@@ -31248,7 +31401,7 @@
         <v>30</v>
       </c>
       <c r="K862" s="2">
-        <v>44430.791666666664</v>
+        <v>44471.416666666664</v>
       </c>
     </row>
     <row r="863" spans="1:11" x14ac:dyDescent="0.25">
@@ -32067,7 +32220,7 @@
     </row>
     <row r="888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B888" t="s">
         <v>743</v>
@@ -32079,25 +32232,25 @@
         <v>85</v>
       </c>
       <c r="E888" s="3" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="F888" s="1">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="G888" s="12">
-        <v>44424.5</v>
+        <v>44425.333333333336</v>
       </c>
       <c r="H888" s="12">
-        <v>44424.506944444445</v>
+        <v>44425.34375</v>
       </c>
       <c r="I888" s="6">
         <v>0</v>
       </c>
       <c r="J888" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K888" s="2">
-        <v>44430.375</v>
+        <v>44431.833333333336</v>
       </c>
     </row>
     <row r="889" spans="1:11" x14ac:dyDescent="0.25">
@@ -32700,10 +32853,10 @@
     </row>
     <row r="908" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>17</v>
+        <v>557</v>
       </c>
       <c r="B908" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C908" t="s">
         <v>116</v>
@@ -32711,26 +32864,26 @@
       <c r="D908" t="s">
         <v>85</v>
       </c>
-      <c r="E908" s="3" t="s">
-        <v>150</v>
+      <c r="E908" s="3">
+        <v>2025</v>
       </c>
       <c r="F908" s="1">
-        <v>44426</v>
+        <v>44469</v>
       </c>
       <c r="G908" s="12">
-        <v>44426.729166666664</v>
+        <v>44469.826388888891</v>
       </c>
       <c r="H908" s="12">
-        <v>44426.739583333336</v>
+        <v>44469.829861111109</v>
       </c>
       <c r="I908" s="6">
         <v>0</v>
       </c>
       <c r="J908" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K908" s="2">
-        <v>44430.375</v>
+        <v>44472.75</v>
       </c>
     </row>
     <row r="909" spans="1:11" x14ac:dyDescent="0.25">
@@ -32933,28 +33086,28 @@
     </row>
     <row r="915" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="B915" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C915" t="s">
         <v>116</v>
       </c>
       <c r="D915" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="E915" s="3" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="F915" s="1">
         <v>44424</v>
       </c>
       <c r="G915" s="12">
-        <v>44424.895833333336</v>
+        <v>44424.770833333336</v>
       </c>
       <c r="H915" s="12">
-        <v>44424.916666666664</v>
+        <v>44424.791666666664</v>
       </c>
       <c r="I915" s="6">
         <v>0</v>
@@ -33094,7 +33247,7 @@
     </row>
     <row r="920" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>292</v>
+        <v>701</v>
       </c>
       <c r="B920" t="s">
         <v>743</v>
@@ -33103,28 +33256,28 @@
         <v>116</v>
       </c>
       <c r="D920" t="s">
-        <v>280</v>
-      </c>
-      <c r="E920" s="3" t="s">
-        <v>281</v>
+        <v>733</v>
+      </c>
+      <c r="E920" s="3">
+        <v>3204</v>
       </c>
       <c r="F920" s="1">
-        <v>44424</v>
+        <v>44474</v>
       </c>
       <c r="G920" s="12">
-        <v>44424.770833333336</v>
+        <v>44474.645833333336</v>
       </c>
       <c r="H920" s="12">
-        <v>44424.791666666664</v>
+        <v>44474.65625</v>
       </c>
       <c r="I920" s="6">
         <v>0</v>
       </c>
       <c r="J920" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K920" s="2">
-        <v>44429.375</v>
+        <v>44475.75</v>
       </c>
     </row>
     <row r="921" spans="1:11" x14ac:dyDescent="0.25">
@@ -34252,34 +34405,37 @@
     </row>
     <row r="956" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>745</v>
+        <v>588</v>
+      </c>
+      <c r="B956" t="s">
+        <v>743</v>
       </c>
       <c r="C956" t="s">
         <v>116</v>
       </c>
       <c r="D956" t="s">
-        <v>85</v>
+        <v>452</v>
       </c>
       <c r="E956" s="3">
-        <v>2013</v>
+        <v>3503</v>
       </c>
       <c r="F956" s="1">
-        <v>44468</v>
+        <v>44478</v>
       </c>
       <c r="G956" s="12">
-        <v>44468.736111111109</v>
+        <v>44478.451388888891</v>
       </c>
       <c r="H956" s="12">
-        <v>44468.756944444445</v>
+        <v>44478.510416666664</v>
       </c>
       <c r="I956" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J956" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K956" s="2">
-        <v>44481.416666666664</v>
+        <v>44479.5</v>
       </c>
     </row>
     <row r="957" spans="1:11" x14ac:dyDescent="0.25">
@@ -35134,10 +35290,10 @@
     </row>
     <row r="983" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>604</v>
+        <v>695</v>
       </c>
       <c r="B983" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C983" t="s">
         <v>116</v>
@@ -35146,25 +35302,25 @@
         <v>85</v>
       </c>
       <c r="E983" s="3">
-        <v>2104</v>
+        <v>1060</v>
       </c>
       <c r="F983" s="1">
-        <v>44473</v>
+        <v>44471</v>
       </c>
       <c r="G983" s="12">
-        <v>44473.520833333336</v>
+        <v>44471.489583333336</v>
       </c>
       <c r="H983" s="12">
-        <v>44473.572916666664</v>
+        <v>44471.532638888886</v>
       </c>
       <c r="I983" s="6">
         <v>1</v>
       </c>
       <c r="J983" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K983" s="2">
-        <v>44480.333333333336</v>
+        <v>44476.333333333336</v>
       </c>
     </row>
     <row r="984" spans="1:11" x14ac:dyDescent="0.25">
@@ -35204,72 +35360,72 @@
     </row>
     <row r="985" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>548</v>
+        <v>443</v>
       </c>
       <c r="B985" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C985" t="s">
         <v>116</v>
       </c>
       <c r="D985" t="s">
-        <v>569</v>
-      </c>
-      <c r="E985" s="3">
-        <v>3225</v>
+        <v>85</v>
+      </c>
+      <c r="E985" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="F985" s="1">
-        <v>44474</v>
+        <v>44467</v>
       </c>
       <c r="G985" s="12">
-        <v>44474.718055555553</v>
+        <v>44467.458333333336</v>
       </c>
       <c r="H985" s="12">
-        <v>44474.740277777775</v>
+        <v>44467.465277777781</v>
       </c>
       <c r="I985" s="6">
         <v>0</v>
       </c>
       <c r="J985" s="6">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K985" s="2">
-        <v>44480.333333333336</v>
+        <v>44468.75</v>
       </c>
     </row>
     <row r="986" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>548</v>
+        <v>443</v>
       </c>
       <c r="B986" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C986" t="s">
         <v>116</v>
       </c>
       <c r="D986" t="s">
-        <v>569</v>
+        <v>85</v>
       </c>
       <c r="E986" s="3">
-        <v>3225</v>
+        <v>2023</v>
       </c>
       <c r="F986" s="1">
-        <v>44476</v>
+        <v>44452</v>
       </c>
       <c r="G986" s="12">
-        <v>44476.499305555553</v>
+        <v>44452.322916666664</v>
       </c>
       <c r="H986" s="12">
-        <v>44476.521527777775</v>
+        <v>44452.333333333336</v>
       </c>
       <c r="I986" s="6">
         <v>0</v>
       </c>
       <c r="J986" s="6">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K986" s="2">
-        <v>44480.333333333336</v>
+        <v>44455.75</v>
       </c>
     </row>
     <row r="987" spans="1:11" x14ac:dyDescent="0.25">
